--- a/data/trans_orig/P62-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P62-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{51A9B53E-4402-4E2F-A769-75CE3E90493F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{751FFF51-E9C7-4DD6-88BD-B1E74A8E5AF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{7B14438E-C061-46B9-8C0F-2750B498B0B1}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{05C4663B-2F12-4960-8A36-83C297AEDEF3}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="500">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="506">
   <si>
     <t>Población según si percibe alguna pensión en 2007 (Tasa respuesta: 56,61%)</t>
   </si>
@@ -80,13 +80,13 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>2,0%</t>
+    <t>1,46%</t>
   </si>
   <si>
     <t>0,31%</t>
   </si>
   <si>
-    <t>1,83%</t>
+    <t>1,67%</t>
   </si>
   <si>
     <t>0,3%</t>
@@ -101,7 +101,7 @@
     <t>99,71%</t>
   </si>
   <si>
-    <t>98,0%</t>
+    <t>98,54%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -110,7 +110,7 @@
     <t>99,69%</t>
   </si>
   <si>
-    <t>98,17%</t>
+    <t>98,33%</t>
   </si>
   <si>
     <t>99,7%</t>
@@ -128,55 +128,55 @@
     <t>3,6%</t>
   </si>
   <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
   </si>
   <si>
     <t>3,8%</t>
   </si>
   <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
   </si>
   <si>
     <t>3,72%</t>
   </si>
   <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
   </si>
   <si>
     <t>96,4%</t>
   </si>
   <si>
-    <t>92,84%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
+    <t>92,27%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
   </si>
   <si>
     <t>96,2%</t>
   </si>
   <si>
-    <t>93,05%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
+    <t>93,25%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
   </si>
   <si>
     <t>96,28%</t>
   </si>
   <si>
-    <t>94,03%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
+    <t>93,92%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -185,55 +185,55 @@
     <t>35,98%</t>
   </si>
   <si>
-    <t>25,95%</t>
-  </si>
-  <si>
-    <t>48,36%</t>
+    <t>24,56%</t>
+  </si>
+  <si>
+    <t>48,96%</t>
   </si>
   <si>
     <t>5,02%</t>
   </si>
   <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
   </si>
   <si>
     <t>9,77%</t>
   </si>
   <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>13,19%</t>
   </si>
   <si>
     <t>64,02%</t>
   </si>
   <si>
-    <t>51,64%</t>
-  </si>
-  <si>
-    <t>74,05%</t>
+    <t>51,04%</t>
+  </si>
+  <si>
+    <t>75,44%</t>
   </si>
   <si>
     <t>94,98%</t>
   </si>
   <si>
-    <t>92,2%</t>
-  </si>
-  <si>
-    <t>96,8%</t>
+    <t>92,26%</t>
+  </si>
+  <si>
+    <t>96,74%</t>
   </si>
   <si>
     <t>90,23%</t>
   </si>
   <si>
-    <t>87,02%</t>
-  </si>
-  <si>
-    <t>92,88%</t>
+    <t>86,81%</t>
+  </si>
+  <si>
+    <t>92,71%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -242,55 +242,55 @@
     <t>56,66%</t>
   </si>
   <si>
-    <t>44,74%</t>
-  </si>
-  <si>
-    <t>67,49%</t>
+    <t>44,29%</t>
+  </si>
+  <si>
+    <t>67,55%</t>
   </si>
   <si>
     <t>11,91%</t>
   </si>
   <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>15,54%</t>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
   </si>
   <si>
     <t>20,41%</t>
   </si>
   <si>
-    <t>16,67%</t>
-  </si>
-  <si>
-    <t>24,23%</t>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>24,43%</t>
   </si>
   <si>
     <t>43,34%</t>
   </si>
   <si>
-    <t>32,51%</t>
-  </si>
-  <si>
-    <t>55,26%</t>
+    <t>32,45%</t>
+  </si>
+  <si>
+    <t>55,71%</t>
   </si>
   <si>
     <t>88,09%</t>
   </si>
   <si>
-    <t>84,46%</t>
-  </si>
-  <si>
-    <t>91,3%</t>
+    <t>84,51%</t>
+  </si>
+  <si>
+    <t>91,22%</t>
   </si>
   <si>
     <t>79,59%</t>
   </si>
   <si>
-    <t>75,77%</t>
-  </si>
-  <si>
-    <t>83,33%</t>
+    <t>75,57%</t>
+  </si>
+  <si>
+    <t>83,18%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -299,55 +299,55 @@
     <t>77,77%</t>
   </si>
   <si>
-    <t>71,69%</t>
-  </si>
-  <si>
-    <t>83,04%</t>
+    <t>71,54%</t>
+  </si>
+  <si>
+    <t>83,07%</t>
   </si>
   <si>
     <t>24,19%</t>
   </si>
   <si>
-    <t>19,52%</t>
-  </si>
-  <si>
-    <t>28,69%</t>
+    <t>19,53%</t>
+  </si>
+  <si>
+    <t>28,78%</t>
   </si>
   <si>
     <t>45,32%</t>
   </si>
   <si>
-    <t>41,03%</t>
-  </si>
-  <si>
-    <t>49,36%</t>
+    <t>40,96%</t>
+  </si>
+  <si>
+    <t>49,66%</t>
   </si>
   <si>
     <t>22,23%</t>
   </si>
   <si>
-    <t>16,96%</t>
-  </si>
-  <si>
-    <t>28,31%</t>
+    <t>16,93%</t>
+  </si>
+  <si>
+    <t>28,46%</t>
   </si>
   <si>
     <t>75,81%</t>
   </si>
   <si>
-    <t>71,31%</t>
-  </si>
-  <si>
-    <t>80,48%</t>
+    <t>71,22%</t>
+  </si>
+  <si>
+    <t>80,47%</t>
   </si>
   <si>
     <t>54,68%</t>
   </si>
   <si>
-    <t>50,64%</t>
-  </si>
-  <si>
-    <t>58,97%</t>
+    <t>50,34%</t>
+  </si>
+  <si>
+    <t>59,04%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -356,1033 +356,1057 @@
     <t>98,92%</t>
   </si>
   <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>63,17%</t>
+  </si>
+  <si>
+    <t>59,43%</t>
+  </si>
+  <si>
+    <t>66,65%</t>
+  </si>
+  <si>
+    <t>78,38%</t>
+  </si>
+  <si>
+    <t>75,93%</t>
+  </si>
+  <si>
+    <t>80,72%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>36,83%</t>
+  </si>
+  <si>
+    <t>33,35%</t>
+  </si>
+  <si>
+    <t>40,57%</t>
+  </si>
+  <si>
+    <t>21,62%</t>
+  </si>
+  <si>
+    <t>19,28%</t>
+  </si>
+  <si>
+    <t>24,07%</t>
+  </si>
+  <si>
+    <t>54,56%</t>
+  </si>
+  <si>
+    <t>51,92%</t>
+  </si>
+  <si>
+    <t>57,11%</t>
+  </si>
+  <si>
+    <t>24,64%</t>
+  </si>
+  <si>
+    <t>22,78%</t>
+  </si>
+  <si>
+    <t>26,38%</t>
+  </si>
+  <si>
+    <t>35,61%</t>
+  </si>
+  <si>
+    <t>34,1%</t>
+  </si>
+  <si>
+    <t>37,14%</t>
+  </si>
+  <si>
+    <t>45,44%</t>
+  </si>
+  <si>
+    <t>42,89%</t>
+  </si>
+  <si>
+    <t>48,08%</t>
+  </si>
+  <si>
+    <t>75,36%</t>
+  </si>
+  <si>
+    <t>73,62%</t>
+  </si>
+  <si>
+    <t>77,22%</t>
+  </si>
+  <si>
+    <t>64,39%</t>
+  </si>
+  <si>
+    <t>62,86%</t>
+  </si>
+  <si>
+    <t>65,9%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si percibe alguna pensión en 2012 (Tasa respuesta: 65,16%)</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>97,16%</t>
+  </si>
+  <si>
+    <t>94,52%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>98,06%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>94,42%</t>
+  </si>
+  <si>
+    <t>91,17%</t>
+  </si>
+  <si>
+    <t>96,67%</t>
+  </si>
+  <si>
+    <t>92,29%</t>
+  </si>
+  <si>
+    <t>88,81%</t>
+  </si>
+  <si>
+    <t>94,99%</t>
+  </si>
+  <si>
+    <t>93,31%</t>
+  </si>
+  <si>
+    <t>91,07%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
+  </si>
+  <si>
+    <t>18,58%</t>
+  </si>
+  <si>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>24,16%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>81,42%</t>
+  </si>
+  <si>
+    <t>75,84%</t>
+  </si>
+  <si>
+    <t>86,29%</t>
+  </si>
+  <si>
+    <t>90,47%</t>
+  </si>
+  <si>
+    <t>86,43%</t>
+  </si>
+  <si>
+    <t>93,15%</t>
+  </si>
+  <si>
+    <t>87,06%</t>
+  </si>
+  <si>
+    <t>84,0%</t>
+  </si>
+  <si>
+    <t>89,8%</t>
+  </si>
+  <si>
+    <t>30,97%</t>
+  </si>
+  <si>
+    <t>25,02%</t>
+  </si>
+  <si>
+    <t>37,41%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>18,4%</t>
+  </si>
+  <si>
+    <t>20,8%</t>
+  </si>
+  <si>
+    <t>17,21%</t>
+  </si>
+  <si>
+    <t>24,05%</t>
+  </si>
+  <si>
+    <t>69,03%</t>
+  </si>
+  <si>
+    <t>62,59%</t>
+  </si>
+  <si>
+    <t>74,98%</t>
+  </si>
+  <si>
+    <t>85,72%</t>
+  </si>
+  <si>
+    <t>81,6%</t>
+  </si>
+  <si>
+    <t>89,08%</t>
+  </si>
+  <si>
+    <t>79,2%</t>
+  </si>
+  <si>
+    <t>75,95%</t>
+  </si>
+  <si>
+    <t>82,79%</t>
+  </si>
+  <si>
+    <t>65,12%</t>
+  </si>
+  <si>
+    <t>59,49%</t>
+  </si>
+  <si>
+    <t>71,18%</t>
+  </si>
+  <si>
+    <t>25,81%</t>
+  </si>
+  <si>
+    <t>21,37%</t>
+  </si>
+  <si>
+    <t>30,77%</t>
+  </si>
+  <si>
+    <t>42,29%</t>
+  </si>
+  <si>
+    <t>38,39%</t>
+  </si>
+  <si>
+    <t>46,49%</t>
+  </si>
+  <si>
+    <t>34,88%</t>
+  </si>
+  <si>
+    <t>28,82%</t>
+  </si>
+  <si>
+    <t>40,51%</t>
+  </si>
+  <si>
+    <t>74,19%</t>
+  </si>
+  <si>
+    <t>69,23%</t>
+  </si>
+  <si>
+    <t>78,63%</t>
+  </si>
+  <si>
+    <t>57,71%</t>
+  </si>
+  <si>
+    <t>53,51%</t>
+  </si>
+  <si>
+    <t>61,61%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>71,17%</t>
+  </si>
+  <si>
+    <t>67,6%</t>
+  </si>
+  <si>
+    <t>74,39%</t>
+  </si>
+  <si>
+    <t>83,43%</t>
+  </si>
+  <si>
+    <t>81,19%</t>
+  </si>
+  <si>
+    <t>85,53%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>28,83%</t>
+  </si>
+  <si>
+    <t>25,61%</t>
+  </si>
+  <si>
+    <t>32,4%</t>
+  </si>
+  <si>
+    <t>16,57%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>18,81%</t>
+  </si>
+  <si>
+    <t>44,02%</t>
+  </si>
+  <si>
+    <t>41,45%</t>
+  </si>
+  <si>
+    <t>46,32%</t>
+  </si>
+  <si>
+    <t>29,07%</t>
+  </si>
+  <si>
+    <t>27,08%</t>
+  </si>
+  <si>
+    <t>30,69%</t>
+  </si>
+  <si>
+    <t>35,58%</t>
+  </si>
+  <si>
+    <t>33,96%</t>
+  </si>
+  <si>
+    <t>36,98%</t>
+  </si>
+  <si>
+    <t>55,98%</t>
+  </si>
+  <si>
+    <t>53,68%</t>
+  </si>
+  <si>
+    <t>58,55%</t>
+  </si>
+  <si>
+    <t>70,93%</t>
+  </si>
+  <si>
+    <t>69,31%</t>
+  </si>
+  <si>
+    <t>72,92%</t>
+  </si>
+  <si>
+    <t>64,42%</t>
+  </si>
+  <si>
+    <t>63,02%</t>
+  </si>
+  <si>
+    <t>66,04%</t>
+  </si>
+  <si>
+    <t>Población según si percibe alguna pensión en 2015 (Tasa respuesta: 63,37%)</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
+  </si>
+  <si>
+    <t>93,61%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
     <t>97,55%</t>
   </si>
   <si>
-    <t>99,61%</t>
-  </si>
-  <si>
-    <t>63,17%</t>
-  </si>
-  <si>
-    <t>59,21%</t>
-  </si>
-  <si>
-    <t>66,75%</t>
-  </si>
-  <si>
-    <t>78,38%</t>
-  </si>
-  <si>
-    <t>76,02%</t>
-  </si>
-  <si>
-    <t>80,74%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>36,83%</t>
-  </si>
-  <si>
-    <t>33,25%</t>
-  </si>
-  <si>
-    <t>40,79%</t>
-  </si>
-  <si>
-    <t>21,62%</t>
-  </si>
-  <si>
-    <t>19,26%</t>
-  </si>
-  <si>
-    <t>23,98%</t>
-  </si>
-  <si>
-    <t>54,56%</t>
-  </si>
-  <si>
-    <t>51,86%</t>
-  </si>
-  <si>
-    <t>57,12%</t>
-  </si>
-  <si>
-    <t>24,64%</t>
-  </si>
-  <si>
-    <t>22,86%</t>
-  </si>
-  <si>
-    <t>26,49%</t>
-  </si>
-  <si>
-    <t>35,61%</t>
-  </si>
-  <si>
-    <t>34,19%</t>
-  </si>
-  <si>
-    <t>37,31%</t>
-  </si>
-  <si>
-    <t>45,44%</t>
-  </si>
-  <si>
-    <t>42,88%</t>
-  </si>
-  <si>
-    <t>48,14%</t>
-  </si>
-  <si>
-    <t>75,36%</t>
-  </si>
-  <si>
-    <t>73,51%</t>
-  </si>
-  <si>
-    <t>77,14%</t>
-  </si>
-  <si>
-    <t>64,39%</t>
-  </si>
-  <si>
-    <t>62,69%</t>
-  </si>
-  <si>
-    <t>65,81%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si percibe alguna pensión en 2012 (Tasa respuesta: 65,16%)</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>97,32%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>97,16%</t>
-  </si>
-  <si>
-    <t>94,74%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>98,06%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>94,42%</t>
-  </si>
-  <si>
-    <t>91,55%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>92,29%</t>
-  </si>
-  <si>
-    <t>88,8%</t>
-  </si>
-  <si>
-    <t>93,31%</t>
-  </si>
-  <si>
-    <t>91,08%</t>
-  </si>
-  <si>
-    <t>95,18%</t>
-  </si>
-  <si>
-    <t>18,58%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>24,16%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
+    <t>96,14%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>94,07%</t>
+  </si>
+  <si>
+    <t>90,53%</t>
+  </si>
+  <si>
+    <t>96,66%</t>
+  </si>
+  <si>
+    <t>95,48%</t>
+  </si>
+  <si>
+    <t>92,52%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>94,83%</t>
+  </si>
+  <si>
+    <t>92,65%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>19,83%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>85,82%</t>
+  </si>
+  <si>
+    <t>80,17%</t>
+  </si>
+  <si>
+    <t>89,92%</t>
+  </si>
+  <si>
+    <t>91,36%</t>
+  </si>
+  <si>
+    <t>88,17%</t>
+  </si>
+  <si>
+    <t>93,99%</t>
+  </si>
+  <si>
+    <t>89,27%</t>
+  </si>
+  <si>
+    <t>91,73%</t>
+  </si>
+  <si>
+    <t>28,81%</t>
+  </si>
+  <si>
+    <t>23,53%</t>
+  </si>
+  <si>
+    <t>34,27%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>15,51%</t>
+  </si>
+  <si>
+    <t>18,95%</t>
+  </si>
+  <si>
+    <t>15,97%</t>
+  </si>
+  <si>
+    <t>22,09%</t>
+  </si>
+  <si>
+    <t>71,19%</t>
+  </si>
+  <si>
+    <t>65,73%</t>
+  </si>
+  <si>
+    <t>76,47%</t>
+  </si>
+  <si>
+    <t>87,98%</t>
+  </si>
+  <si>
+    <t>84,49%</t>
+  </si>
+  <si>
+    <t>91,15%</t>
+  </si>
+  <si>
+    <t>81,05%</t>
+  </si>
+  <si>
+    <t>77,91%</t>
+  </si>
+  <si>
+    <t>84,03%</t>
+  </si>
+  <si>
+    <t>64,55%</t>
+  </si>
+  <si>
+    <t>58,64%</t>
+  </si>
+  <si>
+    <t>69,87%</t>
+  </si>
+  <si>
+    <t>29,44%</t>
+  </si>
+  <si>
+    <t>24,71%</t>
+  </si>
+  <si>
+    <t>34,68%</t>
+  </si>
+  <si>
+    <t>45,15%</t>
+  </si>
+  <si>
+    <t>41,0%</t>
+  </si>
+  <si>
+    <t>49,06%</t>
+  </si>
+  <si>
+    <t>35,45%</t>
+  </si>
+  <si>
+    <t>30,13%</t>
+  </si>
+  <si>
+    <t>41,36%</t>
+  </si>
+  <si>
+    <t>70,56%</t>
+  </si>
+  <si>
+    <t>65,32%</t>
+  </si>
+  <si>
+    <t>75,29%</t>
+  </si>
+  <si>
+    <t>54,85%</t>
+  </si>
+  <si>
+    <t>50,94%</t>
+  </si>
+  <si>
+    <t>59,0%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>69,13%</t>
+  </si>
+  <si>
+    <t>65,6%</t>
+  </si>
+  <si>
+    <t>72,93%</t>
+  </si>
+  <si>
+    <t>81,96%</t>
+  </si>
+  <si>
+    <t>79,4%</t>
+  </si>
+  <si>
+    <t>83,89%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>30,87%</t>
+  </si>
+  <si>
+    <t>27,07%</t>
+  </si>
+  <si>
+    <t>34,4%</t>
+  </si>
+  <si>
+    <t>18,04%</t>
+  </si>
+  <si>
+    <t>16,11%</t>
+  </si>
+  <si>
+    <t>20,6%</t>
+  </si>
+  <si>
+    <t>46,36%</t>
+  </si>
+  <si>
+    <t>44,0%</t>
+  </si>
+  <si>
+    <t>48,61%</t>
+  </si>
+  <si>
+    <t>30,18%</t>
+  </si>
+  <si>
+    <t>28,18%</t>
+  </si>
+  <si>
+    <t>32,28%</t>
+  </si>
+  <si>
+    <t>37,33%</t>
+  </si>
+  <si>
+    <t>35,9%</t>
+  </si>
+  <si>
+    <t>38,83%</t>
+  </si>
+  <si>
+    <t>53,64%</t>
+  </si>
+  <si>
+    <t>51,39%</t>
+  </si>
+  <si>
+    <t>56,0%</t>
+  </si>
+  <si>
+    <t>69,82%</t>
+  </si>
+  <si>
+    <t>67,72%</t>
+  </si>
+  <si>
+    <t>71,82%</t>
+  </si>
+  <si>
+    <t>62,67%</t>
+  </si>
+  <si>
+    <t>61,17%</t>
+  </si>
+  <si>
+    <t>64,1%</t>
+  </si>
+  <si>
+    <t>Población según si percibe alguna pensión en 2023 (Tasa respuesta: 57,09%)</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
   </si>
   <si>
     <t>6,72%</t>
   </si>
   <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>15,88%</t>
-  </si>
-  <si>
-    <t>81,42%</t>
-  </si>
-  <si>
-    <t>75,84%</t>
-  </si>
-  <si>
-    <t>86,7%</t>
-  </si>
-  <si>
-    <t>90,47%</t>
-  </si>
-  <si>
-    <t>87,0%</t>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>96,05%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
   </si>
   <si>
     <t>93,28%</t>
   </si>
   <si>
-    <t>87,06%</t>
-  </si>
-  <si>
-    <t>84,12%</t>
-  </si>
-  <si>
-    <t>89,87%</t>
-  </si>
-  <si>
-    <t>30,97%</t>
-  </si>
-  <si>
-    <t>25,49%</t>
-  </si>
-  <si>
-    <t>37,5%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>18,4%</t>
-  </si>
-  <si>
-    <t>20,8%</t>
-  </si>
-  <si>
-    <t>17,47%</t>
-  </si>
-  <si>
-    <t>24,54%</t>
-  </si>
-  <si>
-    <t>69,03%</t>
-  </si>
-  <si>
-    <t>62,5%</t>
-  </si>
-  <si>
-    <t>74,51%</t>
-  </si>
-  <si>
-    <t>85,72%</t>
-  </si>
-  <si>
-    <t>81,6%</t>
-  </si>
-  <si>
-    <t>89,09%</t>
-  </si>
-  <si>
-    <t>79,2%</t>
-  </si>
-  <si>
-    <t>75,46%</t>
-  </si>
-  <si>
-    <t>82,53%</t>
-  </si>
-  <si>
-    <t>65,12%</t>
-  </si>
-  <si>
-    <t>59,04%</t>
-  </si>
-  <si>
-    <t>71,27%</t>
-  </si>
-  <si>
-    <t>25,81%</t>
-  </si>
-  <si>
-    <t>21,2%</t>
-  </si>
-  <si>
-    <t>30,62%</t>
-  </si>
-  <si>
-    <t>42,29%</t>
-  </si>
-  <si>
-    <t>38,11%</t>
-  </si>
-  <si>
-    <t>46,58%</t>
-  </si>
-  <si>
-    <t>34,88%</t>
-  </si>
-  <si>
-    <t>28,73%</t>
-  </si>
-  <si>
-    <t>40,96%</t>
-  </si>
-  <si>
-    <t>74,19%</t>
-  </si>
-  <si>
-    <t>69,38%</t>
-  </si>
-  <si>
-    <t>78,8%</t>
-  </si>
-  <si>
-    <t>57,71%</t>
-  </si>
-  <si>
-    <t>53,42%</t>
-  </si>
-  <si>
-    <t>61,89%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>71,17%</t>
-  </si>
-  <si>
-    <t>67,82%</t>
-  </si>
-  <si>
-    <t>74,77%</t>
-  </si>
-  <si>
-    <t>83,43%</t>
-  </si>
-  <si>
-    <t>81,11%</t>
-  </si>
-  <si>
-    <t>85,46%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>28,83%</t>
-  </si>
-  <si>
-    <t>25,23%</t>
-  </si>
-  <si>
-    <t>32,18%</t>
-  </si>
-  <si>
-    <t>16,57%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>44,02%</t>
-  </si>
-  <si>
-    <t>41,74%</t>
-  </si>
-  <si>
-    <t>46,27%</t>
-  </si>
-  <si>
-    <t>29,07%</t>
-  </si>
-  <si>
-    <t>27,22%</t>
-  </si>
-  <si>
-    <t>30,93%</t>
-  </si>
-  <si>
-    <t>35,58%</t>
-  </si>
-  <si>
-    <t>37,12%</t>
-  </si>
-  <si>
-    <t>55,98%</t>
-  </si>
-  <si>
-    <t>53,73%</t>
-  </si>
-  <si>
-    <t>58,26%</t>
-  </si>
-  <si>
-    <t>70,93%</t>
-  </si>
-  <si>
-    <t>69,07%</t>
-  </si>
-  <si>
-    <t>72,78%</t>
-  </si>
-  <si>
-    <t>64,42%</t>
-  </si>
-  <si>
-    <t>62,88%</t>
-  </si>
-  <si>
-    <t>Población según si percibe alguna pensión en 2015 (Tasa respuesta: 63,37%)</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>96,32%</t>
-  </si>
-  <si>
-    <t>93,36%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>94,07%</t>
-  </si>
-  <si>
-    <t>90,17%</t>
-  </si>
-  <si>
-    <t>96,55%</t>
-  </si>
-  <si>
-    <t>95,48%</t>
-  </si>
-  <si>
-    <t>92,89%</t>
-  </si>
-  <si>
-    <t>97,64%</t>
-  </si>
-  <si>
-    <t>94,83%</t>
-  </si>
-  <si>
-    <t>92,45%</t>
-  </si>
-  <si>
-    <t>96,59%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>19,46%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>85,82%</t>
-  </si>
-  <si>
-    <t>80,54%</t>
-  </si>
-  <si>
-    <t>90,07%</t>
-  </si>
-  <si>
-    <t>91,36%</t>
-  </si>
-  <si>
-    <t>87,91%</t>
-  </si>
-  <si>
-    <t>93,81%</t>
-  </si>
-  <si>
-    <t>89,27%</t>
-  </si>
-  <si>
-    <t>86,5%</t>
-  </si>
-  <si>
-    <t>91,83%</t>
-  </si>
-  <si>
-    <t>28,81%</t>
-  </si>
-  <si>
-    <t>23,29%</t>
-  </si>
-  <si>
-    <t>34,54%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>15,91%</t>
-  </si>
-  <si>
-    <t>18,95%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>22,34%</t>
-  </si>
-  <si>
-    <t>71,19%</t>
-  </si>
-  <si>
-    <t>65,46%</t>
-  </si>
-  <si>
-    <t>76,71%</t>
-  </si>
-  <si>
-    <t>87,98%</t>
-  </si>
-  <si>
-    <t>84,09%</t>
-  </si>
-  <si>
-    <t>90,67%</t>
-  </si>
-  <si>
-    <t>81,05%</t>
-  </si>
-  <si>
-    <t>77,66%</t>
-  </si>
-  <si>
-    <t>83,94%</t>
-  </si>
-  <si>
-    <t>64,55%</t>
-  </si>
-  <si>
-    <t>59,0%</t>
-  </si>
-  <si>
-    <t>69,95%</t>
-  </si>
-  <si>
-    <t>29,44%</t>
-  </si>
-  <si>
-    <t>24,69%</t>
-  </si>
-  <si>
-    <t>34,63%</t>
-  </si>
-  <si>
-    <t>45,15%</t>
-  </si>
-  <si>
-    <t>41,3%</t>
-  </si>
-  <si>
-    <t>48,93%</t>
-  </si>
-  <si>
-    <t>35,45%</t>
-  </si>
-  <si>
-    <t>30,05%</t>
-  </si>
-  <si>
-    <t>41,0%</t>
-  </si>
-  <si>
-    <t>70,56%</t>
-  </si>
-  <si>
-    <t>65,37%</t>
-  </si>
-  <si>
-    <t>75,31%</t>
-  </si>
-  <si>
-    <t>54,85%</t>
-  </si>
-  <si>
-    <t>51,07%</t>
-  </si>
-  <si>
-    <t>58,7%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>69,13%</t>
-  </si>
-  <si>
-    <t>65,34%</t>
-  </si>
-  <si>
-    <t>72,47%</t>
-  </si>
-  <si>
-    <t>81,96%</t>
-  </si>
-  <si>
-    <t>79,87%</t>
-  </si>
-  <si>
-    <t>84,17%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>30,87%</t>
-  </si>
-  <si>
-    <t>27,53%</t>
-  </si>
-  <si>
-    <t>34,66%</t>
-  </si>
-  <si>
-    <t>18,04%</t>
-  </si>
-  <si>
-    <t>15,83%</t>
-  </si>
-  <si>
-    <t>20,13%</t>
-  </si>
-  <si>
-    <t>46,36%</t>
-  </si>
-  <si>
-    <t>43,94%</t>
-  </si>
-  <si>
-    <t>48,4%</t>
-  </si>
-  <si>
-    <t>30,18%</t>
-  </si>
-  <si>
-    <t>28,2%</t>
-  </si>
-  <si>
-    <t>32,06%</t>
-  </si>
-  <si>
-    <t>37,33%</t>
-  </si>
-  <si>
-    <t>35,92%</t>
-  </si>
-  <si>
-    <t>38,72%</t>
-  </si>
-  <si>
-    <t>53,64%</t>
-  </si>
-  <si>
-    <t>51,6%</t>
-  </si>
-  <si>
-    <t>56,06%</t>
-  </si>
-  <si>
-    <t>69,82%</t>
-  </si>
-  <si>
-    <t>67,94%</t>
-  </si>
-  <si>
-    <t>71,8%</t>
-  </si>
-  <si>
-    <t>62,67%</t>
-  </si>
-  <si>
-    <t>61,28%</t>
-  </si>
-  <si>
-    <t>64,08%</t>
-  </si>
-  <si>
-    <t>Población según si percibe alguna pensión en 2023 (Tasa respuesta: 57,09%)</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>92,81%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>96,44%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
   </si>
   <si>
     <t>11,69%</t>
   </si>
   <si>
-    <t>23,42%</t>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>22,67%</t>
   </si>
   <si>
     <t>7,58%</t>
   </si>
   <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>13,61%</t>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>12,85%</t>
   </si>
   <si>
     <t>8,79%</t>
   </si>
   <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
   </si>
   <si>
     <t>88,31%</t>
   </si>
   <si>
-    <t>76,58%</t>
+    <t>77,33%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
   </si>
   <si>
     <t>92,42%</t>
   </si>
   <si>
-    <t>86,39%</t>
-  </si>
-  <si>
-    <t>96,21%</t>
+    <t>87,15%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
   </si>
   <si>
     <t>91,21%</t>
   </si>
   <si>
-    <t>86,27%</t>
-  </si>
-  <si>
-    <t>94,5%</t>
+    <t>86,8%</t>
+  </si>
+  <si>
+    <t>94,75%</t>
   </si>
   <si>
     <t>28,55%</t>
   </si>
   <si>
-    <t>18,68%</t>
-  </si>
-  <si>
-    <t>40,8%</t>
+    <t>17,06%</t>
+  </si>
+  <si>
+    <t>40,23%</t>
   </si>
   <si>
     <t>14,35%</t>
   </si>
   <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>18,98%</t>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>19,2%</t>
   </si>
   <si>
     <t>18,16%</t>
   </si>
   <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>22,51%</t>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>22,69%</t>
   </si>
   <si>
     <t>71,45%</t>
   </si>
   <si>
-    <t>59,2%</t>
-  </si>
-  <si>
-    <t>81,32%</t>
+    <t>59,77%</t>
+  </si>
+  <si>
+    <t>82,94%</t>
   </si>
   <si>
     <t>85,65%</t>
   </si>
   <si>
-    <t>81,02%</t>
-  </si>
-  <si>
-    <t>89,43%</t>
+    <t>80,8%</t>
+  </si>
+  <si>
+    <t>89,49%</t>
   </si>
   <si>
     <t>81,84%</t>
   </si>
   <si>
-    <t>77,49%</t>
-  </si>
-  <si>
-    <t>85,88%</t>
+    <t>77,31%</t>
+  </si>
+  <si>
+    <t>85,93%</t>
   </si>
   <si>
     <t>40,54%</t>
   </si>
   <si>
-    <t>49,63%</t>
+    <t>32,0%</t>
+  </si>
+  <si>
+    <t>49,0%</t>
   </si>
   <si>
     <t>15,93%</t>
   </si>
   <si>
-    <t>12,79%</t>
+    <t>12,65%</t>
   </si>
   <si>
     <t>24,26%</t>
   </si>
   <si>
-    <t>20,58%</t>
-  </si>
-  <si>
-    <t>28,4%</t>
+    <t>20,64%</t>
   </si>
   <si>
     <t>59,46%</t>
   </si>
   <si>
-    <t>50,37%</t>
+    <t>51,0%</t>
+  </si>
+  <si>
+    <t>68,0%</t>
   </si>
   <si>
     <t>84,07%</t>
   </si>
   <si>
-    <t>87,21%</t>
+    <t>87,35%</t>
   </si>
   <si>
     <t>75,74%</t>
   </si>
   <si>
-    <t>71,6%</t>
-  </si>
-  <si>
-    <t>79,42%</t>
+    <t>79,36%</t>
   </si>
   <si>
     <t>66,06%</t>
   </si>
   <si>
-    <t>60,4%</t>
+    <t>60,52%</t>
   </si>
   <si>
     <t>71,53%</t>
@@ -1391,19 +1415,19 @@
     <t>32,13%</t>
   </si>
   <si>
-    <t>28,79%</t>
-  </si>
-  <si>
-    <t>36,95%</t>
+    <t>28,42%</t>
+  </si>
+  <si>
+    <t>36,2%</t>
   </si>
   <si>
     <t>46,85%</t>
   </si>
   <si>
-    <t>43,37%</t>
-  </si>
-  <si>
-    <t>50,06%</t>
+    <t>43,46%</t>
+  </si>
+  <si>
+    <t>50,28%</t>
   </si>
   <si>
     <t>33,94%</t>
@@ -1412,133 +1436,127 @@
     <t>28,47%</t>
   </si>
   <si>
-    <t>39,6%</t>
+    <t>39,48%</t>
   </si>
   <si>
     <t>67,87%</t>
   </si>
   <si>
-    <t>63,05%</t>
-  </si>
-  <si>
-    <t>71,21%</t>
+    <t>63,8%</t>
+  </si>
+  <si>
+    <t>71,58%</t>
   </si>
   <si>
     <t>53,15%</t>
   </si>
   <si>
-    <t>49,94%</t>
-  </si>
-  <si>
-    <t>56,63%</t>
+    <t>49,72%</t>
+  </si>
+  <si>
+    <t>56,54%</t>
   </si>
   <si>
     <t>87,17%</t>
   </si>
   <si>
-    <t>85,03%</t>
-  </si>
-  <si>
-    <t>89,19%</t>
+    <t>84,99%</t>
+  </si>
+  <si>
+    <t>89,3%</t>
   </si>
   <si>
     <t>71,61%</t>
   </si>
   <si>
-    <t>67,29%</t>
-  </si>
-  <si>
-    <t>80,33%</t>
+    <t>67,33%</t>
+  </si>
+  <si>
+    <t>80,63%</t>
   </si>
   <si>
     <t>77,89%</t>
   </si>
   <si>
-    <t>75,7%</t>
-  </si>
-  <si>
-    <t>82,69%</t>
+    <t>75,86%</t>
+  </si>
+  <si>
+    <t>83,08%</t>
   </si>
   <si>
     <t>12,83%</t>
   </si>
   <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>14,97%</t>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>15,01%</t>
   </si>
   <si>
     <t>28,39%</t>
   </si>
   <si>
-    <t>19,67%</t>
-  </si>
-  <si>
-    <t>32,71%</t>
+    <t>19,37%</t>
+  </si>
+  <si>
+    <t>32,67%</t>
   </si>
   <si>
     <t>22,11%</t>
   </si>
   <si>
-    <t>17,31%</t>
-  </si>
-  <si>
-    <t>24,3%</t>
+    <t>16,92%</t>
+  </si>
+  <si>
+    <t>24,14%</t>
   </si>
   <si>
     <t>56,39%</t>
   </si>
   <si>
-    <t>53,29%</t>
-  </si>
-  <si>
-    <t>59,16%</t>
+    <t>59,33%</t>
   </si>
   <si>
     <t>40,69%</t>
   </si>
   <si>
-    <t>37,06%</t>
-  </si>
-  <si>
-    <t>50,73%</t>
+    <t>37,11%</t>
+  </si>
+  <si>
+    <t>49,65%</t>
   </si>
   <si>
     <t>47,01%</t>
   </si>
   <si>
-    <t>44,77%</t>
-  </si>
-  <si>
-    <t>52,66%</t>
+    <t>44,75%</t>
+  </si>
+  <si>
+    <t>51,74%</t>
   </si>
   <si>
     <t>43,61%</t>
   </si>
   <si>
-    <t>40,84%</t>
-  </si>
-  <si>
-    <t>46,71%</t>
+    <t>40,67%</t>
   </si>
   <si>
     <t>59,31%</t>
   </si>
   <si>
-    <t>49,27%</t>
-  </si>
-  <si>
-    <t>62,94%</t>
+    <t>50,35%</t>
+  </si>
+  <si>
+    <t>62,89%</t>
   </si>
   <si>
     <t>52,99%</t>
   </si>
   <si>
-    <t>47,34%</t>
-  </si>
-  <si>
-    <t>55,23%</t>
+    <t>48,26%</t>
+  </si>
+  <si>
+    <t>55,25%</t>
   </si>
 </sst>
 </file>
@@ -1950,7 +1968,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5DC616E-593A-48C3-BFDA-B19611E5F8C4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{438DE1DA-7EC4-4C0E-A4BE-022AE7C021F6}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2876,7 +2894,7 @@
         <v>918</v>
       </c>
       <c r="N19" s="7">
-        <v>916095</v>
+        <v>916096</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>110</v>
@@ -2978,7 +2996,7 @@
         <v>1173</v>
       </c>
       <c r="N21" s="7">
-        <v>1168725</v>
+        <v>1168726</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>26</v>
@@ -3169,7 +3187,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E948A2F-1BA4-4F15-B50C-DB97E7B01E11}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{921289AC-297A-4F62-93C4-02D5F2F6F54F}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3466,10 +3484,10 @@
         <v>163</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>50</v>
+        <v>164</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="M7" s="7">
         <v>39</v>
@@ -3478,13 +3496,13 @@
         <v>42044</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3499,13 +3517,13 @@
         <v>283590</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H8" s="7">
         <v>285</v>
@@ -3514,13 +3532,13 @@
         <v>302707</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>59</v>
+        <v>174</v>
       </c>
       <c r="M8" s="7">
         <v>564</v>
@@ -3529,13 +3547,13 @@
         <v>586297</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3603,13 +3621,13 @@
         <v>46723</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="H10" s="7">
         <v>34</v>
@@ -3618,13 +3636,13 @@
         <v>39667</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="M10" s="7">
         <v>76</v>
@@ -3633,13 +3651,13 @@
         <v>86390</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3654,13 +3672,13 @@
         <v>204746</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="H11" s="7">
         <v>352</v>
@@ -3669,13 +3687,13 @@
         <v>376659</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="M11" s="7">
         <v>546</v>
@@ -3684,13 +3702,13 @@
         <v>581406</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3758,13 +3776,13 @@
         <v>75827</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="H13" s="7">
         <v>49</v>
@@ -3773,13 +3791,13 @@
         <v>54635</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="M13" s="7">
         <v>116</v>
@@ -3788,13 +3806,13 @@
         <v>130462</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3809,13 +3827,13 @@
         <v>169041</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="H14" s="7">
         <v>289</v>
@@ -3824,13 +3842,13 @@
         <v>327856</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="M14" s="7">
         <v>443</v>
@@ -3839,13 +3857,13 @@
         <v>496897</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3913,13 +3931,13 @@
         <v>174529</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="H16" s="7">
         <v>88</v>
@@ -3928,13 +3946,13 @@
         <v>95754</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="M16" s="7">
         <v>247</v>
@@ -3943,13 +3961,13 @@
         <v>270283</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3964,13 +3982,13 @@
         <v>93466</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="H17" s="7">
         <v>249</v>
@@ -3979,13 +3997,13 @@
         <v>275301</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="M17" s="7">
         <v>332</v>
@@ -3994,13 +4012,13 @@
         <v>368767</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4068,10 +4086,10 @@
         <v>554461</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>106</v>
+        <v>232</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>21</v>
@@ -4083,13 +4101,13 @@
         <v>523191</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="M19" s="7">
         <v>985</v>
@@ -4098,13 +4116,13 @@
         <v>1077651</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4119,13 +4137,13 @@
         <v>2160</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>114</v>
+        <v>240</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="H20" s="7">
         <v>200</v>
@@ -4134,13 +4152,13 @@
         <v>211946</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="M20" s="7">
         <v>202</v>
@@ -4149,13 +4167,13 @@
         <v>214107</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4223,13 +4241,13 @@
         <v>872220</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="H22" s="7">
         <v>689</v>
@@ -4238,13 +4256,13 @@
         <v>748218</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="M22" s="7">
         <v>1476</v>
@@ -4253,13 +4271,13 @@
         <v>1620438</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>129</v>
+        <v>255</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4274,13 +4292,13 @@
         <v>1109193</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="H23" s="7">
         <v>1699</v>
@@ -4289,13 +4307,13 @@
         <v>1825320</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="M23" s="7">
         <v>2764</v>
@@ -4304,13 +4322,13 @@
         <v>2934514</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>139</v>
+        <v>265</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4388,7 +4406,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{476A0BF3-A590-4479-820A-A318F3C38858}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7FE9251-DED6-4D59-9AAA-3B67B22ED8F7}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4405,7 +4423,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4512,13 +4530,13 @@
         <v>4483</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>146</v>
+        <v>241</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="H4" s="7">
         <v>11</v>
@@ -4527,13 +4545,13 @@
         <v>10621</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>13</v>
+        <v>270</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="M4" s="7">
         <v>15</v>
@@ -4542,13 +4560,13 @@
         <v>15104</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>115</v>
+        <v>272</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4563,13 +4581,13 @@
         <v>322518</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>156</v>
+        <v>233</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="H5" s="7">
         <v>285</v>
@@ -4578,13 +4596,13 @@
         <v>278153</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>20</v>
+        <v>279</v>
       </c>
       <c r="M5" s="7">
         <v>588</v>
@@ -4593,13 +4611,13 @@
         <v>600671</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>105</v>
+        <v>280</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>272</v>
+        <v>282</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4667,13 +4685,13 @@
         <v>14440</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>273</v>
+        <v>283</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>275</v>
+        <v>285</v>
       </c>
       <c r="H7" s="7">
         <v>13</v>
@@ -4682,13 +4700,13 @@
         <v>12850</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>276</v>
+        <v>286</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>277</v>
+        <v>287</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>278</v>
+        <v>288</v>
       </c>
       <c r="M7" s="7">
         <v>27</v>
@@ -4697,13 +4715,13 @@
         <v>27289</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>281</v>
+        <v>291</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4718,13 +4736,13 @@
         <v>229008</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>282</v>
+        <v>292</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>284</v>
+        <v>294</v>
       </c>
       <c r="H8" s="7">
         <v>278</v>
@@ -4733,13 +4751,13 @@
         <v>271643</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>285</v>
+        <v>295</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>286</v>
+        <v>296</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>287</v>
+        <v>297</v>
       </c>
       <c r="M8" s="7">
         <v>499</v>
@@ -4748,13 +4766,13 @@
         <v>500651</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>289</v>
+        <v>299</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4822,13 +4840,13 @@
         <v>29525</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>292</v>
+        <v>302</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>293</v>
+        <v>303</v>
       </c>
       <c r="H10" s="7">
         <v>31</v>
@@ -4837,13 +4855,13 @@
         <v>29632</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>294</v>
+        <v>304</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>296</v>
+        <v>306</v>
       </c>
       <c r="M10" s="7">
         <v>59</v>
@@ -4852,13 +4870,13 @@
         <v>59156</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>297</v>
+        <v>307</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>298</v>
+        <v>308</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>299</v>
+        <v>179</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4873,13 +4891,13 @@
         <v>178670</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>300</v>
+        <v>309</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>301</v>
+        <v>310</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>302</v>
+        <v>311</v>
       </c>
       <c r="H11" s="7">
         <v>314</v>
@@ -4888,13 +4906,13 @@
         <v>313401</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>303</v>
+        <v>312</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>304</v>
+        <v>313</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="M11" s="7">
         <v>486</v>
@@ -4903,13 +4921,13 @@
         <v>492071</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>306</v>
+        <v>315</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>307</v>
+        <v>189</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4977,13 +4995,13 @@
         <v>79808</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="H13" s="7">
         <v>44</v>
@@ -4992,13 +5010,13 @@
         <v>47340</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="M13" s="7">
         <v>116</v>
@@ -5007,13 +5025,13 @@
         <v>127148</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5028,13 +5046,13 @@
         <v>197245</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="H14" s="7">
         <v>324</v>
@@ -5043,13 +5061,13 @@
         <v>346537</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="M14" s="7">
         <v>502</v>
@@ -5058,13 +5076,13 @@
         <v>543782</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5132,13 +5150,13 @@
         <v>200303</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="H16" s="7">
         <v>99</v>
@@ -5147,13 +5165,13 @@
         <v>112851</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="M16" s="7">
         <v>276</v>
@@ -5162,13 +5180,13 @@
         <v>313154</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5183,13 +5201,13 @@
         <v>110008</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="H17" s="7">
         <v>237</v>
@@ -5198,13 +5216,13 @@
         <v>270449</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="M17" s="7">
         <v>337</v>
@@ -5213,13 +5231,13 @@
         <v>380456</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5287,13 +5305,13 @@
         <v>573666</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="H19" s="7">
         <v>441</v>
@@ -5302,13 +5320,13 @@
         <v>528727</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="M19" s="7">
         <v>1049</v>
@@ -5317,13 +5335,13 @@
         <v>1102394</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5338,13 +5356,13 @@
         <v>6643</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="H20" s="7">
         <v>202</v>
@@ -5353,13 +5371,13 @@
         <v>236073</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="M20" s="7">
         <v>209</v>
@@ -5368,13 +5386,13 @@
         <v>242716</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5442,13 +5460,13 @@
         <v>902225</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="H22" s="7">
         <v>639</v>
@@ -5457,13 +5475,13 @@
         <v>742021</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>368</v>
+        <v>376</v>
       </c>
       <c r="M22" s="7">
         <v>1542</v>
@@ -5472,13 +5490,13 @@
         <v>1644246</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5493,13 +5511,13 @@
         <v>1044091</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>374</v>
+        <v>382</v>
       </c>
       <c r="H23" s="7">
         <v>1640</v>
@@ -5508,28 +5526,28 @@
         <v>1716255</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>375</v>
+        <v>383</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>376</v>
+        <v>384</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="M23" s="7">
         <v>2621</v>
       </c>
       <c r="N23" s="7">
-        <v>2760346</v>
+        <v>2760347</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>379</v>
+        <v>387</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>380</v>
+        <v>388</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5571,7 +5589,7 @@
         <v>4163</v>
       </c>
       <c r="N24" s="7">
-        <v>4404592</v>
+        <v>4404593</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>26</v>
@@ -5607,7 +5625,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{227CA099-A8D6-4E2B-B255-A1ED0343296A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB60A611-4B74-4184-AD7B-F4FE6ADD78F6}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5624,7 +5642,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5731,13 +5749,13 @@
         <v>2053</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>382</v>
+        <v>390</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>383</v>
+        <v>391</v>
       </c>
       <c r="H4" s="7">
         <v>3</v>
@@ -5746,13 +5764,13 @@
         <v>6185</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>384</v>
+        <v>392</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>385</v>
+        <v>393</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>386</v>
+        <v>394</v>
       </c>
       <c r="M4" s="7">
         <v>4</v>
@@ -5761,13 +5779,13 @@
         <v>8238</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>387</v>
+        <v>29</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>388</v>
+        <v>395</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>389</v>
+        <v>396</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5782,10 +5800,10 @@
         <v>284726</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>390</v>
+        <v>397</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>21</v>
@@ -5797,13 +5815,13 @@
         <v>251319</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>393</v>
+        <v>400</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>394</v>
+        <v>401</v>
       </c>
       <c r="M5" s="7">
         <v>269</v>
@@ -5812,13 +5830,13 @@
         <v>536045</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>395</v>
+        <v>39</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5886,13 +5904,13 @@
         <v>8502</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>147</v>
+        <v>405</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>399</v>
+        <v>406</v>
       </c>
       <c r="H7" s="7">
         <v>12</v>
@@ -5901,13 +5919,13 @@
         <v>13120</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>400</v>
+        <v>407</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>401</v>
+        <v>408</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>402</v>
+        <v>409</v>
       </c>
       <c r="M7" s="7">
         <v>18</v>
@@ -5916,13 +5934,13 @@
         <v>21621</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>403</v>
+        <v>410</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>404</v>
+        <v>411</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>405</v>
+        <v>412</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5937,13 +5955,13 @@
         <v>64242</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>406</v>
+        <v>413</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>407</v>
+        <v>414</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>155</v>
+        <v>415</v>
       </c>
       <c r="H8" s="7">
         <v>148</v>
@@ -5952,13 +5970,13 @@
         <v>160038</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>408</v>
+        <v>416</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>409</v>
+        <v>417</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>410</v>
+        <v>418</v>
       </c>
       <c r="M8" s="7">
         <v>193</v>
@@ -5967,13 +5985,13 @@
         <v>224281</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>411</v>
+        <v>419</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>412</v>
+        <v>420</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>413</v>
+        <v>421</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6041,13 +6059,13 @@
         <v>21461</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>414</v>
+        <v>422</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>416</v>
+        <v>424</v>
       </c>
       <c r="H10" s="7">
         <v>38</v>
@@ -6056,13 +6074,13 @@
         <v>29420</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>417</v>
+        <v>425</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>418</v>
+        <v>426</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>419</v>
+        <v>427</v>
       </c>
       <c r="M10" s="7">
         <v>56</v>
@@ -6071,13 +6089,13 @@
         <v>50881</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>420</v>
+        <v>428</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>421</v>
+        <v>429</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>422</v>
+        <v>430</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6092,13 +6110,13 @@
         <v>53702</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>423</v>
+        <v>431</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>424</v>
+        <v>432</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>425</v>
+        <v>433</v>
       </c>
       <c r="H11" s="7">
         <v>259</v>
@@ -6107,13 +6125,13 @@
         <v>175553</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>426</v>
+        <v>434</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>427</v>
+        <v>435</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>428</v>
+        <v>436</v>
       </c>
       <c r="M11" s="7">
         <v>312</v>
@@ -6122,13 +6140,13 @@
         <v>229255</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>429</v>
+        <v>437</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>430</v>
+        <v>438</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>431</v>
+        <v>439</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6196,13 +6214,13 @@
         <v>57660</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>432</v>
+        <v>440</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>240</v>
+        <v>441</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
       <c r="H13" s="7">
         <v>71</v>
@@ -6211,13 +6229,13 @@
         <v>44351</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>435</v>
+        <v>444</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>362</v>
+        <v>303</v>
       </c>
       <c r="M13" s="7">
         <v>124</v>
@@ -6226,13 +6244,13 @@
         <v>102011</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>437</v>
+        <v>446</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>438</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6247,13 +6265,13 @@
         <v>84564</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>440</v>
+        <v>448</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>232</v>
+        <v>449</v>
       </c>
       <c r="H14" s="7">
         <v>355</v>
@@ -6262,13 +6280,13 @@
         <v>233996</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>441</v>
+        <v>450</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>352</v>
+        <v>310</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="M14" s="7">
         <v>441</v>
@@ -6277,13 +6295,13 @@
         <v>318560</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>443</v>
+        <v>452</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>444</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>445</v>
+        <v>453</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6351,13 +6369,13 @@
         <v>184364</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>446</v>
+        <v>454</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>447</v>
+        <v>455</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>448</v>
+        <v>456</v>
       </c>
       <c r="H16" s="7">
         <v>189</v>
@@ -6366,13 +6384,13 @@
         <v>117045</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>449</v>
+        <v>457</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>450</v>
+        <v>458</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>451</v>
+        <v>459</v>
       </c>
       <c r="M16" s="7">
         <v>385</v>
@@ -6381,13 +6399,13 @@
         <v>301408</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>452</v>
+        <v>460</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>453</v>
+        <v>461</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>454</v>
+        <v>462</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6402,13 +6420,13 @@
         <v>94742</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>455</v>
+        <v>463</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>456</v>
+        <v>464</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>457</v>
+        <v>465</v>
       </c>
       <c r="H17" s="7">
         <v>417</v>
@@ -6417,13 +6435,13 @@
         <v>247247</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>458</v>
+        <v>466</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>459</v>
+        <v>467</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>460</v>
+        <v>468</v>
       </c>
       <c r="M17" s="7">
         <v>526</v>
@@ -6432,13 +6450,13 @@
         <v>341990</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>461</v>
+        <v>469</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>462</v>
+        <v>470</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>463</v>
+        <v>471</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6506,13 +6524,13 @@
         <v>591030</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>464</v>
+        <v>472</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>465</v>
+        <v>473</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>466</v>
+        <v>474</v>
       </c>
       <c r="H19" s="7">
         <v>1120</v>
@@ -6521,28 +6539,28 @@
         <v>718219</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>467</v>
+        <v>475</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>468</v>
+        <v>476</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>469</v>
+        <v>477</v>
       </c>
       <c r="M19" s="7">
         <v>1981</v>
       </c>
       <c r="N19" s="7">
-        <v>1309249</v>
+        <v>1309248</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>470</v>
+        <v>478</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>471</v>
+        <v>479</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>472</v>
+        <v>480</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6557,13 +6575,13 @@
         <v>86952</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>473</v>
+        <v>481</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>474</v>
+        <v>482</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>475</v>
+        <v>483</v>
       </c>
       <c r="H20" s="7">
         <v>544</v>
@@ -6572,13 +6590,13 @@
         <v>284737</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>476</v>
+        <v>484</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>477</v>
+        <v>485</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>478</v>
+        <v>486</v>
       </c>
       <c r="M20" s="7">
         <v>682</v>
@@ -6587,13 +6605,13 @@
         <v>371689</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>479</v>
+        <v>487</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>480</v>
+        <v>488</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>481</v>
+        <v>489</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6635,7 +6653,7 @@
         <v>2663</v>
       </c>
       <c r="N21" s="7">
-        <v>1680938</v>
+        <v>1680937</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>26</v>
@@ -6661,13 +6679,13 @@
         <v>865069</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>482</v>
+        <v>490</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>483</v>
+        <v>230</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>484</v>
+        <v>491</v>
       </c>
       <c r="H22" s="7">
         <v>1433</v>
@@ -6676,13 +6694,13 @@
         <v>928340</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>485</v>
+        <v>492</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>486</v>
+        <v>493</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>487</v>
+        <v>494</v>
       </c>
       <c r="M22" s="7">
         <v>2568</v>
@@ -6691,13 +6709,13 @@
         <v>1793409</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>488</v>
+        <v>495</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>489</v>
+        <v>496</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>490</v>
+        <v>497</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6712,13 +6730,13 @@
         <v>668929</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>491</v>
+        <v>498</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>492</v>
+        <v>499</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>493</v>
+        <v>222</v>
       </c>
       <c r="H23" s="7">
         <v>1869</v>
@@ -6727,13 +6745,13 @@
         <v>1352890</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>494</v>
+        <v>500</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>495</v>
+        <v>501</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>496</v>
+        <v>502</v>
       </c>
       <c r="M23" s="7">
         <v>2423</v>
@@ -6742,13 +6760,13 @@
         <v>2021819</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>497</v>
+        <v>503</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>498</v>
+        <v>504</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>499</v>
+        <v>505</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P62-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P62-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{751FFF51-E9C7-4DD6-88BD-B1E74A8E5AF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{04262608-90FA-44AE-B316-4349A1537750}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{05C4663B-2F12-4960-8A36-83C297AEDEF3}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F8BD10C5-5843-4360-9FA8-0DBA811482BF}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="506">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="514">
   <si>
     <t>Población según si percibe alguna pensión en 2007 (Tasa respuesta: 56,61%)</t>
   </si>
@@ -80,19 +80,19 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>1,46%</t>
+    <t>1,48%</t>
   </si>
   <si>
     <t>0,31%</t>
   </si>
   <si>
-    <t>1,67%</t>
+    <t>1,54%</t>
   </si>
   <si>
     <t>0,3%</t>
   </si>
   <si>
-    <t>1,04%</t>
+    <t>1,05%</t>
   </si>
   <si>
     <t>No</t>
@@ -101,7 +101,7 @@
     <t>99,71%</t>
   </si>
   <si>
-    <t>98,54%</t>
+    <t>98,52%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -110,13 +110,13 @@
     <t>99,69%</t>
   </si>
   <si>
-    <t>98,33%</t>
+    <t>98,46%</t>
   </si>
   <si>
     <t>99,7%</t>
   </si>
   <si>
-    <t>98,96%</t>
+    <t>98,95%</t>
   </si>
   <si>
     <t>100%</t>
@@ -128,1417 +128,1441 @@
     <t>3,6%</t>
   </si>
   <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>96,4%</t>
+  </si>
+  <si>
+    <t>92,68%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>96,2%</t>
+  </si>
+  <si>
+    <t>93,13%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
+  </si>
+  <si>
+    <t>96,28%</t>
+  </si>
+  <si>
+    <t>94,25%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>35,98%</t>
+  </si>
+  <si>
+    <t>25,42%</t>
+  </si>
+  <si>
+    <t>48,35%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>12,98%</t>
+  </si>
+  <si>
+    <t>64,02%</t>
+  </si>
+  <si>
+    <t>51,65%</t>
+  </si>
+  <si>
+    <t>74,58%</t>
+  </si>
+  <si>
+    <t>94,98%</t>
+  </si>
+  <si>
+    <t>92,43%</t>
+  </si>
+  <si>
+    <t>96,9%</t>
+  </si>
+  <si>
+    <t>90,23%</t>
+  </si>
+  <si>
+    <t>87,02%</t>
+  </si>
+  <si>
+    <t>92,85%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>56,66%</t>
+  </si>
+  <si>
+    <t>45,61%</t>
+  </si>
+  <si>
+    <t>68,11%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>20,41%</t>
+  </si>
+  <si>
+    <t>16,76%</t>
+  </si>
+  <si>
+    <t>24,37%</t>
+  </si>
+  <si>
+    <t>43,34%</t>
+  </si>
+  <si>
+    <t>31,89%</t>
+  </si>
+  <si>
+    <t>54,39%</t>
+  </si>
+  <si>
+    <t>88,09%</t>
+  </si>
+  <si>
+    <t>83,59%</t>
+  </si>
+  <si>
+    <t>91,01%</t>
+  </si>
+  <si>
+    <t>79,59%</t>
+  </si>
+  <si>
+    <t>75,63%</t>
+  </si>
+  <si>
+    <t>83,24%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>77,77%</t>
+  </si>
+  <si>
+    <t>72,19%</t>
+  </si>
+  <si>
+    <t>82,93%</t>
+  </si>
+  <si>
+    <t>24,19%</t>
+  </si>
+  <si>
+    <t>19,69%</t>
+  </si>
+  <si>
+    <t>29,13%</t>
+  </si>
+  <si>
+    <t>45,32%</t>
+  </si>
+  <si>
+    <t>41,1%</t>
+  </si>
+  <si>
+    <t>49,45%</t>
+  </si>
+  <si>
+    <t>22,23%</t>
+  </si>
+  <si>
+    <t>17,07%</t>
+  </si>
+  <si>
+    <t>27,81%</t>
+  </si>
+  <si>
+    <t>75,81%</t>
+  </si>
+  <si>
+    <t>70,87%</t>
+  </si>
+  <si>
+    <t>80,31%</t>
+  </si>
+  <si>
+    <t>54,68%</t>
+  </si>
+  <si>
+    <t>50,55%</t>
+  </si>
+  <si>
+    <t>58,9%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>63,17%</t>
+  </si>
+  <si>
+    <t>58,99%</t>
+  </si>
+  <si>
+    <t>66,75%</t>
+  </si>
+  <si>
+    <t>78,38%</t>
+  </si>
+  <si>
+    <t>75,97%</t>
+  </si>
+  <si>
+    <t>80,61%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>36,83%</t>
+  </si>
+  <si>
+    <t>33,25%</t>
+  </si>
+  <si>
+    <t>41,01%</t>
+  </si>
+  <si>
+    <t>21,62%</t>
+  </si>
+  <si>
+    <t>19,39%</t>
+  </si>
+  <si>
+    <t>24,03%</t>
+  </si>
+  <si>
+    <t>54,56%</t>
+  </si>
+  <si>
+    <t>51,8%</t>
+  </si>
+  <si>
+    <t>57,15%</t>
+  </si>
+  <si>
+    <t>24,64%</t>
+  </si>
+  <si>
+    <t>22,83%</t>
+  </si>
+  <si>
+    <t>26,48%</t>
+  </si>
+  <si>
+    <t>35,61%</t>
+  </si>
+  <si>
+    <t>34,06%</t>
+  </si>
+  <si>
+    <t>37,28%</t>
+  </si>
+  <si>
+    <t>45,44%</t>
+  </si>
+  <si>
+    <t>42,85%</t>
+  </si>
+  <si>
+    <t>48,2%</t>
+  </si>
+  <si>
+    <t>75,36%</t>
+  </si>
+  <si>
+    <t>73,52%</t>
+  </si>
+  <si>
+    <t>77,17%</t>
+  </si>
+  <si>
+    <t>64,39%</t>
+  </si>
+  <si>
+    <t>62,72%</t>
+  </si>
+  <si>
+    <t>65,94%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si percibe alguna pensión en 2012 (Tasa respuesta: 65,16%)</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>97,16%</t>
+  </si>
+  <si>
+    <t>94,69%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>98,06%</t>
+  </si>
+  <si>
+    <t>96,46%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>94,42%</t>
+  </si>
+  <si>
+    <t>91,16%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
+  </si>
+  <si>
+    <t>92,29%</t>
+  </si>
+  <si>
+    <t>89,05%</t>
+  </si>
+  <si>
+    <t>95,08%</t>
+  </si>
+  <si>
+    <t>93,31%</t>
+  </si>
+  <si>
+    <t>91,03%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
+  </si>
+  <si>
+    <t>18,58%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>24,71%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>81,42%</t>
+  </si>
+  <si>
+    <t>75,29%</t>
+  </si>
+  <si>
+    <t>86,22%</t>
+  </si>
+  <si>
+    <t>90,47%</t>
+  </si>
+  <si>
+    <t>86,84%</t>
+  </si>
+  <si>
+    <t>93,2%</t>
+  </si>
+  <si>
+    <t>87,06%</t>
+  </si>
+  <si>
+    <t>83,98%</t>
+  </si>
+  <si>
+    <t>89,53%</t>
+  </si>
+  <si>
+    <t>30,97%</t>
+  </si>
+  <si>
+    <t>25,11%</t>
+  </si>
+  <si>
+    <t>37,67%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>18,43%</t>
+  </si>
+  <si>
+    <t>20,8%</t>
+  </si>
+  <si>
+    <t>17,36%</t>
+  </si>
+  <si>
+    <t>24,51%</t>
+  </si>
+  <si>
+    <t>69,03%</t>
+  </si>
+  <si>
+    <t>62,33%</t>
+  </si>
+  <si>
+    <t>74,89%</t>
+  </si>
+  <si>
+    <t>85,72%</t>
+  </si>
+  <si>
+    <t>81,57%</t>
+  </si>
+  <si>
+    <t>89,03%</t>
+  </si>
+  <si>
+    <t>79,2%</t>
+  </si>
+  <si>
+    <t>75,49%</t>
+  </si>
+  <si>
+    <t>82,64%</t>
+  </si>
+  <si>
+    <t>65,12%</t>
+  </si>
+  <si>
+    <t>58,04%</t>
+  </si>
+  <si>
+    <t>70,98%</t>
+  </si>
+  <si>
+    <t>25,81%</t>
+  </si>
+  <si>
+    <t>21,35%</t>
+  </si>
+  <si>
+    <t>30,71%</t>
+  </si>
+  <si>
+    <t>42,29%</t>
+  </si>
+  <si>
+    <t>38,33%</t>
+  </si>
+  <si>
+    <t>46,76%</t>
+  </si>
+  <si>
+    <t>34,88%</t>
+  </si>
+  <si>
+    <t>29,02%</t>
+  </si>
+  <si>
+    <t>41,96%</t>
+  </si>
+  <si>
+    <t>74,19%</t>
+  </si>
+  <si>
+    <t>69,29%</t>
+  </si>
+  <si>
+    <t>78,65%</t>
+  </si>
+  <si>
+    <t>57,71%</t>
+  </si>
+  <si>
+    <t>53,24%</t>
+  </si>
+  <si>
+    <t>61,67%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>71,17%</t>
+  </si>
+  <si>
+    <t>67,77%</t>
+  </si>
+  <si>
+    <t>74,4%</t>
+  </si>
+  <si>
+    <t>83,43%</t>
+  </si>
+  <si>
+    <t>81,21%</t>
+  </si>
+  <si>
+    <t>85,39%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>28,83%</t>
+  </si>
+  <si>
+    <t>25,6%</t>
+  </si>
+  <si>
+    <t>32,23%</t>
+  </si>
+  <si>
+    <t>16,57%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>18,79%</t>
+  </si>
+  <si>
+    <t>44,02%</t>
+  </si>
+  <si>
+    <t>41,68%</t>
+  </si>
+  <si>
+    <t>46,32%</t>
+  </si>
+  <si>
+    <t>29,07%</t>
+  </si>
+  <si>
+    <t>27,25%</t>
+  </si>
+  <si>
+    <t>30,93%</t>
+  </si>
+  <si>
+    <t>35,58%</t>
+  </si>
+  <si>
+    <t>34,17%</t>
+  </si>
+  <si>
+    <t>36,97%</t>
+  </si>
+  <si>
+    <t>55,98%</t>
+  </si>
+  <si>
+    <t>53,68%</t>
+  </si>
+  <si>
+    <t>58,32%</t>
+  </si>
+  <si>
+    <t>70,93%</t>
+  </si>
+  <si>
+    <t>69,07%</t>
+  </si>
+  <si>
+    <t>72,75%</t>
+  </si>
+  <si>
+    <t>64,42%</t>
+  </si>
+  <si>
+    <t>63,03%</t>
+  </si>
+  <si>
+    <t>65,83%</t>
+  </si>
+  <si>
+    <t>Población según si percibe alguna pensión en 2016 (Tasa respuesta: 63,37%)</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>96,6%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
+  </si>
+  <si>
+    <t>93,65%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>97,55%</t>
+  </si>
+  <si>
+    <t>96,06%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>94,07%</t>
+  </si>
+  <si>
+    <t>90,57%</t>
+  </si>
+  <si>
+    <t>96,72%</t>
+  </si>
+  <si>
+    <t>95,48%</t>
+  </si>
+  <si>
+    <t>92,39%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>94,83%</t>
+  </si>
+  <si>
+    <t>92,5%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>19,33%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>85,82%</t>
+  </si>
+  <si>
+    <t>80,67%</t>
+  </si>
+  <si>
+    <t>90,77%</t>
+  </si>
+  <si>
+    <t>91,36%</t>
+  </si>
+  <si>
+    <t>88,11%</t>
+  </si>
+  <si>
+    <t>94,05%</t>
+  </si>
+  <si>
+    <t>89,27%</t>
+  </si>
+  <si>
+    <t>86,52%</t>
+  </si>
+  <si>
+    <t>91,76%</t>
+  </si>
+  <si>
+    <t>28,81%</t>
+  </si>
+  <si>
+    <t>23,78%</t>
+  </si>
+  <si>
+    <t>34,91%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>15,37%</t>
+  </si>
+  <si>
+    <t>18,95%</t>
+  </si>
+  <si>
+    <t>15,77%</t>
+  </si>
+  <si>
+    <t>22,4%</t>
+  </si>
+  <si>
+    <t>71,19%</t>
+  </si>
+  <si>
+    <t>65,09%</t>
+  </si>
+  <si>
+    <t>76,22%</t>
+  </si>
+  <si>
+    <t>87,98%</t>
+  </si>
+  <si>
+    <t>84,63%</t>
+  </si>
+  <si>
+    <t>91,32%</t>
+  </si>
+  <si>
+    <t>81,05%</t>
+  </si>
+  <si>
+    <t>77,6%</t>
+  </si>
+  <si>
+    <t>84,23%</t>
+  </si>
+  <si>
+    <t>64,55%</t>
+  </si>
+  <si>
+    <t>59,03%</t>
+  </si>
+  <si>
+    <t>70,32%</t>
+  </si>
+  <si>
+    <t>29,44%</t>
+  </si>
+  <si>
+    <t>24,85%</t>
+  </si>
+  <si>
+    <t>33,84%</t>
+  </si>
+  <si>
+    <t>45,15%</t>
+  </si>
+  <si>
+    <t>41,11%</t>
+  </si>
+  <si>
+    <t>49,53%</t>
+  </si>
+  <si>
+    <t>35,45%</t>
+  </si>
+  <si>
+    <t>29,68%</t>
+  </si>
+  <si>
+    <t>40,97%</t>
+  </si>
+  <si>
+    <t>70,56%</t>
+  </si>
+  <si>
+    <t>66,16%</t>
+  </si>
+  <si>
+    <t>75,15%</t>
+  </si>
+  <si>
+    <t>54,85%</t>
+  </si>
+  <si>
+    <t>50,47%</t>
+  </si>
+  <si>
+    <t>58,89%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>69,13%</t>
+  </si>
+  <si>
+    <t>65,34%</t>
+  </si>
+  <si>
+    <t>72,77%</t>
+  </si>
+  <si>
+    <t>81,96%</t>
+  </si>
+  <si>
+    <t>79,66%</t>
+  </si>
+  <si>
+    <t>84,14%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>30,87%</t>
+  </si>
+  <si>
+    <t>27,23%</t>
+  </si>
+  <si>
+    <t>34,66%</t>
+  </si>
+  <si>
+    <t>18,04%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>20,34%</t>
+  </si>
+  <si>
+    <t>46,36%</t>
+  </si>
+  <si>
+    <t>43,92%</t>
+  </si>
+  <si>
+    <t>48,58%</t>
+  </si>
+  <si>
+    <t>30,18%</t>
+  </si>
+  <si>
+    <t>28,25%</t>
+  </si>
+  <si>
+    <t>32,13%</t>
+  </si>
+  <si>
+    <t>37,33%</t>
+  </si>
+  <si>
+    <t>35,69%</t>
+  </si>
+  <si>
+    <t>38,74%</t>
+  </si>
+  <si>
+    <t>53,64%</t>
+  </si>
+  <si>
+    <t>51,42%</t>
+  </si>
+  <si>
+    <t>56,08%</t>
+  </si>
+  <si>
+    <t>69,82%</t>
+  </si>
+  <si>
+    <t>67,87%</t>
+  </si>
+  <si>
+    <t>71,75%</t>
+  </si>
+  <si>
+    <t>62,67%</t>
+  </si>
+  <si>
+    <t>61,26%</t>
+  </si>
+  <si>
+    <t>64,31%</t>
+  </si>
+  <si>
+    <t>Población según si percibe alguna pensión en 2023 (Tasa respuesta: 57,09%)</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
     <t>1,51%</t>
   </si>
   <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>96,4%</t>
-  </si>
-  <si>
-    <t>92,27%</t>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>96,05%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>93,28%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
   </si>
   <si>
     <t>98,49%</t>
   </si>
   <si>
-    <t>96,2%</t>
-  </si>
-  <si>
-    <t>93,25%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>96,28%</t>
-  </si>
-  <si>
-    <t>93,92%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>35,98%</t>
-  </si>
-  <si>
-    <t>24,56%</t>
-  </si>
-  <si>
-    <t>48,96%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>64,02%</t>
-  </si>
-  <si>
-    <t>51,04%</t>
-  </si>
-  <si>
-    <t>75,44%</t>
-  </si>
-  <si>
-    <t>94,98%</t>
-  </si>
-  <si>
-    <t>92,26%</t>
-  </si>
-  <si>
-    <t>96,74%</t>
-  </si>
-  <si>
-    <t>90,23%</t>
-  </si>
-  <si>
-    <t>86,81%</t>
-  </si>
-  <si>
-    <t>92,71%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>56,66%</t>
-  </si>
-  <si>
-    <t>44,29%</t>
-  </si>
-  <si>
-    <t>67,55%</t>
-  </si>
-  <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>20,41%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>24,43%</t>
-  </si>
-  <si>
-    <t>43,34%</t>
-  </si>
-  <si>
-    <t>32,45%</t>
-  </si>
-  <si>
-    <t>55,71%</t>
-  </si>
-  <si>
-    <t>88,09%</t>
-  </si>
-  <si>
-    <t>84,51%</t>
-  </si>
-  <si>
-    <t>91,22%</t>
-  </si>
-  <si>
-    <t>79,59%</t>
-  </si>
-  <si>
-    <t>75,57%</t>
-  </si>
-  <si>
-    <t>83,18%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>77,77%</t>
+    <t>96,44%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>22,67%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>12,85%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>88,31%</t>
+  </si>
+  <si>
+    <t>77,33%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
+  </si>
+  <si>
+    <t>92,42%</t>
+  </si>
+  <si>
+    <t>87,15%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
+  </si>
+  <si>
+    <t>91,21%</t>
+  </si>
+  <si>
+    <t>86,8%</t>
+  </si>
+  <si>
+    <t>94,75%</t>
+  </si>
+  <si>
+    <t>28,55%</t>
+  </si>
+  <si>
+    <t>17,06%</t>
+  </si>
+  <si>
+    <t>40,23%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>19,2%</t>
+  </si>
+  <si>
+    <t>18,16%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>22,69%</t>
+  </si>
+  <si>
+    <t>71,45%</t>
+  </si>
+  <si>
+    <t>59,77%</t>
+  </si>
+  <si>
+    <t>82,94%</t>
+  </si>
+  <si>
+    <t>85,65%</t>
+  </si>
+  <si>
+    <t>80,8%</t>
+  </si>
+  <si>
+    <t>89,49%</t>
+  </si>
+  <si>
+    <t>81,84%</t>
+  </si>
+  <si>
+    <t>77,31%</t>
+  </si>
+  <si>
+    <t>85,93%</t>
+  </si>
+  <si>
+    <t>40,54%</t>
+  </si>
+  <si>
+    <t>32,0%</t>
+  </si>
+  <si>
+    <t>49,0%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>19,83%</t>
+  </si>
+  <si>
+    <t>24,26%</t>
+  </si>
+  <si>
+    <t>20,64%</t>
+  </si>
+  <si>
+    <t>28,46%</t>
+  </si>
+  <si>
+    <t>59,46%</t>
+  </si>
+  <si>
+    <t>51,0%</t>
+  </si>
+  <si>
+    <t>68,0%</t>
+  </si>
+  <si>
+    <t>84,07%</t>
+  </si>
+  <si>
+    <t>80,17%</t>
+  </si>
+  <si>
+    <t>87,35%</t>
+  </si>
+  <si>
+    <t>75,74%</t>
   </si>
   <si>
     <t>71,54%</t>
   </si>
   <si>
-    <t>83,07%</t>
-  </si>
-  <si>
-    <t>24,19%</t>
-  </si>
-  <si>
-    <t>19,53%</t>
-  </si>
-  <si>
-    <t>28,78%</t>
-  </si>
-  <si>
-    <t>45,32%</t>
-  </si>
-  <si>
-    <t>40,96%</t>
-  </si>
-  <si>
-    <t>49,66%</t>
-  </si>
-  <si>
-    <t>22,23%</t>
-  </si>
-  <si>
-    <t>16,93%</t>
-  </si>
-  <si>
-    <t>28,46%</t>
-  </si>
-  <si>
-    <t>75,81%</t>
-  </si>
-  <si>
-    <t>71,22%</t>
-  </si>
-  <si>
-    <t>80,47%</t>
-  </si>
-  <si>
-    <t>54,68%</t>
-  </si>
-  <si>
-    <t>50,34%</t>
-  </si>
-  <si>
-    <t>59,04%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>63,17%</t>
-  </si>
-  <si>
-    <t>59,43%</t>
-  </si>
-  <si>
-    <t>66,65%</t>
-  </si>
-  <si>
-    <t>78,38%</t>
-  </si>
-  <si>
-    <t>75,93%</t>
-  </si>
-  <si>
-    <t>80,72%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>36,83%</t>
-  </si>
-  <si>
-    <t>33,35%</t>
-  </si>
-  <si>
-    <t>40,57%</t>
-  </si>
-  <si>
-    <t>21,62%</t>
-  </si>
-  <si>
-    <t>19,28%</t>
-  </si>
-  <si>
-    <t>24,07%</t>
-  </si>
-  <si>
-    <t>54,56%</t>
-  </si>
-  <si>
-    <t>51,92%</t>
-  </si>
-  <si>
-    <t>57,11%</t>
-  </si>
-  <si>
-    <t>24,64%</t>
-  </si>
-  <si>
-    <t>22,78%</t>
-  </si>
-  <si>
-    <t>26,38%</t>
-  </si>
-  <si>
-    <t>35,61%</t>
-  </si>
-  <si>
-    <t>34,1%</t>
-  </si>
-  <si>
-    <t>37,14%</t>
-  </si>
-  <si>
-    <t>45,44%</t>
-  </si>
-  <si>
-    <t>42,89%</t>
-  </si>
-  <si>
-    <t>48,08%</t>
-  </si>
-  <si>
-    <t>75,36%</t>
-  </si>
-  <si>
-    <t>73,62%</t>
-  </si>
-  <si>
-    <t>77,22%</t>
-  </si>
-  <si>
-    <t>64,39%</t>
-  </si>
-  <si>
-    <t>62,86%</t>
-  </si>
-  <si>
-    <t>65,9%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si percibe alguna pensión en 2012 (Tasa respuesta: 65,16%)</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>97,16%</t>
-  </si>
-  <si>
-    <t>94,52%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>98,06%</t>
-  </si>
-  <si>
-    <t>96,88%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>11,19%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>94,42%</t>
-  </si>
-  <si>
-    <t>91,17%</t>
-  </si>
-  <si>
-    <t>96,67%</t>
-  </si>
-  <si>
-    <t>92,29%</t>
-  </si>
-  <si>
-    <t>88,81%</t>
-  </si>
-  <si>
-    <t>94,99%</t>
-  </si>
-  <si>
-    <t>93,31%</t>
-  </si>
-  <si>
-    <t>91,07%</t>
-  </si>
-  <si>
-    <t>95,09%</t>
-  </si>
-  <si>
-    <t>18,58%</t>
-  </si>
-  <si>
-    <t>13,71%</t>
-  </si>
-  <si>
-    <t>24,16%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>81,42%</t>
-  </si>
-  <si>
-    <t>75,84%</t>
-  </si>
-  <si>
-    <t>86,29%</t>
-  </si>
-  <si>
-    <t>90,47%</t>
-  </si>
-  <si>
-    <t>86,43%</t>
-  </si>
-  <si>
-    <t>93,15%</t>
-  </si>
-  <si>
-    <t>87,06%</t>
-  </si>
-  <si>
-    <t>84,0%</t>
-  </si>
-  <si>
-    <t>89,8%</t>
-  </si>
-  <si>
-    <t>30,97%</t>
-  </si>
-  <si>
-    <t>25,02%</t>
-  </si>
-  <si>
-    <t>37,41%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>18,4%</t>
-  </si>
-  <si>
-    <t>20,8%</t>
-  </si>
-  <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>24,05%</t>
-  </si>
-  <si>
-    <t>69,03%</t>
-  </si>
-  <si>
-    <t>62,59%</t>
-  </si>
-  <si>
-    <t>74,98%</t>
-  </si>
-  <si>
-    <t>85,72%</t>
-  </si>
-  <si>
-    <t>81,6%</t>
-  </si>
-  <si>
-    <t>89,08%</t>
-  </si>
-  <si>
-    <t>79,2%</t>
-  </si>
-  <si>
-    <t>75,95%</t>
-  </si>
-  <si>
-    <t>82,79%</t>
-  </si>
-  <si>
-    <t>65,12%</t>
-  </si>
-  <si>
-    <t>59,49%</t>
-  </si>
-  <si>
-    <t>71,18%</t>
-  </si>
-  <si>
-    <t>25,81%</t>
-  </si>
-  <si>
-    <t>21,37%</t>
-  </si>
-  <si>
-    <t>30,77%</t>
-  </si>
-  <si>
-    <t>42,29%</t>
-  </si>
-  <si>
-    <t>38,39%</t>
+    <t>79,36%</t>
+  </si>
+  <si>
+    <t>66,06%</t>
+  </si>
+  <si>
+    <t>60,52%</t>
+  </si>
+  <si>
+    <t>71,53%</t>
+  </si>
+  <si>
+    <t>28,42%</t>
+  </si>
+  <si>
+    <t>36,2%</t>
+  </si>
+  <si>
+    <t>46,85%</t>
+  </si>
+  <si>
+    <t>43,46%</t>
+  </si>
+  <si>
+    <t>50,28%</t>
+  </si>
+  <si>
+    <t>33,94%</t>
+  </si>
+  <si>
+    <t>28,47%</t>
+  </si>
+  <si>
+    <t>39,48%</t>
+  </si>
+  <si>
+    <t>63,8%</t>
+  </si>
+  <si>
+    <t>71,58%</t>
+  </si>
+  <si>
+    <t>53,15%</t>
+  </si>
+  <si>
+    <t>49,72%</t>
+  </si>
+  <si>
+    <t>56,54%</t>
+  </si>
+  <si>
+    <t>87,17%</t>
+  </si>
+  <si>
+    <t>84,99%</t>
+  </si>
+  <si>
+    <t>89,3%</t>
+  </si>
+  <si>
+    <t>71,61%</t>
+  </si>
+  <si>
+    <t>67,33%</t>
+  </si>
+  <si>
+    <t>80,63%</t>
+  </si>
+  <si>
+    <t>77,89%</t>
+  </si>
+  <si>
+    <t>75,86%</t>
+  </si>
+  <si>
+    <t>83,08%</t>
+  </si>
+  <si>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>15,01%</t>
+  </si>
+  <si>
+    <t>28,39%</t>
+  </si>
+  <si>
+    <t>19,37%</t>
+  </si>
+  <si>
+    <t>32,67%</t>
+  </si>
+  <si>
+    <t>22,11%</t>
+  </si>
+  <si>
+    <t>16,92%</t>
+  </si>
+  <si>
+    <t>24,14%</t>
+  </si>
+  <si>
+    <t>56,39%</t>
+  </si>
+  <si>
+    <t>53,51%</t>
+  </si>
+  <si>
+    <t>59,33%</t>
+  </si>
+  <si>
+    <t>40,69%</t>
+  </si>
+  <si>
+    <t>37,11%</t>
+  </si>
+  <si>
+    <t>49,65%</t>
+  </si>
+  <si>
+    <t>47,01%</t>
+  </si>
+  <si>
+    <t>44,75%</t>
+  </si>
+  <si>
+    <t>51,74%</t>
+  </si>
+  <si>
+    <t>43,61%</t>
+  </si>
+  <si>
+    <t>40,67%</t>
   </si>
   <si>
     <t>46,49%</t>
-  </si>
-  <si>
-    <t>34,88%</t>
-  </si>
-  <si>
-    <t>28,82%</t>
-  </si>
-  <si>
-    <t>40,51%</t>
-  </si>
-  <si>
-    <t>74,19%</t>
-  </si>
-  <si>
-    <t>69,23%</t>
-  </si>
-  <si>
-    <t>78,63%</t>
-  </si>
-  <si>
-    <t>57,71%</t>
-  </si>
-  <si>
-    <t>53,51%</t>
-  </si>
-  <si>
-    <t>61,61%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>71,17%</t>
-  </si>
-  <si>
-    <t>67,6%</t>
-  </si>
-  <si>
-    <t>74,39%</t>
-  </si>
-  <si>
-    <t>83,43%</t>
-  </si>
-  <si>
-    <t>81,19%</t>
-  </si>
-  <si>
-    <t>85,53%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>28,83%</t>
-  </si>
-  <si>
-    <t>25,61%</t>
-  </si>
-  <si>
-    <t>32,4%</t>
-  </si>
-  <si>
-    <t>16,57%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>18,81%</t>
-  </si>
-  <si>
-    <t>44,02%</t>
-  </si>
-  <si>
-    <t>41,45%</t>
-  </si>
-  <si>
-    <t>46,32%</t>
-  </si>
-  <si>
-    <t>29,07%</t>
-  </si>
-  <si>
-    <t>27,08%</t>
-  </si>
-  <si>
-    <t>30,69%</t>
-  </si>
-  <si>
-    <t>35,58%</t>
-  </si>
-  <si>
-    <t>33,96%</t>
-  </si>
-  <si>
-    <t>36,98%</t>
-  </si>
-  <si>
-    <t>55,98%</t>
-  </si>
-  <si>
-    <t>53,68%</t>
-  </si>
-  <si>
-    <t>58,55%</t>
-  </si>
-  <si>
-    <t>70,93%</t>
-  </si>
-  <si>
-    <t>69,31%</t>
-  </si>
-  <si>
-    <t>72,92%</t>
-  </si>
-  <si>
-    <t>64,42%</t>
-  </si>
-  <si>
-    <t>63,02%</t>
-  </si>
-  <si>
-    <t>66,04%</t>
-  </si>
-  <si>
-    <t>Población según si percibe alguna pensión en 2015 (Tasa respuesta: 63,37%)</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>96,63%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>96,32%</t>
-  </si>
-  <si>
-    <t>93,61%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>97,55%</t>
-  </si>
-  <si>
-    <t>96,14%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>94,07%</t>
-  </si>
-  <si>
-    <t>90,53%</t>
-  </si>
-  <si>
-    <t>96,66%</t>
-  </si>
-  <si>
-    <t>95,48%</t>
-  </si>
-  <si>
-    <t>92,52%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>94,83%</t>
-  </si>
-  <si>
-    <t>92,65%</t>
-  </si>
-  <si>
-    <t>96,48%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>19,83%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>85,82%</t>
-  </si>
-  <si>
-    <t>80,17%</t>
-  </si>
-  <si>
-    <t>89,92%</t>
-  </si>
-  <si>
-    <t>91,36%</t>
-  </si>
-  <si>
-    <t>88,17%</t>
-  </si>
-  <si>
-    <t>93,99%</t>
-  </si>
-  <si>
-    <t>89,27%</t>
-  </si>
-  <si>
-    <t>91,73%</t>
-  </si>
-  <si>
-    <t>28,81%</t>
-  </si>
-  <si>
-    <t>23,53%</t>
-  </si>
-  <si>
-    <t>34,27%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>15,51%</t>
-  </si>
-  <si>
-    <t>18,95%</t>
-  </si>
-  <si>
-    <t>15,97%</t>
-  </si>
-  <si>
-    <t>22,09%</t>
-  </si>
-  <si>
-    <t>71,19%</t>
-  </si>
-  <si>
-    <t>65,73%</t>
-  </si>
-  <si>
-    <t>76,47%</t>
-  </si>
-  <si>
-    <t>87,98%</t>
-  </si>
-  <si>
-    <t>84,49%</t>
-  </si>
-  <si>
-    <t>91,15%</t>
-  </si>
-  <si>
-    <t>81,05%</t>
-  </si>
-  <si>
-    <t>77,91%</t>
-  </si>
-  <si>
-    <t>84,03%</t>
-  </si>
-  <si>
-    <t>64,55%</t>
-  </si>
-  <si>
-    <t>58,64%</t>
-  </si>
-  <si>
-    <t>69,87%</t>
-  </si>
-  <si>
-    <t>29,44%</t>
-  </si>
-  <si>
-    <t>24,71%</t>
-  </si>
-  <si>
-    <t>34,68%</t>
-  </si>
-  <si>
-    <t>45,15%</t>
-  </si>
-  <si>
-    <t>41,0%</t>
-  </si>
-  <si>
-    <t>49,06%</t>
-  </si>
-  <si>
-    <t>35,45%</t>
-  </si>
-  <si>
-    <t>30,13%</t>
-  </si>
-  <si>
-    <t>41,36%</t>
-  </si>
-  <si>
-    <t>70,56%</t>
-  </si>
-  <si>
-    <t>65,32%</t>
-  </si>
-  <si>
-    <t>75,29%</t>
-  </si>
-  <si>
-    <t>54,85%</t>
-  </si>
-  <si>
-    <t>50,94%</t>
-  </si>
-  <si>
-    <t>59,0%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>69,13%</t>
-  </si>
-  <si>
-    <t>65,6%</t>
-  </si>
-  <si>
-    <t>72,93%</t>
-  </si>
-  <si>
-    <t>81,96%</t>
-  </si>
-  <si>
-    <t>79,4%</t>
-  </si>
-  <si>
-    <t>83,89%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>30,87%</t>
-  </si>
-  <si>
-    <t>27,07%</t>
-  </si>
-  <si>
-    <t>34,4%</t>
-  </si>
-  <si>
-    <t>18,04%</t>
-  </si>
-  <si>
-    <t>16,11%</t>
-  </si>
-  <si>
-    <t>20,6%</t>
-  </si>
-  <si>
-    <t>46,36%</t>
-  </si>
-  <si>
-    <t>44,0%</t>
-  </si>
-  <si>
-    <t>48,61%</t>
-  </si>
-  <si>
-    <t>30,18%</t>
-  </si>
-  <si>
-    <t>28,18%</t>
-  </si>
-  <si>
-    <t>32,28%</t>
-  </si>
-  <si>
-    <t>37,33%</t>
-  </si>
-  <si>
-    <t>35,9%</t>
-  </si>
-  <si>
-    <t>38,83%</t>
-  </si>
-  <si>
-    <t>53,64%</t>
-  </si>
-  <si>
-    <t>51,39%</t>
-  </si>
-  <si>
-    <t>56,0%</t>
-  </si>
-  <si>
-    <t>69,82%</t>
-  </si>
-  <si>
-    <t>67,72%</t>
-  </si>
-  <si>
-    <t>71,82%</t>
-  </si>
-  <si>
-    <t>62,67%</t>
-  </si>
-  <si>
-    <t>61,17%</t>
-  </si>
-  <si>
-    <t>64,1%</t>
-  </si>
-  <si>
-    <t>Población según si percibe alguna pensión en 2023 (Tasa respuesta: 57,09%)</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>96,05%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>93,28%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>96,44%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>22,67%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>88,31%</t>
-  </si>
-  <si>
-    <t>77,33%</t>
-  </si>
-  <si>
-    <t>95,79%</t>
-  </si>
-  <si>
-    <t>92,42%</t>
-  </si>
-  <si>
-    <t>87,15%</t>
-  </si>
-  <si>
-    <t>96,17%</t>
-  </si>
-  <si>
-    <t>91,21%</t>
-  </si>
-  <si>
-    <t>86,8%</t>
-  </si>
-  <si>
-    <t>94,75%</t>
-  </si>
-  <si>
-    <t>28,55%</t>
-  </si>
-  <si>
-    <t>17,06%</t>
-  </si>
-  <si>
-    <t>40,23%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>19,2%</t>
-  </si>
-  <si>
-    <t>18,16%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>22,69%</t>
-  </si>
-  <si>
-    <t>71,45%</t>
-  </si>
-  <si>
-    <t>59,77%</t>
-  </si>
-  <si>
-    <t>82,94%</t>
-  </si>
-  <si>
-    <t>85,65%</t>
-  </si>
-  <si>
-    <t>80,8%</t>
-  </si>
-  <si>
-    <t>89,49%</t>
-  </si>
-  <si>
-    <t>81,84%</t>
-  </si>
-  <si>
-    <t>77,31%</t>
-  </si>
-  <si>
-    <t>85,93%</t>
-  </si>
-  <si>
-    <t>40,54%</t>
-  </si>
-  <si>
-    <t>32,0%</t>
-  </si>
-  <si>
-    <t>49,0%</t>
-  </si>
-  <si>
-    <t>15,93%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>24,26%</t>
-  </si>
-  <si>
-    <t>20,64%</t>
-  </si>
-  <si>
-    <t>59,46%</t>
-  </si>
-  <si>
-    <t>51,0%</t>
-  </si>
-  <si>
-    <t>68,0%</t>
-  </si>
-  <si>
-    <t>84,07%</t>
-  </si>
-  <si>
-    <t>87,35%</t>
-  </si>
-  <si>
-    <t>75,74%</t>
-  </si>
-  <si>
-    <t>79,36%</t>
-  </si>
-  <si>
-    <t>66,06%</t>
-  </si>
-  <si>
-    <t>60,52%</t>
-  </si>
-  <si>
-    <t>71,53%</t>
-  </si>
-  <si>
-    <t>32,13%</t>
-  </si>
-  <si>
-    <t>28,42%</t>
-  </si>
-  <si>
-    <t>36,2%</t>
-  </si>
-  <si>
-    <t>46,85%</t>
-  </si>
-  <si>
-    <t>43,46%</t>
-  </si>
-  <si>
-    <t>50,28%</t>
-  </si>
-  <si>
-    <t>33,94%</t>
-  </si>
-  <si>
-    <t>28,47%</t>
-  </si>
-  <si>
-    <t>39,48%</t>
-  </si>
-  <si>
-    <t>67,87%</t>
-  </si>
-  <si>
-    <t>63,8%</t>
-  </si>
-  <si>
-    <t>71,58%</t>
-  </si>
-  <si>
-    <t>53,15%</t>
-  </si>
-  <si>
-    <t>49,72%</t>
-  </si>
-  <si>
-    <t>56,54%</t>
-  </si>
-  <si>
-    <t>87,17%</t>
-  </si>
-  <si>
-    <t>84,99%</t>
-  </si>
-  <si>
-    <t>89,3%</t>
-  </si>
-  <si>
-    <t>71,61%</t>
-  </si>
-  <si>
-    <t>67,33%</t>
-  </si>
-  <si>
-    <t>80,63%</t>
-  </si>
-  <si>
-    <t>77,89%</t>
-  </si>
-  <si>
-    <t>75,86%</t>
-  </si>
-  <si>
-    <t>83,08%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>15,01%</t>
-  </si>
-  <si>
-    <t>28,39%</t>
-  </si>
-  <si>
-    <t>19,37%</t>
-  </si>
-  <si>
-    <t>32,67%</t>
-  </si>
-  <si>
-    <t>22,11%</t>
-  </si>
-  <si>
-    <t>16,92%</t>
-  </si>
-  <si>
-    <t>24,14%</t>
-  </si>
-  <si>
-    <t>56,39%</t>
-  </si>
-  <si>
-    <t>59,33%</t>
-  </si>
-  <si>
-    <t>40,69%</t>
-  </si>
-  <si>
-    <t>37,11%</t>
-  </si>
-  <si>
-    <t>49,65%</t>
-  </si>
-  <si>
-    <t>47,01%</t>
-  </si>
-  <si>
-    <t>44,75%</t>
-  </si>
-  <si>
-    <t>51,74%</t>
-  </si>
-  <si>
-    <t>43,61%</t>
-  </si>
-  <si>
-    <t>40,67%</t>
   </si>
   <si>
     <t>59,31%</t>
@@ -1968,7 +1992,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{438DE1DA-7EC4-4C0E-A4BE-022AE7C021F6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A80840-350A-4063-A9DF-FED5EA05574D}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3187,7 +3211,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{921289AC-297A-4F62-93C4-02D5F2F6F54F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFBA33C8-E429-4406-8D76-15F3D862E8B5}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4086,10 +4110,10 @@
         <v>554461</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>233</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>21</v>
@@ -4101,13 +4125,13 @@
         <v>523191</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>236</v>
       </c>
       <c r="M19" s="7">
         <v>985</v>
@@ -4116,13 +4140,13 @@
         <v>1077651</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4137,13 +4161,13 @@
         <v>2160</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>240</v>
+        <v>114</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="H20" s="7">
         <v>200</v>
@@ -4152,13 +4176,13 @@
         <v>211946</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>244</v>
       </c>
       <c r="M20" s="7">
         <v>202</v>
@@ -4167,13 +4191,13 @@
         <v>214107</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>245</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4241,13 +4265,13 @@
         <v>872220</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>248</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>250</v>
       </c>
       <c r="H22" s="7">
         <v>689</v>
@@ -4256,13 +4280,13 @@
         <v>748218</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>251</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>253</v>
       </c>
       <c r="M22" s="7">
         <v>1476</v>
@@ -4271,13 +4295,13 @@
         <v>1620438</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>254</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4292,13 +4316,13 @@
         <v>1109193</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>257</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>259</v>
       </c>
       <c r="H23" s="7">
         <v>1699</v>
@@ -4307,13 +4331,13 @@
         <v>1825320</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>260</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>262</v>
       </c>
       <c r="M23" s="7">
         <v>2764</v>
@@ -4322,13 +4346,13 @@
         <v>2934514</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>263</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4406,7 +4430,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7FE9251-DED6-4D59-9AAA-3B67B22ED8F7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F896CC5-B169-4986-8624-7312E2EB840A}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4423,7 +4447,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4530,13 +4554,13 @@
         <v>4483</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>241</v>
+        <v>265</v>
       </c>
       <c r="F4" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>267</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>268</v>
       </c>
       <c r="H4" s="7">
         <v>11</v>
@@ -4545,13 +4569,13 @@
         <v>10621</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>270</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>271</v>
       </c>
       <c r="M4" s="7">
         <v>15</v>
@@ -4560,13 +4584,13 @@
         <v>15104</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>273</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4581,7 +4605,7 @@
         <v>322518</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>233</v>
+        <v>274</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>275</v>
@@ -4876,7 +4900,7 @@
         <v>308</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>179</v>
+        <v>309</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4891,13 +4915,13 @@
         <v>178670</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H11" s="7">
         <v>314</v>
@@ -4906,13 +4930,13 @@
         <v>313401</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="M11" s="7">
         <v>486</v>
@@ -4921,13 +4945,13 @@
         <v>492071</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>189</v>
+        <v>317</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4995,13 +5019,13 @@
         <v>79808</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="H13" s="7">
         <v>44</v>
@@ -5010,13 +5034,13 @@
         <v>47340</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="M13" s="7">
         <v>116</v>
@@ -5025,13 +5049,13 @@
         <v>127148</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5046,13 +5070,13 @@
         <v>197245</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="H14" s="7">
         <v>324</v>
@@ -5061,13 +5085,13 @@
         <v>346537</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="M14" s="7">
         <v>502</v>
@@ -5076,13 +5100,13 @@
         <v>543782</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5150,13 +5174,13 @@
         <v>200303</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="H16" s="7">
         <v>99</v>
@@ -5165,13 +5189,13 @@
         <v>112851</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="M16" s="7">
         <v>276</v>
@@ -5180,13 +5204,13 @@
         <v>313154</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5201,13 +5225,13 @@
         <v>110008</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="H17" s="7">
         <v>237</v>
@@ -5216,13 +5240,13 @@
         <v>270449</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="M17" s="7">
         <v>337</v>
@@ -5231,13 +5255,13 @@
         <v>380456</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5305,13 +5329,13 @@
         <v>573666</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="H19" s="7">
         <v>441</v>
@@ -5320,13 +5344,13 @@
         <v>528727</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="M19" s="7">
         <v>1049</v>
@@ -5335,13 +5359,13 @@
         <v>1102394</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5356,13 +5380,13 @@
         <v>6643</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="H20" s="7">
         <v>202</v>
@@ -5371,13 +5395,13 @@
         <v>236073</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="M20" s="7">
         <v>209</v>
@@ -5386,13 +5410,13 @@
         <v>242716</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5460,13 +5484,13 @@
         <v>902225</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="H22" s="7">
         <v>639</v>
@@ -5475,13 +5499,13 @@
         <v>742021</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="M22" s="7">
         <v>1542</v>
@@ -5490,13 +5514,13 @@
         <v>1644246</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5511,13 +5535,13 @@
         <v>1044091</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="H23" s="7">
         <v>1640</v>
@@ -5526,28 +5550,28 @@
         <v>1716255</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="M23" s="7">
         <v>2621</v>
       </c>
       <c r="N23" s="7">
-        <v>2760347</v>
+        <v>2760346</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5589,7 +5613,7 @@
         <v>4163</v>
       </c>
       <c r="N24" s="7">
-        <v>4404593</v>
+        <v>4404592</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>26</v>
@@ -5625,7 +5649,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB60A611-4B74-4184-AD7B-F4FE6ADD78F6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE266288-B68A-46ED-90A8-07A430F0D1FC}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5642,7 +5666,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5749,13 +5773,13 @@
         <v>2053</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="H4" s="7">
         <v>3</v>
@@ -5764,13 +5788,13 @@
         <v>6185</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="M4" s="7">
         <v>4</v>
@@ -5779,13 +5803,13 @@
         <v>8238</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>29</v>
+        <v>397</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5800,10 +5824,10 @@
         <v>284726</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>21</v>
@@ -5815,13 +5839,13 @@
         <v>251319</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="M5" s="7">
         <v>269</v>
@@ -5830,13 +5854,13 @@
         <v>536045</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>39</v>
+        <v>405</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5904,13 +5928,13 @@
         <v>8502</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="H7" s="7">
         <v>12</v>
@@ -5919,13 +5943,13 @@
         <v>13120</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="M7" s="7">
         <v>18</v>
@@ -5934,13 +5958,13 @@
         <v>21621</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5955,13 +5979,13 @@
         <v>64242</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="H8" s="7">
         <v>148</v>
@@ -5970,13 +5994,13 @@
         <v>160038</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="M8" s="7">
         <v>193</v>
@@ -5985,13 +6009,13 @@
         <v>224281</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6059,13 +6083,13 @@
         <v>21461</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="H10" s="7">
         <v>38</v>
@@ -6074,13 +6098,13 @@
         <v>29420</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="M10" s="7">
         <v>56</v>
@@ -6089,13 +6113,13 @@
         <v>50881</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6110,13 +6134,13 @@
         <v>53702</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="H11" s="7">
         <v>259</v>
@@ -6125,13 +6149,13 @@
         <v>175553</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="M11" s="7">
         <v>312</v>
@@ -6140,13 +6164,13 @@
         <v>229255</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6214,13 +6238,13 @@
         <v>57660</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="H13" s="7">
         <v>71</v>
@@ -6229,13 +6253,13 @@
         <v>44351</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>303</v>
+        <v>449</v>
       </c>
       <c r="M13" s="7">
         <v>124</v>
@@ -6244,13 +6268,13 @@
         <v>102011</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>96</v>
+        <v>452</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6265,13 +6289,13 @@
         <v>84564</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>448</v>
+        <v>454</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>449</v>
+        <v>455</v>
       </c>
       <c r="H14" s="7">
         <v>355</v>
@@ -6280,13 +6304,13 @@
         <v>233996</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>450</v>
+        <v>456</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>310</v>
+        <v>457</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>451</v>
+        <v>458</v>
       </c>
       <c r="M14" s="7">
         <v>441</v>
@@ -6295,13 +6319,13 @@
         <v>318560</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>452</v>
+        <v>459</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>86</v>
+        <v>460</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>453</v>
+        <v>461</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6369,13 +6393,13 @@
         <v>184364</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>454</v>
+        <v>462</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>455</v>
+        <v>463</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>456</v>
+        <v>464</v>
       </c>
       <c r="H16" s="7">
         <v>189</v>
@@ -6384,13 +6408,13 @@
         <v>117045</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>457</v>
+        <v>378</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>458</v>
+        <v>465</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>459</v>
+        <v>466</v>
       </c>
       <c r="M16" s="7">
         <v>385</v>
@@ -6399,13 +6423,13 @@
         <v>301408</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>460</v>
+        <v>467</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>461</v>
+        <v>468</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>462</v>
+        <v>469</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6420,13 +6444,13 @@
         <v>94742</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>463</v>
+        <v>470</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>464</v>
+        <v>471</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>465</v>
+        <v>472</v>
       </c>
       <c r="H17" s="7">
         <v>417</v>
@@ -6435,13 +6459,13 @@
         <v>247247</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>466</v>
+        <v>386</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="M17" s="7">
         <v>526</v>
@@ -6450,13 +6474,13 @@
         <v>341990</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>469</v>
+        <v>475</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>470</v>
+        <v>476</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>471</v>
+        <v>477</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6524,13 +6548,13 @@
         <v>591030</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>472</v>
+        <v>478</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>473</v>
+        <v>479</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>474</v>
+        <v>480</v>
       </c>
       <c r="H19" s="7">
         <v>1120</v>
@@ -6539,13 +6563,13 @@
         <v>718219</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>475</v>
+        <v>481</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>476</v>
+        <v>482</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>477</v>
+        <v>483</v>
       </c>
       <c r="M19" s="7">
         <v>1981</v>
@@ -6554,13 +6578,13 @@
         <v>1309248</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>478</v>
+        <v>484</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>479</v>
+        <v>485</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>480</v>
+        <v>486</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6575,13 +6599,13 @@
         <v>86952</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>483</v>
+        <v>489</v>
       </c>
       <c r="H20" s="7">
         <v>544</v>
@@ -6590,13 +6614,13 @@
         <v>284737</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>484</v>
+        <v>490</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>485</v>
+        <v>491</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>486</v>
+        <v>492</v>
       </c>
       <c r="M20" s="7">
         <v>682</v>
@@ -6605,13 +6629,13 @@
         <v>371689</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>487</v>
+        <v>493</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>488</v>
+        <v>494</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>489</v>
+        <v>495</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6679,13 +6703,13 @@
         <v>865069</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>490</v>
+        <v>496</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>230</v>
+        <v>497</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>491</v>
+        <v>498</v>
       </c>
       <c r="H22" s="7">
         <v>1433</v>
@@ -6694,13 +6718,13 @@
         <v>928340</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>492</v>
+        <v>499</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>493</v>
+        <v>500</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>494</v>
+        <v>501</v>
       </c>
       <c r="M22" s="7">
         <v>2568</v>
@@ -6709,13 +6733,13 @@
         <v>1793409</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>495</v>
+        <v>502</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>496</v>
+        <v>503</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>497</v>
+        <v>504</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6730,13 +6754,13 @@
         <v>668929</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>498</v>
+        <v>505</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>499</v>
+        <v>506</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>222</v>
+        <v>507</v>
       </c>
       <c r="H23" s="7">
         <v>1869</v>
@@ -6745,13 +6769,13 @@
         <v>1352890</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>500</v>
+        <v>508</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>501</v>
+        <v>509</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>502</v>
+        <v>510</v>
       </c>
       <c r="M23" s="7">
         <v>2423</v>
@@ -6760,13 +6784,13 @@
         <v>2021819</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>503</v>
+        <v>511</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>504</v>
+        <v>512</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>505</v>
+        <v>513</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P62-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P62-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{04262608-90FA-44AE-B316-4349A1537750}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CB39CE1E-370F-4C78-8540-2DD282FD2652}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F8BD10C5-5843-4360-9FA8-0DBA811482BF}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{EA956AD2-E883-4504-A61A-C60AFD1ED9F2}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="514">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="500">
   <si>
     <t>Población según si percibe alguna pensión en 2007 (Tasa respuesta: 56,61%)</t>
   </si>
@@ -71,7 +71,7 @@
     <t>16/24</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>0,29%</t>
@@ -80,19 +80,19 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>1,48%</t>
+    <t>2,0%</t>
   </si>
   <si>
     <t>0,31%</t>
   </si>
   <si>
-    <t>1,54%</t>
+    <t>1,83%</t>
   </si>
   <si>
     <t>0,3%</t>
   </si>
   <si>
-    <t>1,05%</t>
+    <t>1,04%</t>
   </si>
   <si>
     <t>No</t>
@@ -101,7 +101,7 @@
     <t>99,71%</t>
   </si>
   <si>
-    <t>98,52%</t>
+    <t>98,0%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -110,13 +110,13 @@
     <t>99,69%</t>
   </si>
   <si>
-    <t>98,46%</t>
+    <t>98,17%</t>
   </si>
   <si>
     <t>99,7%</t>
   </si>
   <si>
-    <t>98,95%</t>
+    <t>98,96%</t>
   </si>
   <si>
     <t>100%</t>
@@ -128,55 +128,55 @@
     <t>3,6%</t>
   </si>
   <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
   </si>
   <si>
     <t>3,8%</t>
   </si>
   <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
   </si>
   <si>
     <t>3,72%</t>
   </si>
   <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
   </si>
   <si>
     <t>96,4%</t>
   </si>
   <si>
-    <t>92,68%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
+    <t>92,84%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
   </si>
   <si>
     <t>96,2%</t>
   </si>
   <si>
-    <t>93,13%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
+    <t>93,05%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
   </si>
   <si>
     <t>96,28%</t>
   </si>
   <si>
-    <t>94,25%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
+    <t>94,03%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -185,25 +185,25 @@
     <t>35,98%</t>
   </si>
   <si>
-    <t>25,42%</t>
-  </si>
-  <si>
-    <t>48,35%</t>
+    <t>25,95%</t>
+  </si>
+  <si>
+    <t>48,36%</t>
   </si>
   <si>
     <t>5,02%</t>
   </si>
   <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
   </si>
   <si>
     <t>9,77%</t>
   </si>
   <si>
-    <t>7,15%</t>
+    <t>7,12%</t>
   </si>
   <si>
     <t>12,98%</t>
@@ -212,19 +212,19 @@
     <t>64,02%</t>
   </si>
   <si>
-    <t>51,65%</t>
-  </si>
-  <si>
-    <t>74,58%</t>
+    <t>51,64%</t>
+  </si>
+  <si>
+    <t>74,05%</t>
   </si>
   <si>
     <t>94,98%</t>
   </si>
   <si>
-    <t>92,43%</t>
-  </si>
-  <si>
-    <t>96,9%</t>
+    <t>92,2%</t>
+  </si>
+  <si>
+    <t>96,8%</t>
   </si>
   <si>
     <t>90,23%</t>
@@ -233,7 +233,7 @@
     <t>87,02%</t>
   </si>
   <si>
-    <t>92,85%</t>
+    <t>92,88%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -242,55 +242,55 @@
     <t>56,66%</t>
   </si>
   <si>
-    <t>45,61%</t>
-  </si>
-  <si>
-    <t>68,11%</t>
+    <t>44,74%</t>
+  </si>
+  <si>
+    <t>67,49%</t>
   </si>
   <si>
     <t>11,91%</t>
   </si>
   <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>15,54%</t>
   </si>
   <si>
     <t>20,41%</t>
   </si>
   <si>
-    <t>16,76%</t>
-  </si>
-  <si>
-    <t>24,37%</t>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>24,23%</t>
   </si>
   <si>
     <t>43,34%</t>
   </si>
   <si>
-    <t>31,89%</t>
-  </si>
-  <si>
-    <t>54,39%</t>
+    <t>32,51%</t>
+  </si>
+  <si>
+    <t>55,26%</t>
   </si>
   <si>
     <t>88,09%</t>
   </si>
   <si>
-    <t>83,59%</t>
-  </si>
-  <si>
-    <t>91,01%</t>
+    <t>84,46%</t>
+  </si>
+  <si>
+    <t>91,3%</t>
   </si>
   <si>
     <t>79,59%</t>
   </si>
   <si>
-    <t>75,63%</t>
-  </si>
-  <si>
-    <t>83,24%</t>
+    <t>75,77%</t>
+  </si>
+  <si>
+    <t>83,33%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -299,55 +299,55 @@
     <t>77,77%</t>
   </si>
   <si>
-    <t>72,19%</t>
-  </si>
-  <si>
-    <t>82,93%</t>
+    <t>71,69%</t>
+  </si>
+  <si>
+    <t>83,04%</t>
   </si>
   <si>
     <t>24,19%</t>
   </si>
   <si>
-    <t>19,69%</t>
-  </si>
-  <si>
-    <t>29,13%</t>
+    <t>19,52%</t>
+  </si>
+  <si>
+    <t>28,69%</t>
   </si>
   <si>
     <t>45,32%</t>
   </si>
   <si>
-    <t>41,1%</t>
-  </si>
-  <si>
-    <t>49,45%</t>
+    <t>41,03%</t>
+  </si>
+  <si>
+    <t>49,36%</t>
   </si>
   <si>
     <t>22,23%</t>
   </si>
   <si>
-    <t>17,07%</t>
-  </si>
-  <si>
-    <t>27,81%</t>
+    <t>16,96%</t>
+  </si>
+  <si>
+    <t>28,31%</t>
   </si>
   <si>
     <t>75,81%</t>
   </si>
   <si>
-    <t>70,87%</t>
-  </si>
-  <si>
-    <t>80,31%</t>
+    <t>71,31%</t>
+  </si>
+  <si>
+    <t>80,48%</t>
   </si>
   <si>
     <t>54,68%</t>
   </si>
   <si>
-    <t>50,55%</t>
-  </si>
-  <si>
-    <t>58,9%</t>
+    <t>50,64%</t>
+  </si>
+  <si>
+    <t>58,97%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -356,7 +356,7 @@
     <t>98,92%</t>
   </si>
   <si>
-    <t>97,77%</t>
+    <t>97,55%</t>
   </si>
   <si>
     <t>99,61%</t>
@@ -365,7 +365,7 @@
     <t>63,17%</t>
   </si>
   <si>
-    <t>58,99%</t>
+    <t>59,21%</t>
   </si>
   <si>
     <t>66,75%</t>
@@ -374,10 +374,10 @@
     <t>78,38%</t>
   </si>
   <si>
-    <t>75,97%</t>
-  </si>
-  <si>
-    <t>80,61%</t>
+    <t>76,02%</t>
+  </si>
+  <si>
+    <t>80,74%</t>
   </si>
   <si>
     <t>1,08%</t>
@@ -386,7 +386,7 @@
     <t>0,39%</t>
   </si>
   <si>
-    <t>2,23%</t>
+    <t>2,45%</t>
   </si>
   <si>
     <t>36,83%</t>
@@ -395,70 +395,70 @@
     <t>33,25%</t>
   </si>
   <si>
-    <t>41,01%</t>
+    <t>40,79%</t>
   </si>
   <si>
     <t>21,62%</t>
   </si>
   <si>
-    <t>19,39%</t>
-  </si>
-  <si>
-    <t>24,03%</t>
+    <t>19,26%</t>
+  </si>
+  <si>
+    <t>23,98%</t>
   </si>
   <si>
     <t>54,56%</t>
   </si>
   <si>
-    <t>51,8%</t>
-  </si>
-  <si>
-    <t>57,15%</t>
+    <t>51,86%</t>
+  </si>
+  <si>
+    <t>57,12%</t>
   </si>
   <si>
     <t>24,64%</t>
   </si>
   <si>
-    <t>22,83%</t>
-  </si>
-  <si>
-    <t>26,48%</t>
+    <t>22,86%</t>
+  </si>
+  <si>
+    <t>26,49%</t>
   </si>
   <si>
     <t>35,61%</t>
   </si>
   <si>
-    <t>34,06%</t>
-  </si>
-  <si>
-    <t>37,28%</t>
+    <t>34,19%</t>
+  </si>
+  <si>
+    <t>37,31%</t>
   </si>
   <si>
     <t>45,44%</t>
   </si>
   <si>
-    <t>42,85%</t>
-  </si>
-  <si>
-    <t>48,2%</t>
+    <t>42,88%</t>
+  </si>
+  <si>
+    <t>48,14%</t>
   </si>
   <si>
     <t>75,36%</t>
   </si>
   <si>
-    <t>73,52%</t>
-  </si>
-  <si>
-    <t>77,17%</t>
+    <t>73,51%</t>
+  </si>
+  <si>
+    <t>77,14%</t>
   </si>
   <si>
     <t>64,39%</t>
   </si>
   <si>
-    <t>62,72%</t>
-  </si>
-  <si>
-    <t>65,94%</t>
+    <t>62,69%</t>
+  </si>
+  <si>
+    <t>65,81%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -473,31 +473,31 @@
     <t>0,27%</t>
   </si>
   <si>
-    <t>2,71%</t>
+    <t>2,68%</t>
   </si>
   <si>
     <t>2,84%</t>
   </si>
   <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
   </si>
   <si>
     <t>1,94%</t>
   </si>
   <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
   </si>
   <si>
     <t>98,91%</t>
   </si>
   <si>
-    <t>97,29%</t>
+    <t>97,32%</t>
   </si>
   <si>
     <t>99,73%</t>
@@ -506,292 +506,286 @@
     <t>97,16%</t>
   </si>
   <si>
-    <t>94,69%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
+    <t>94,74%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
   </si>
   <si>
     <t>98,06%</t>
   </si>
   <si>
-    <t>96,46%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
   </si>
   <si>
     <t>5,58%</t>
   </si>
   <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
   </si>
   <si>
     <t>7,71%</t>
   </si>
   <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
+    <t>11,2%</t>
   </si>
   <si>
     <t>6,69%</t>
   </si>
   <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
   </si>
   <si>
     <t>94,42%</t>
   </si>
   <si>
-    <t>91,16%</t>
-  </si>
-  <si>
-    <t>96,48%</t>
+    <t>91,55%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
   </si>
   <si>
     <t>92,29%</t>
   </si>
   <si>
-    <t>89,05%</t>
-  </si>
-  <si>
-    <t>95,08%</t>
+    <t>88,8%</t>
   </si>
   <si>
     <t>93,31%</t>
   </si>
   <si>
-    <t>91,03%</t>
-  </si>
-  <si>
-    <t>95,09%</t>
+    <t>91,08%</t>
+  </si>
+  <si>
+    <t>95,18%</t>
   </si>
   <si>
     <t>18,58%</t>
   </si>
   <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>24,71%</t>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>24,16%</t>
   </si>
   <si>
     <t>9,53%</t>
   </si>
   <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
   </si>
   <si>
     <t>12,94%</t>
   </si>
   <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>16,02%</t>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>15,88%</t>
   </si>
   <si>
     <t>81,42%</t>
   </si>
   <si>
-    <t>75,29%</t>
-  </si>
-  <si>
-    <t>86,22%</t>
+    <t>75,84%</t>
+  </si>
+  <si>
+    <t>86,7%</t>
   </si>
   <si>
     <t>90,47%</t>
   </si>
   <si>
-    <t>86,84%</t>
-  </si>
-  <si>
-    <t>93,2%</t>
+    <t>87,0%</t>
+  </si>
+  <si>
+    <t>93,28%</t>
   </si>
   <si>
     <t>87,06%</t>
   </si>
   <si>
-    <t>83,98%</t>
-  </si>
-  <si>
-    <t>89,53%</t>
+    <t>84,12%</t>
+  </si>
+  <si>
+    <t>89,87%</t>
   </si>
   <si>
     <t>30,97%</t>
   </si>
   <si>
-    <t>25,11%</t>
-  </si>
-  <si>
-    <t>37,67%</t>
+    <t>25,49%</t>
+  </si>
+  <si>
+    <t>37,5%</t>
   </si>
   <si>
     <t>14,28%</t>
   </si>
   <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>18,43%</t>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>18,4%</t>
   </si>
   <si>
     <t>20,8%</t>
   </si>
   <si>
-    <t>17,36%</t>
-  </si>
-  <si>
-    <t>24,51%</t>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>24,54%</t>
   </si>
   <si>
     <t>69,03%</t>
   </si>
   <si>
-    <t>62,33%</t>
-  </si>
-  <si>
-    <t>74,89%</t>
+    <t>62,5%</t>
+  </si>
+  <si>
+    <t>74,51%</t>
   </si>
   <si>
     <t>85,72%</t>
   </si>
   <si>
-    <t>81,57%</t>
-  </si>
-  <si>
-    <t>89,03%</t>
+    <t>81,6%</t>
+  </si>
+  <si>
+    <t>89,09%</t>
   </si>
   <si>
     <t>79,2%</t>
   </si>
   <si>
-    <t>75,49%</t>
-  </si>
-  <si>
-    <t>82,64%</t>
+    <t>75,46%</t>
+  </si>
+  <si>
+    <t>82,53%</t>
   </si>
   <si>
     <t>65,12%</t>
   </si>
   <si>
-    <t>58,04%</t>
-  </si>
-  <si>
-    <t>70,98%</t>
+    <t>59,04%</t>
+  </si>
+  <si>
+    <t>71,27%</t>
   </si>
   <si>
     <t>25,81%</t>
   </si>
   <si>
-    <t>21,35%</t>
-  </si>
-  <si>
-    <t>30,71%</t>
+    <t>21,2%</t>
+  </si>
+  <si>
+    <t>30,62%</t>
   </si>
   <si>
     <t>42,29%</t>
   </si>
   <si>
-    <t>38,33%</t>
-  </si>
-  <si>
-    <t>46,76%</t>
+    <t>38,11%</t>
+  </si>
+  <si>
+    <t>46,58%</t>
   </si>
   <si>
     <t>34,88%</t>
   </si>
   <si>
-    <t>29,02%</t>
-  </si>
-  <si>
-    <t>41,96%</t>
+    <t>28,73%</t>
+  </si>
+  <si>
+    <t>40,96%</t>
   </si>
   <si>
     <t>74,19%</t>
   </si>
   <si>
-    <t>69,29%</t>
-  </si>
-  <si>
-    <t>78,65%</t>
+    <t>69,38%</t>
+  </si>
+  <si>
+    <t>78,8%</t>
   </si>
   <si>
     <t>57,71%</t>
   </si>
   <si>
-    <t>53,24%</t>
-  </si>
-  <si>
-    <t>61,67%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
+    <t>53,42%</t>
+  </si>
+  <si>
+    <t>61,89%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
   </si>
   <si>
     <t>71,17%</t>
   </si>
   <si>
-    <t>67,77%</t>
-  </si>
-  <si>
-    <t>74,4%</t>
+    <t>67,82%</t>
+  </si>
+  <si>
+    <t>74,77%</t>
   </si>
   <si>
     <t>83,43%</t>
   </si>
   <si>
-    <t>81,21%</t>
-  </si>
-  <si>
-    <t>85,39%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
+    <t>81,11%</t>
+  </si>
+  <si>
+    <t>85,46%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
   </si>
   <si>
     <t>28,83%</t>
   </si>
   <si>
-    <t>25,6%</t>
-  </si>
-  <si>
-    <t>32,23%</t>
+    <t>25,23%</t>
+  </si>
+  <si>
+    <t>32,18%</t>
   </si>
   <si>
     <t>16,57%</t>
   </si>
   <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>18,79%</t>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
   </si>
   <si>
     <t>44,02%</t>
   </si>
   <si>
-    <t>41,68%</t>
-  </si>
-  <si>
-    <t>46,32%</t>
+    <t>41,74%</t>
+  </si>
+  <si>
+    <t>46,27%</t>
   </si>
   <si>
     <t>29,07%</t>
   </si>
   <si>
-    <t>27,25%</t>
+    <t>27,22%</t>
   </si>
   <si>
     <t>30,93%</t>
@@ -800,19 +794,16 @@
     <t>35,58%</t>
   </si>
   <si>
-    <t>34,17%</t>
-  </si>
-  <si>
-    <t>36,97%</t>
+    <t>37,12%</t>
   </si>
   <si>
     <t>55,98%</t>
   </si>
   <si>
-    <t>53,68%</t>
-  </si>
-  <si>
-    <t>58,32%</t>
+    <t>53,73%</t>
+  </si>
+  <si>
+    <t>58,26%</t>
   </si>
   <si>
     <t>70,93%</t>
@@ -821,295 +812,274 @@
     <t>69,07%</t>
   </si>
   <si>
-    <t>72,75%</t>
+    <t>72,78%</t>
   </si>
   <si>
     <t>64,42%</t>
   </si>
   <si>
-    <t>63,03%</t>
-  </si>
-  <si>
-    <t>65,83%</t>
+    <t>62,88%</t>
   </si>
   <si>
     <t>Población según si percibe alguna pensión en 2016 (Tasa respuesta: 63,37%)</t>
   </si>
   <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
   </si>
   <si>
     <t>3,68%</t>
   </si>
   <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>96,6%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>96,57%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
   </si>
   <si>
     <t>96,32%</t>
   </si>
   <si>
-    <t>93,65%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>97,55%</t>
-  </si>
-  <si>
-    <t>96,06%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
+    <t>93,36%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
   </si>
   <si>
     <t>5,93%</t>
   </si>
   <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
   </si>
   <si>
     <t>4,52%</t>
   </si>
   <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
   </si>
   <si>
     <t>5,17%</t>
   </si>
   <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
   </si>
   <si>
     <t>94,07%</t>
   </si>
   <si>
-    <t>90,57%</t>
-  </si>
-  <si>
-    <t>96,72%</t>
+    <t>90,17%</t>
+  </si>
+  <si>
+    <t>96,55%</t>
   </si>
   <si>
     <t>95,48%</t>
   </si>
   <si>
-    <t>92,39%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
+    <t>92,89%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
   </si>
   <si>
     <t>94,83%</t>
   </si>
   <si>
-    <t>92,5%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
+    <t>92,45%</t>
+  </si>
+  <si>
+    <t>96,59%</t>
   </si>
   <si>
     <t>14,18%</t>
   </si>
   <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>19,33%</t>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>19,46%</t>
   </si>
   <si>
     <t>8,64%</t>
   </si>
   <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
   </si>
   <si>
     <t>10,73%</t>
   </si>
   <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
   </si>
   <si>
     <t>85,82%</t>
   </si>
   <si>
-    <t>80,67%</t>
-  </si>
-  <si>
-    <t>90,77%</t>
+    <t>80,54%</t>
+  </si>
+  <si>
+    <t>90,07%</t>
   </si>
   <si>
     <t>91,36%</t>
   </si>
   <si>
-    <t>88,11%</t>
-  </si>
-  <si>
-    <t>94,05%</t>
+    <t>87,91%</t>
+  </si>
+  <si>
+    <t>93,81%</t>
   </si>
   <si>
     <t>89,27%</t>
   </si>
   <si>
-    <t>86,52%</t>
-  </si>
-  <si>
-    <t>91,76%</t>
+    <t>86,5%</t>
+  </si>
+  <si>
+    <t>91,83%</t>
   </si>
   <si>
     <t>28,81%</t>
   </si>
   <si>
-    <t>23,78%</t>
-  </si>
-  <si>
-    <t>34,91%</t>
+    <t>23,29%</t>
+  </si>
+  <si>
+    <t>34,54%</t>
   </si>
   <si>
     <t>12,02%</t>
   </si>
   <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>15,37%</t>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>15,91%</t>
   </si>
   <si>
     <t>18,95%</t>
   </si>
   <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>22,4%</t>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>22,34%</t>
   </si>
   <si>
     <t>71,19%</t>
   </si>
   <si>
-    <t>65,09%</t>
-  </si>
-  <si>
-    <t>76,22%</t>
+    <t>65,46%</t>
+  </si>
+  <si>
+    <t>76,71%</t>
   </si>
   <si>
     <t>87,98%</t>
   </si>
   <si>
-    <t>84,63%</t>
-  </si>
-  <si>
-    <t>91,32%</t>
+    <t>84,09%</t>
+  </si>
+  <si>
+    <t>90,67%</t>
   </si>
   <si>
     <t>81,05%</t>
   </si>
   <si>
-    <t>77,6%</t>
-  </si>
-  <si>
-    <t>84,23%</t>
+    <t>77,66%</t>
+  </si>
+  <si>
+    <t>83,94%</t>
   </si>
   <si>
     <t>64,55%</t>
   </si>
   <si>
-    <t>59,03%</t>
-  </si>
-  <si>
-    <t>70,32%</t>
+    <t>59,0%</t>
+  </si>
+  <si>
+    <t>69,95%</t>
   </si>
   <si>
     <t>29,44%</t>
   </si>
   <si>
-    <t>24,85%</t>
-  </si>
-  <si>
-    <t>33,84%</t>
+    <t>24,69%</t>
+  </si>
+  <si>
+    <t>34,63%</t>
   </si>
   <si>
     <t>45,15%</t>
   </si>
   <si>
-    <t>41,11%</t>
-  </si>
-  <si>
-    <t>49,53%</t>
+    <t>41,3%</t>
+  </si>
+  <si>
+    <t>48,93%</t>
   </si>
   <si>
     <t>35,45%</t>
   </si>
   <si>
-    <t>29,68%</t>
-  </si>
-  <si>
-    <t>40,97%</t>
+    <t>30,05%</t>
+  </si>
+  <si>
+    <t>41,0%</t>
   </si>
   <si>
     <t>70,56%</t>
   </si>
   <si>
-    <t>66,16%</t>
-  </si>
-  <si>
-    <t>75,15%</t>
+    <t>65,37%</t>
+  </si>
+  <si>
+    <t>75,31%</t>
   </si>
   <si>
     <t>54,85%</t>
   </si>
   <si>
-    <t>50,47%</t>
-  </si>
-  <si>
-    <t>58,89%</t>
+    <t>51,07%</t>
+  </si>
+  <si>
+    <t>58,7%</t>
   </si>
   <si>
     <t>98,86%</t>
   </si>
   <si>
-    <t>97,76%</t>
+    <t>97,67%</t>
   </si>
   <si>
     <t>99,51%</t>
@@ -1121,16 +1091,16 @@
     <t>65,34%</t>
   </si>
   <si>
-    <t>72,77%</t>
+    <t>72,47%</t>
   </si>
   <si>
     <t>81,96%</t>
   </si>
   <si>
-    <t>79,66%</t>
-  </si>
-  <si>
-    <t>84,14%</t>
+    <t>79,87%</t>
+  </si>
+  <si>
+    <t>84,17%</t>
   </si>
   <si>
     <t>1,14%</t>
@@ -1139,13 +1109,13 @@
     <t>0,49%</t>
   </si>
   <si>
-    <t>2,24%</t>
+    <t>2,33%</t>
   </si>
   <si>
     <t>30,87%</t>
   </si>
   <si>
-    <t>27,23%</t>
+    <t>27,53%</t>
   </si>
   <si>
     <t>34,66%</t>
@@ -1154,433 +1124,421 @@
     <t>18,04%</t>
   </si>
   <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>20,34%</t>
+    <t>15,83%</t>
+  </si>
+  <si>
+    <t>20,13%</t>
   </si>
   <si>
     <t>46,36%</t>
   </si>
   <si>
-    <t>43,92%</t>
-  </si>
-  <si>
-    <t>48,58%</t>
+    <t>43,94%</t>
+  </si>
+  <si>
+    <t>48,4%</t>
   </si>
   <si>
     <t>30,18%</t>
   </si>
   <si>
-    <t>28,25%</t>
+    <t>28,2%</t>
+  </si>
+  <si>
+    <t>32,06%</t>
+  </si>
+  <si>
+    <t>37,33%</t>
+  </si>
+  <si>
+    <t>35,92%</t>
+  </si>
+  <si>
+    <t>38,72%</t>
+  </si>
+  <si>
+    <t>53,64%</t>
+  </si>
+  <si>
+    <t>51,6%</t>
+  </si>
+  <si>
+    <t>56,06%</t>
+  </si>
+  <si>
+    <t>69,82%</t>
+  </si>
+  <si>
+    <t>67,94%</t>
+  </si>
+  <si>
+    <t>71,8%</t>
+  </si>
+  <si>
+    <t>62,67%</t>
+  </si>
+  <si>
+    <t>61,28%</t>
+  </si>
+  <si>
+    <t>64,08%</t>
+  </si>
+  <si>
+    <t>Población según si percibe alguna pensión en 2023 (Tasa respuesta: 57,09%)</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>92,81%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>23,42%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>13,61%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>88,31%</t>
+  </si>
+  <si>
+    <t>76,58%</t>
+  </si>
+  <si>
+    <t>92,42%</t>
+  </si>
+  <si>
+    <t>86,39%</t>
+  </si>
+  <si>
+    <t>96,21%</t>
+  </si>
+  <si>
+    <t>91,21%</t>
+  </si>
+  <si>
+    <t>86,27%</t>
+  </si>
+  <si>
+    <t>94,5%</t>
+  </si>
+  <si>
+    <t>28,55%</t>
+  </si>
+  <si>
+    <t>18,68%</t>
+  </si>
+  <si>
+    <t>40,8%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>18,98%</t>
+  </si>
+  <si>
+    <t>18,16%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>22,51%</t>
+  </si>
+  <si>
+    <t>71,45%</t>
+  </si>
+  <si>
+    <t>59,2%</t>
+  </si>
+  <si>
+    <t>81,32%</t>
+  </si>
+  <si>
+    <t>85,65%</t>
+  </si>
+  <si>
+    <t>81,02%</t>
+  </si>
+  <si>
+    <t>89,43%</t>
+  </si>
+  <si>
+    <t>81,84%</t>
+  </si>
+  <si>
+    <t>77,49%</t>
+  </si>
+  <si>
+    <t>85,88%</t>
+  </si>
+  <si>
+    <t>40,54%</t>
+  </si>
+  <si>
+    <t>49,63%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>24,26%</t>
+  </si>
+  <si>
+    <t>20,58%</t>
+  </si>
+  <si>
+    <t>28,4%</t>
+  </si>
+  <si>
+    <t>59,46%</t>
+  </si>
+  <si>
+    <t>50,37%</t>
+  </si>
+  <si>
+    <t>84,07%</t>
+  </si>
+  <si>
+    <t>87,21%</t>
+  </si>
+  <si>
+    <t>75,74%</t>
+  </si>
+  <si>
+    <t>71,6%</t>
+  </si>
+  <si>
+    <t>79,42%</t>
+  </si>
+  <si>
+    <t>66,06%</t>
+  </si>
+  <si>
+    <t>60,4%</t>
+  </si>
+  <si>
+    <t>71,53%</t>
   </si>
   <si>
     <t>32,13%</t>
   </si>
   <si>
-    <t>37,33%</t>
-  </si>
-  <si>
-    <t>35,69%</t>
-  </si>
-  <si>
-    <t>38,74%</t>
-  </si>
-  <si>
-    <t>53,64%</t>
-  </si>
-  <si>
-    <t>51,42%</t>
-  </si>
-  <si>
-    <t>56,08%</t>
-  </si>
-  <si>
-    <t>69,82%</t>
+    <t>28,79%</t>
+  </si>
+  <si>
+    <t>36,95%</t>
+  </si>
+  <si>
+    <t>46,85%</t>
+  </si>
+  <si>
+    <t>43,37%</t>
+  </si>
+  <si>
+    <t>50,06%</t>
+  </si>
+  <si>
+    <t>33,94%</t>
+  </si>
+  <si>
+    <t>28,47%</t>
+  </si>
+  <si>
+    <t>39,6%</t>
   </si>
   <si>
     <t>67,87%</t>
   </si>
   <si>
-    <t>71,75%</t>
-  </si>
-  <si>
-    <t>62,67%</t>
-  </si>
-  <si>
-    <t>61,26%</t>
-  </si>
-  <si>
-    <t>64,31%</t>
-  </si>
-  <si>
-    <t>Población según si percibe alguna pensión en 2023 (Tasa respuesta: 57,09%)</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>96,05%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>93,28%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>96,44%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>22,67%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>88,31%</t>
-  </si>
-  <si>
-    <t>77,33%</t>
-  </si>
-  <si>
-    <t>95,79%</t>
-  </si>
-  <si>
-    <t>92,42%</t>
-  </si>
-  <si>
-    <t>87,15%</t>
-  </si>
-  <si>
-    <t>96,17%</t>
-  </si>
-  <si>
-    <t>91,21%</t>
-  </si>
-  <si>
-    <t>86,8%</t>
-  </si>
-  <si>
-    <t>94,75%</t>
-  </si>
-  <si>
-    <t>28,55%</t>
-  </si>
-  <si>
-    <t>17,06%</t>
-  </si>
-  <si>
-    <t>40,23%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>19,2%</t>
-  </si>
-  <si>
-    <t>18,16%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>22,69%</t>
-  </si>
-  <si>
-    <t>71,45%</t>
-  </si>
-  <si>
-    <t>59,77%</t>
-  </si>
-  <si>
-    <t>82,94%</t>
-  </si>
-  <si>
-    <t>85,65%</t>
-  </si>
-  <si>
-    <t>80,8%</t>
-  </si>
-  <si>
-    <t>89,49%</t>
-  </si>
-  <si>
-    <t>81,84%</t>
-  </si>
-  <si>
-    <t>77,31%</t>
-  </si>
-  <si>
-    <t>85,93%</t>
-  </si>
-  <si>
-    <t>40,54%</t>
-  </si>
-  <si>
-    <t>32,0%</t>
-  </si>
-  <si>
-    <t>49,0%</t>
-  </si>
-  <si>
-    <t>15,93%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>19,83%</t>
-  </si>
-  <si>
-    <t>24,26%</t>
-  </si>
-  <si>
-    <t>20,64%</t>
-  </si>
-  <si>
-    <t>28,46%</t>
-  </si>
-  <si>
-    <t>59,46%</t>
-  </si>
-  <si>
-    <t>51,0%</t>
-  </si>
-  <si>
-    <t>68,0%</t>
-  </si>
-  <si>
-    <t>84,07%</t>
-  </si>
-  <si>
-    <t>80,17%</t>
-  </si>
-  <si>
-    <t>87,35%</t>
-  </si>
-  <si>
-    <t>75,74%</t>
-  </si>
-  <si>
-    <t>71,54%</t>
-  </si>
-  <si>
-    <t>79,36%</t>
-  </si>
-  <si>
-    <t>66,06%</t>
-  </si>
-  <si>
-    <t>60,52%</t>
-  </si>
-  <si>
-    <t>71,53%</t>
-  </si>
-  <si>
-    <t>28,42%</t>
-  </si>
-  <si>
-    <t>36,2%</t>
-  </si>
-  <si>
-    <t>46,85%</t>
-  </si>
-  <si>
-    <t>43,46%</t>
-  </si>
-  <si>
-    <t>50,28%</t>
-  </si>
-  <si>
-    <t>33,94%</t>
-  </si>
-  <si>
-    <t>28,47%</t>
-  </si>
-  <si>
-    <t>39,48%</t>
-  </si>
-  <si>
-    <t>63,8%</t>
-  </si>
-  <si>
-    <t>71,58%</t>
+    <t>63,05%</t>
+  </si>
+  <si>
+    <t>71,21%</t>
   </si>
   <si>
     <t>53,15%</t>
   </si>
   <si>
-    <t>49,72%</t>
-  </si>
-  <si>
-    <t>56,54%</t>
+    <t>49,94%</t>
+  </si>
+  <si>
+    <t>56,63%</t>
   </si>
   <si>
     <t>87,17%</t>
   </si>
   <si>
-    <t>84,99%</t>
-  </si>
-  <si>
-    <t>89,3%</t>
+    <t>85,03%</t>
+  </si>
+  <si>
+    <t>89,19%</t>
   </si>
   <si>
     <t>71,61%</t>
   </si>
   <si>
-    <t>67,33%</t>
-  </si>
-  <si>
-    <t>80,63%</t>
+    <t>67,29%</t>
+  </si>
+  <si>
+    <t>80,33%</t>
   </si>
   <si>
     <t>77,89%</t>
   </si>
   <si>
-    <t>75,86%</t>
-  </si>
-  <si>
-    <t>83,08%</t>
+    <t>75,7%</t>
+  </si>
+  <si>
+    <t>82,69%</t>
   </si>
   <si>
     <t>12,83%</t>
   </si>
   <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>15,01%</t>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>14,97%</t>
   </si>
   <si>
     <t>28,39%</t>
   </si>
   <si>
-    <t>19,37%</t>
-  </si>
-  <si>
-    <t>32,67%</t>
+    <t>19,67%</t>
+  </si>
+  <si>
+    <t>32,71%</t>
   </si>
   <si>
     <t>22,11%</t>
   </si>
   <si>
-    <t>16,92%</t>
-  </si>
-  <si>
-    <t>24,14%</t>
+    <t>17,31%</t>
+  </si>
+  <si>
+    <t>24,3%</t>
   </si>
   <si>
     <t>56,39%</t>
   </si>
   <si>
-    <t>53,51%</t>
-  </si>
-  <si>
-    <t>59,33%</t>
+    <t>53,29%</t>
+  </si>
+  <si>
+    <t>59,16%</t>
   </si>
   <si>
     <t>40,69%</t>
   </si>
   <si>
-    <t>37,11%</t>
-  </si>
-  <si>
-    <t>49,65%</t>
+    <t>37,06%</t>
+  </si>
+  <si>
+    <t>50,73%</t>
   </si>
   <si>
     <t>47,01%</t>
   </si>
   <si>
-    <t>44,75%</t>
-  </si>
-  <si>
-    <t>51,74%</t>
+    <t>44,77%</t>
+  </si>
+  <si>
+    <t>52,66%</t>
   </si>
   <si>
     <t>43,61%</t>
   </si>
   <si>
-    <t>40,67%</t>
-  </si>
-  <si>
-    <t>46,49%</t>
+    <t>40,84%</t>
+  </si>
+  <si>
+    <t>46,71%</t>
   </si>
   <si>
     <t>59,31%</t>
   </si>
   <si>
-    <t>50,35%</t>
-  </si>
-  <si>
-    <t>62,89%</t>
+    <t>49,27%</t>
+  </si>
+  <si>
+    <t>62,94%</t>
   </si>
   <si>
     <t>52,99%</t>
   </si>
   <si>
-    <t>48,26%</t>
-  </si>
-  <si>
-    <t>55,25%</t>
+    <t>47,34%</t>
+  </si>
+  <si>
+    <t>55,23%</t>
   </si>
 </sst>
 </file>
@@ -1992,7 +1950,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A80840-350A-4063-A9DF-FED5EA05574D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FE317D0-03DA-4DD5-BA59-D196816CC4E0}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2918,7 +2876,7 @@
         <v>918</v>
       </c>
       <c r="N19" s="7">
-        <v>916096</v>
+        <v>916095</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>110</v>
@@ -3020,7 +2978,7 @@
         <v>1173</v>
       </c>
       <c r="N21" s="7">
-        <v>1168726</v>
+        <v>1168725</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>26</v>
@@ -3211,7 +3169,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFBA33C8-E429-4406-8D76-15F3D862E8B5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{897C140A-32FE-4356-AD89-88AC71A615AA}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3508,10 +3466,10 @@
         <v>163</v>
       </c>
       <c r="K7" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>165</v>
       </c>
       <c r="M7" s="7">
         <v>39</v>
@@ -3520,13 +3478,13 @@
         <v>42044</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3541,13 +3499,13 @@
         <v>283590</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>171</v>
       </c>
       <c r="H8" s="7">
         <v>285</v>
@@ -3556,13 +3514,13 @@
         <v>302707</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="K8" s="7" t="s">
-        <v>173</v>
-      </c>
       <c r="L8" s="7" t="s">
-        <v>174</v>
+        <v>59</v>
       </c>
       <c r="M8" s="7">
         <v>564</v>
@@ -3571,13 +3529,13 @@
         <v>586297</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3645,13 +3603,13 @@
         <v>46723</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>180</v>
       </c>
       <c r="H10" s="7">
         <v>34</v>
@@ -3660,13 +3618,13 @@
         <v>39667</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>183</v>
       </c>
       <c r="M10" s="7">
         <v>76</v>
@@ -3675,13 +3633,13 @@
         <v>86390</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3696,13 +3654,13 @@
         <v>204746</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>189</v>
       </c>
       <c r="H11" s="7">
         <v>352</v>
@@ -3711,13 +3669,13 @@
         <v>376659</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>192</v>
       </c>
       <c r="M11" s="7">
         <v>546</v>
@@ -3726,13 +3684,13 @@
         <v>581406</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3800,13 +3758,13 @@
         <v>75827</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>198</v>
       </c>
       <c r="H13" s="7">
         <v>49</v>
@@ -3815,13 +3773,13 @@
         <v>54635</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>201</v>
       </c>
       <c r="M13" s="7">
         <v>116</v>
@@ -3830,13 +3788,13 @@
         <v>130462</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3851,13 +3809,13 @@
         <v>169041</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>207</v>
       </c>
       <c r="H14" s="7">
         <v>289</v>
@@ -3866,13 +3824,13 @@
         <v>327856</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>210</v>
       </c>
       <c r="M14" s="7">
         <v>443</v>
@@ -3881,13 +3839,13 @@
         <v>496897</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3955,13 +3913,13 @@
         <v>174529</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>216</v>
       </c>
       <c r="H16" s="7">
         <v>88</v>
@@ -3970,13 +3928,13 @@
         <v>95754</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>219</v>
       </c>
       <c r="M16" s="7">
         <v>247</v>
@@ -3985,13 +3943,13 @@
         <v>270283</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4006,13 +3964,13 @@
         <v>93466</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>225</v>
       </c>
       <c r="H17" s="7">
         <v>249</v>
@@ -4021,13 +3979,13 @@
         <v>275301</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>228</v>
       </c>
       <c r="M17" s="7">
         <v>332</v>
@@ -4036,13 +3994,13 @@
         <v>368767</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4113,7 +4071,7 @@
         <v>106</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>21</v>
@@ -4125,13 +4083,13 @@
         <v>523191</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>233</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>235</v>
       </c>
       <c r="M19" s="7">
         <v>985</v>
@@ -4140,13 +4098,13 @@
         <v>1077651</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>236</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4167,7 +4125,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="H20" s="7">
         <v>200</v>
@@ -4176,13 +4134,13 @@
         <v>211946</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>242</v>
       </c>
       <c r="M20" s="7">
         <v>202</v>
@@ -4191,13 +4149,13 @@
         <v>214107</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4265,13 +4223,13 @@
         <v>872220</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>246</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>248</v>
       </c>
       <c r="H22" s="7">
         <v>689</v>
@@ -4280,13 +4238,13 @@
         <v>748218</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>249</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>251</v>
       </c>
       <c r="M22" s="7">
         <v>1476</v>
@@ -4295,13 +4253,13 @@
         <v>1620438</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>253</v>
+        <v>129</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4316,13 +4274,13 @@
         <v>1109193</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="H23" s="7">
         <v>1699</v>
@@ -4331,13 +4289,13 @@
         <v>1825320</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="M23" s="7">
         <v>2764</v>
@@ -4346,13 +4304,13 @@
         <v>2934514</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>263</v>
+        <v>139</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4430,7 +4388,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F896CC5-B169-4986-8624-7312E2EB840A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16AF9604-077A-498E-B7F8-E206540E0507}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4447,7 +4405,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4554,13 +4512,13 @@
         <v>4483</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>265</v>
+        <v>146</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="H4" s="7">
         <v>11</v>
@@ -4569,13 +4527,13 @@
         <v>10621</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>269</v>
+        <v>13</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="M4" s="7">
         <v>15</v>
@@ -4584,13 +4542,13 @@
         <v>15104</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>271</v>
+        <v>115</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4605,13 +4563,13 @@
         <v>322518</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>274</v>
+        <v>156</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="H5" s="7">
         <v>285</v>
@@ -4620,13 +4578,13 @@
         <v>278153</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>279</v>
+        <v>20</v>
       </c>
       <c r="M5" s="7">
         <v>588</v>
@@ -4635,13 +4593,13 @@
         <v>600671</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>280</v>
+        <v>105</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4709,13 +4667,13 @@
         <v>14440</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="H7" s="7">
         <v>13</v>
@@ -4724,13 +4682,13 @@
         <v>12850</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="M7" s="7">
         <v>27</v>
@@ -4739,13 +4697,13 @@
         <v>27289</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4760,13 +4718,13 @@
         <v>229008</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="H8" s="7">
         <v>278</v>
@@ -4775,13 +4733,13 @@
         <v>271643</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="M8" s="7">
         <v>499</v>
@@ -4790,13 +4748,13 @@
         <v>500651</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4864,13 +4822,13 @@
         <v>29525</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="H10" s="7">
         <v>31</v>
@@ -4879,13 +4837,13 @@
         <v>29632</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="M10" s="7">
         <v>59</v>
@@ -4894,13 +4852,13 @@
         <v>59156</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4915,13 +4873,13 @@
         <v>178670</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="H11" s="7">
         <v>314</v>
@@ -4930,13 +4888,13 @@
         <v>313401</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="M11" s="7">
         <v>486</v>
@@ -4945,13 +4903,13 @@
         <v>492071</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5019,13 +4977,13 @@
         <v>79808</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="H13" s="7">
         <v>44</v>
@@ -5034,13 +4992,13 @@
         <v>47340</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="M13" s="7">
         <v>116</v>
@@ -5049,13 +5007,13 @@
         <v>127148</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5070,13 +5028,13 @@
         <v>197245</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="H14" s="7">
         <v>324</v>
@@ -5085,13 +5043,13 @@
         <v>346537</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="M14" s="7">
         <v>502</v>
@@ -5100,13 +5058,13 @@
         <v>543782</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5174,13 +5132,13 @@
         <v>200303</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="H16" s="7">
         <v>99</v>
@@ -5189,13 +5147,13 @@
         <v>112851</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="M16" s="7">
         <v>276</v>
@@ -5204,13 +5162,13 @@
         <v>313154</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5225,13 +5183,13 @@
         <v>110008</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="H17" s="7">
         <v>237</v>
@@ -5240,13 +5198,13 @@
         <v>270449</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="M17" s="7">
         <v>337</v>
@@ -5255,13 +5213,13 @@
         <v>380456</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5329,13 +5287,13 @@
         <v>573666</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
       <c r="H19" s="7">
         <v>441</v>
@@ -5344,13 +5302,13 @@
         <v>528727</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="M19" s="7">
         <v>1049</v>
@@ -5359,13 +5317,13 @@
         <v>1102394</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5380,13 +5338,13 @@
         <v>6643</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
       <c r="H20" s="7">
         <v>202</v>
@@ -5395,13 +5353,13 @@
         <v>236073</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="M20" s="7">
         <v>209</v>
@@ -5410,13 +5368,13 @@
         <v>242716</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5484,13 +5442,13 @@
         <v>902225</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>373</v>
+        <v>363</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="H22" s="7">
         <v>639</v>
@@ -5499,13 +5457,13 @@
         <v>742021</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="M22" s="7">
         <v>1542</v>
@@ -5514,13 +5472,13 @@
         <v>1644246</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5535,13 +5493,13 @@
         <v>1044091</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="H23" s="7">
         <v>1640</v>
@@ -5550,13 +5508,13 @@
         <v>1716255</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>386</v>
+        <v>376</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="M23" s="7">
         <v>2621</v>
@@ -5565,13 +5523,13 @@
         <v>2760346</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>388</v>
+        <v>378</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5649,7 +5607,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE266288-B68A-46ED-90A8-07A430F0D1FC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2C8C2E8-9AB2-49A7-90C8-4F43A821E0A6}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5666,7 +5624,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>391</v>
+        <v>381</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5773,13 +5731,13 @@
         <v>2053</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>392</v>
+        <v>382</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="H4" s="7">
         <v>3</v>
@@ -5788,13 +5746,13 @@
         <v>6185</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>394</v>
+        <v>384</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>396</v>
+        <v>386</v>
       </c>
       <c r="M4" s="7">
         <v>4</v>
@@ -5803,13 +5761,13 @@
         <v>8238</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>397</v>
+        <v>387</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>398</v>
+        <v>388</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>399</v>
+        <v>389</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5824,10 +5782,10 @@
         <v>284726</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>21</v>
@@ -5839,13 +5797,13 @@
         <v>251319</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>402</v>
+        <v>392</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>404</v>
+        <v>394</v>
       </c>
       <c r="M5" s="7">
         <v>269</v>
@@ -5854,13 +5812,13 @@
         <v>536045</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>405</v>
+        <v>395</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5928,13 +5886,13 @@
         <v>8502</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>409</v>
+        <v>147</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>410</v>
+        <v>399</v>
       </c>
       <c r="H7" s="7">
         <v>12</v>
@@ -5943,13 +5901,13 @@
         <v>13120</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>412</v>
+        <v>401</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>413</v>
+        <v>402</v>
       </c>
       <c r="M7" s="7">
         <v>18</v>
@@ -5958,13 +5916,13 @@
         <v>21621</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>414</v>
+        <v>403</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>415</v>
+        <v>404</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>416</v>
+        <v>405</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5979,13 +5937,13 @@
         <v>64242</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>417</v>
+        <v>406</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>418</v>
+        <v>407</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>419</v>
+        <v>155</v>
       </c>
       <c r="H8" s="7">
         <v>148</v>
@@ -5994,13 +5952,13 @@
         <v>160038</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>421</v>
+        <v>409</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>422</v>
+        <v>410</v>
       </c>
       <c r="M8" s="7">
         <v>193</v>
@@ -6009,13 +5967,13 @@
         <v>224281</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>423</v>
+        <v>411</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>424</v>
+        <v>412</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6083,13 +6041,13 @@
         <v>21461</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>427</v>
+        <v>415</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>428</v>
+        <v>416</v>
       </c>
       <c r="H10" s="7">
         <v>38</v>
@@ -6098,13 +6056,13 @@
         <v>29420</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>430</v>
+        <v>418</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>431</v>
+        <v>419</v>
       </c>
       <c r="M10" s="7">
         <v>56</v>
@@ -6113,13 +6071,13 @@
         <v>50881</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>432</v>
+        <v>420</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>433</v>
+        <v>421</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>434</v>
+        <v>422</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6134,13 +6092,13 @@
         <v>53702</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>435</v>
+        <v>423</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>436</v>
+        <v>424</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>437</v>
+        <v>425</v>
       </c>
       <c r="H11" s="7">
         <v>259</v>
@@ -6149,13 +6107,13 @@
         <v>175553</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>438</v>
+        <v>426</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>439</v>
+        <v>427</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="M11" s="7">
         <v>312</v>
@@ -6164,13 +6122,13 @@
         <v>229255</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>442</v>
+        <v>430</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>443</v>
+        <v>431</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6238,13 +6196,13 @@
         <v>57660</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>444</v>
+        <v>432</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>445</v>
+        <v>240</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>446</v>
+        <v>433</v>
       </c>
       <c r="H13" s="7">
         <v>71</v>
@@ -6253,13 +6211,13 @@
         <v>44351</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>447</v>
+        <v>434</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>448</v>
+        <v>435</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>449</v>
+        <v>362</v>
       </c>
       <c r="M13" s="7">
         <v>124</v>
@@ -6268,13 +6226,13 @@
         <v>102011</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>450</v>
+        <v>436</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>451</v>
+        <v>437</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>452</v>
+        <v>438</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6289,13 +6247,13 @@
         <v>84564</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>453</v>
+        <v>439</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>454</v>
+        <v>440</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>455</v>
+        <v>232</v>
       </c>
       <c r="H14" s="7">
         <v>355</v>
@@ -6304,13 +6262,13 @@
         <v>233996</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>456</v>
+        <v>441</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>457</v>
+        <v>352</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>458</v>
+        <v>442</v>
       </c>
       <c r="M14" s="7">
         <v>441</v>
@@ -6319,13 +6277,13 @@
         <v>318560</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>459</v>
+        <v>443</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>460</v>
+        <v>444</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>461</v>
+        <v>445</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6393,13 +6351,13 @@
         <v>184364</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>462</v>
+        <v>446</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>463</v>
+        <v>447</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>464</v>
+        <v>448</v>
       </c>
       <c r="H16" s="7">
         <v>189</v>
@@ -6408,13 +6366,13 @@
         <v>117045</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>378</v>
+        <v>449</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>465</v>
+        <v>450</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>466</v>
+        <v>451</v>
       </c>
       <c r="M16" s="7">
         <v>385</v>
@@ -6423,13 +6381,13 @@
         <v>301408</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>467</v>
+        <v>452</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>468</v>
+        <v>453</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>469</v>
+        <v>454</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6444,13 +6402,13 @@
         <v>94742</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>470</v>
+        <v>455</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>471</v>
+        <v>456</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>472</v>
+        <v>457</v>
       </c>
       <c r="H17" s="7">
         <v>417</v>
@@ -6459,13 +6417,13 @@
         <v>247247</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>386</v>
+        <v>458</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>473</v>
+        <v>459</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>474</v>
+        <v>460</v>
       </c>
       <c r="M17" s="7">
         <v>526</v>
@@ -6474,13 +6432,13 @@
         <v>341990</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>475</v>
+        <v>461</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>476</v>
+        <v>462</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>477</v>
+        <v>463</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6548,13 +6506,13 @@
         <v>591030</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>478</v>
+        <v>464</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>479</v>
+        <v>465</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>480</v>
+        <v>466</v>
       </c>
       <c r="H19" s="7">
         <v>1120</v>
@@ -6563,28 +6521,28 @@
         <v>718219</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>481</v>
+        <v>467</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>482</v>
+        <v>468</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>483</v>
+        <v>469</v>
       </c>
       <c r="M19" s="7">
         <v>1981</v>
       </c>
       <c r="N19" s="7">
-        <v>1309248</v>
+        <v>1309249</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>484</v>
+        <v>470</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>485</v>
+        <v>471</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>486</v>
+        <v>472</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6599,13 +6557,13 @@
         <v>86952</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>487</v>
+        <v>473</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>488</v>
+        <v>474</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>489</v>
+        <v>475</v>
       </c>
       <c r="H20" s="7">
         <v>544</v>
@@ -6614,13 +6572,13 @@
         <v>284737</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>490</v>
+        <v>476</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>491</v>
+        <v>477</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>492</v>
+        <v>478</v>
       </c>
       <c r="M20" s="7">
         <v>682</v>
@@ -6629,13 +6587,13 @@
         <v>371689</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>493</v>
+        <v>479</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>494</v>
+        <v>480</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>495</v>
+        <v>481</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6677,7 +6635,7 @@
         <v>2663</v>
       </c>
       <c r="N21" s="7">
-        <v>1680937</v>
+        <v>1680938</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>26</v>
@@ -6703,13 +6661,13 @@
         <v>865069</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>496</v>
+        <v>482</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>497</v>
+        <v>483</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>498</v>
+        <v>484</v>
       </c>
       <c r="H22" s="7">
         <v>1433</v>
@@ -6718,13 +6676,13 @@
         <v>928340</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>499</v>
+        <v>485</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>500</v>
+        <v>486</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>501</v>
+        <v>487</v>
       </c>
       <c r="M22" s="7">
         <v>2568</v>
@@ -6733,13 +6691,13 @@
         <v>1793409</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>502</v>
+        <v>488</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>503</v>
+        <v>489</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>504</v>
+        <v>490</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6754,13 +6712,13 @@
         <v>668929</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>505</v>
+        <v>491</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>506</v>
+        <v>492</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>507</v>
+        <v>493</v>
       </c>
       <c r="H23" s="7">
         <v>1869</v>
@@ -6769,13 +6727,13 @@
         <v>1352890</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>508</v>
+        <v>494</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>509</v>
+        <v>495</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>510</v>
+        <v>496</v>
       </c>
       <c r="M23" s="7">
         <v>2423</v>
@@ -6784,13 +6742,13 @@
         <v>2021819</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>511</v>
+        <v>497</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>512</v>
+        <v>498</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>513</v>
+        <v>499</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P62-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P62-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CB39CE1E-370F-4C78-8540-2DD282FD2652}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BDB2A1CD-B346-4B69-9747-99AA10E491F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{EA956AD2-E883-4504-A61A-C60AFD1ED9F2}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{931036B8-DF26-45F2-8E98-94F8CBB6F69D}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="500">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1072" uniqueCount="567">
   <si>
     <t>Población según si percibe alguna pensión en 2007 (Tasa respuesta: 56,61%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Sí</t>
@@ -122,7 +122,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>25/34</t>
+    <t>25-34</t>
   </si>
   <si>
     <t>3,6%</t>
@@ -179,7 +179,7 @@
     <t>97,72%</t>
   </si>
   <si>
-    <t>35/44</t>
+    <t>35-44</t>
   </si>
   <si>
     <t>35,98%</t>
@@ -236,7 +236,7 @@
     <t>92,88%</t>
   </si>
   <si>
-    <t>45/54</t>
+    <t>45-54</t>
   </si>
   <si>
     <t>56,66%</t>
@@ -293,7 +293,7 @@
     <t>83,33%</t>
   </si>
   <si>
-    <t>55/64</t>
+    <t>55-64</t>
   </si>
   <si>
     <t>77,77%</t>
@@ -350,510 +350,615 @@
     <t>58,97%</t>
   </si>
   <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>98,92%</t>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>52,22%</t>
+  </si>
+  <si>
+    <t>47,08%</t>
+  </si>
+  <si>
+    <t>57,29%</t>
+  </si>
+  <si>
+    <t>73,58%</t>
+  </si>
+  <si>
+    <t>70,41%</t>
+  </si>
+  <si>
+    <t>77,03%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>47,78%</t>
+  </si>
+  <si>
+    <t>42,71%</t>
+  </si>
+  <si>
+    <t>52,92%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>22,97%</t>
+  </si>
+  <si>
+    <t>29,59%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>74,3%</t>
+  </si>
+  <si>
+    <t>68,74%</t>
+  </si>
+  <si>
+    <t>79,08%</t>
+  </si>
+  <si>
+    <t>83,98%</t>
+  </si>
+  <si>
+    <t>80,19%</t>
+  </si>
+  <si>
+    <t>87,0%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>25,7%</t>
+  </si>
+  <si>
+    <t>20,92%</t>
+  </si>
+  <si>
+    <t>31,26%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>54,56%</t>
+  </si>
+  <si>
+    <t>51,86%</t>
+  </si>
+  <si>
+    <t>57,12%</t>
+  </si>
+  <si>
+    <t>24,64%</t>
+  </si>
+  <si>
+    <t>22,86%</t>
+  </si>
+  <si>
+    <t>26,49%</t>
+  </si>
+  <si>
+    <t>35,61%</t>
+  </si>
+  <si>
+    <t>34,19%</t>
+  </si>
+  <si>
+    <t>37,31%</t>
+  </si>
+  <si>
+    <t>45,44%</t>
+  </si>
+  <si>
+    <t>42,88%</t>
+  </si>
+  <si>
+    <t>48,14%</t>
+  </si>
+  <si>
+    <t>75,36%</t>
+  </si>
+  <si>
+    <t>73,51%</t>
+  </si>
+  <si>
+    <t>77,14%</t>
+  </si>
+  <si>
+    <t>64,39%</t>
+  </si>
+  <si>
+    <t>62,69%</t>
+  </si>
+  <si>
+    <t>65,81%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si percibe alguna pensión en 2012 (Tasa respuesta: 65,16%)</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>97,16%</t>
+  </si>
+  <si>
+    <t>94,74%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>98,06%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>94,42%</t>
+  </si>
+  <si>
+    <t>91,55%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>92,29%</t>
+  </si>
+  <si>
+    <t>88,8%</t>
+  </si>
+  <si>
+    <t>93,31%</t>
+  </si>
+  <si>
+    <t>91,08%</t>
+  </si>
+  <si>
+    <t>95,18%</t>
+  </si>
+  <si>
+    <t>18,58%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>24,16%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>15,88%</t>
+  </si>
+  <si>
+    <t>81,42%</t>
+  </si>
+  <si>
+    <t>75,84%</t>
+  </si>
+  <si>
+    <t>86,7%</t>
+  </si>
+  <si>
+    <t>90,47%</t>
+  </si>
+  <si>
+    <t>93,28%</t>
+  </si>
+  <si>
+    <t>87,06%</t>
+  </si>
+  <si>
+    <t>84,12%</t>
+  </si>
+  <si>
+    <t>89,87%</t>
+  </si>
+  <si>
+    <t>30,97%</t>
+  </si>
+  <si>
+    <t>25,49%</t>
+  </si>
+  <si>
+    <t>37,5%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>18,4%</t>
+  </si>
+  <si>
+    <t>20,8%</t>
+  </si>
+  <si>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>24,54%</t>
+  </si>
+  <si>
+    <t>69,03%</t>
+  </si>
+  <si>
+    <t>62,5%</t>
+  </si>
+  <si>
+    <t>74,51%</t>
+  </si>
+  <si>
+    <t>85,72%</t>
+  </si>
+  <si>
+    <t>81,6%</t>
+  </si>
+  <si>
+    <t>89,09%</t>
+  </si>
+  <si>
+    <t>79,2%</t>
+  </si>
+  <si>
+    <t>75,46%</t>
+  </si>
+  <si>
+    <t>82,53%</t>
+  </si>
+  <si>
+    <t>65,12%</t>
+  </si>
+  <si>
+    <t>59,04%</t>
+  </si>
+  <si>
+    <t>71,27%</t>
+  </si>
+  <si>
+    <t>25,81%</t>
+  </si>
+  <si>
+    <t>21,2%</t>
+  </si>
+  <si>
+    <t>30,62%</t>
+  </si>
+  <si>
+    <t>42,29%</t>
+  </si>
+  <si>
+    <t>38,11%</t>
+  </si>
+  <si>
+    <t>46,58%</t>
+  </si>
+  <si>
+    <t>34,88%</t>
+  </si>
+  <si>
+    <t>28,73%</t>
+  </si>
+  <si>
+    <t>40,96%</t>
+  </si>
+  <si>
+    <t>74,19%</t>
+  </si>
+  <si>
+    <t>69,38%</t>
+  </si>
+  <si>
+    <t>78,8%</t>
+  </si>
+  <si>
+    <t>57,71%</t>
+  </si>
+  <si>
+    <t>53,42%</t>
+  </si>
+  <si>
+    <t>61,89%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>64,78%</t>
+  </si>
+  <si>
+    <t>59,65%</t>
+  </si>
+  <si>
+    <t>69,75%</t>
+  </si>
+  <si>
+    <t>81,11%</t>
+  </si>
+  <si>
+    <t>77,78%</t>
+  </si>
+  <si>
+    <t>84,09%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>35,22%</t>
+  </si>
+  <si>
+    <t>30,25%</t>
+  </si>
+  <si>
+    <t>40,35%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
+  </si>
+  <si>
+    <t>15,91%</t>
+  </si>
+  <si>
+    <t>22,22%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>76,92%</t>
+  </si>
+  <si>
+    <t>72,42%</t>
+  </si>
+  <si>
+    <t>81,34%</t>
+  </si>
+  <si>
+    <t>85,81%</t>
+  </si>
+  <si>
+    <t>82,81%</t>
+  </si>
+  <si>
+    <t>88,31%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>23,08%</t>
+  </si>
+  <si>
+    <t>18,66%</t>
+  </si>
+  <si>
+    <t>27,58%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>17,19%</t>
+  </si>
+  <si>
+    <t>44,02%</t>
+  </si>
+  <si>
+    <t>41,74%</t>
+  </si>
+  <si>
+    <t>46,27%</t>
+  </si>
+  <si>
+    <t>29,07%</t>
+  </si>
+  <si>
+    <t>27,22%</t>
+  </si>
+  <si>
+    <t>30,93%</t>
+  </si>
+  <si>
+    <t>35,58%</t>
+  </si>
+  <si>
+    <t>37,12%</t>
+  </si>
+  <si>
+    <t>55,98%</t>
+  </si>
+  <si>
+    <t>53,73%</t>
+  </si>
+  <si>
+    <t>58,26%</t>
+  </si>
+  <si>
+    <t>70,93%</t>
+  </si>
+  <si>
+    <t>69,07%</t>
+  </si>
+  <si>
+    <t>72,78%</t>
+  </si>
+  <si>
+    <t>64,42%</t>
+  </si>
+  <si>
+    <t>62,88%</t>
+  </si>
+  <si>
+    <t>Población según si percibe alguna pensión en 2016 (Tasa respuesta: 63,37%)</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>96,57%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
+  </si>
+  <si>
+    <t>93,36%</t>
   </si>
   <si>
     <t>97,55%</t>
   </si>
   <si>
-    <t>99,61%</t>
-  </si>
-  <si>
-    <t>63,17%</t>
-  </si>
-  <si>
-    <t>59,21%</t>
-  </si>
-  <si>
-    <t>66,75%</t>
-  </si>
-  <si>
-    <t>78,38%</t>
-  </si>
-  <si>
-    <t>76,02%</t>
-  </si>
-  <si>
-    <t>80,74%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>36,83%</t>
-  </si>
-  <si>
-    <t>33,25%</t>
-  </si>
-  <si>
-    <t>40,79%</t>
-  </si>
-  <si>
-    <t>21,62%</t>
-  </si>
-  <si>
-    <t>19,26%</t>
-  </si>
-  <si>
-    <t>23,98%</t>
-  </si>
-  <si>
-    <t>54,56%</t>
-  </si>
-  <si>
-    <t>51,86%</t>
-  </si>
-  <si>
-    <t>57,12%</t>
-  </si>
-  <si>
-    <t>24,64%</t>
-  </si>
-  <si>
-    <t>22,86%</t>
-  </si>
-  <si>
-    <t>26,49%</t>
-  </si>
-  <si>
-    <t>35,61%</t>
-  </si>
-  <si>
-    <t>34,19%</t>
-  </si>
-  <si>
-    <t>37,31%</t>
-  </si>
-  <si>
-    <t>45,44%</t>
-  </si>
-  <si>
-    <t>42,88%</t>
-  </si>
-  <si>
-    <t>48,14%</t>
-  </si>
-  <si>
-    <t>75,36%</t>
-  </si>
-  <si>
-    <t>73,51%</t>
-  </si>
-  <si>
-    <t>77,14%</t>
-  </si>
-  <si>
-    <t>64,39%</t>
-  </si>
-  <si>
-    <t>62,69%</t>
-  </si>
-  <si>
-    <t>65,81%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si percibe alguna pensión en 2012 (Tasa respuesta: 65,16%)</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>97,32%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>97,16%</t>
-  </si>
-  <si>
-    <t>94,74%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>98,06%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>94,42%</t>
-  </si>
-  <si>
-    <t>91,55%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>92,29%</t>
-  </si>
-  <si>
-    <t>88,8%</t>
-  </si>
-  <si>
-    <t>93,31%</t>
-  </si>
-  <si>
-    <t>91,08%</t>
-  </si>
-  <si>
-    <t>95,18%</t>
-  </si>
-  <si>
-    <t>18,58%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>24,16%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>15,88%</t>
-  </si>
-  <si>
-    <t>81,42%</t>
-  </si>
-  <si>
-    <t>75,84%</t>
-  </si>
-  <si>
-    <t>86,7%</t>
-  </si>
-  <si>
-    <t>90,47%</t>
-  </si>
-  <si>
-    <t>87,0%</t>
-  </si>
-  <si>
-    <t>93,28%</t>
-  </si>
-  <si>
-    <t>87,06%</t>
-  </si>
-  <si>
-    <t>84,12%</t>
-  </si>
-  <si>
-    <t>89,87%</t>
-  </si>
-  <si>
-    <t>30,97%</t>
-  </si>
-  <si>
-    <t>25,49%</t>
-  </si>
-  <si>
-    <t>37,5%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>18,4%</t>
-  </si>
-  <si>
-    <t>20,8%</t>
-  </si>
-  <si>
-    <t>17,47%</t>
-  </si>
-  <si>
-    <t>24,54%</t>
-  </si>
-  <si>
-    <t>69,03%</t>
-  </si>
-  <si>
-    <t>62,5%</t>
-  </si>
-  <si>
-    <t>74,51%</t>
-  </si>
-  <si>
-    <t>85,72%</t>
-  </si>
-  <si>
-    <t>81,6%</t>
-  </si>
-  <si>
-    <t>89,09%</t>
-  </si>
-  <si>
-    <t>79,2%</t>
-  </si>
-  <si>
-    <t>75,46%</t>
-  </si>
-  <si>
-    <t>82,53%</t>
-  </si>
-  <si>
-    <t>65,12%</t>
-  </si>
-  <si>
-    <t>59,04%</t>
-  </si>
-  <si>
-    <t>71,27%</t>
-  </si>
-  <si>
-    <t>25,81%</t>
-  </si>
-  <si>
-    <t>21,2%</t>
-  </si>
-  <si>
-    <t>30,62%</t>
-  </si>
-  <si>
-    <t>42,29%</t>
-  </si>
-  <si>
-    <t>38,11%</t>
-  </si>
-  <si>
-    <t>46,58%</t>
-  </si>
-  <si>
-    <t>34,88%</t>
-  </si>
-  <si>
-    <t>28,73%</t>
-  </si>
-  <si>
-    <t>40,96%</t>
-  </si>
-  <si>
-    <t>74,19%</t>
-  </si>
-  <si>
-    <t>69,38%</t>
-  </si>
-  <si>
-    <t>78,8%</t>
-  </si>
-  <si>
-    <t>57,71%</t>
-  </si>
-  <si>
-    <t>53,42%</t>
-  </si>
-  <si>
-    <t>61,89%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>71,17%</t>
-  </si>
-  <si>
-    <t>67,82%</t>
-  </si>
-  <si>
-    <t>74,77%</t>
-  </si>
-  <si>
-    <t>83,43%</t>
-  </si>
-  <si>
-    <t>81,11%</t>
-  </si>
-  <si>
-    <t>85,46%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>28,83%</t>
-  </si>
-  <si>
-    <t>25,23%</t>
-  </si>
-  <si>
-    <t>32,18%</t>
-  </si>
-  <si>
-    <t>16,57%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>44,02%</t>
-  </si>
-  <si>
-    <t>41,74%</t>
-  </si>
-  <si>
-    <t>46,27%</t>
-  </si>
-  <si>
-    <t>29,07%</t>
-  </si>
-  <si>
-    <t>27,22%</t>
-  </si>
-  <si>
-    <t>30,93%</t>
-  </si>
-  <si>
-    <t>35,58%</t>
-  </si>
-  <si>
-    <t>37,12%</t>
-  </si>
-  <si>
-    <t>55,98%</t>
-  </si>
-  <si>
-    <t>53,73%</t>
-  </si>
-  <si>
-    <t>58,26%</t>
-  </si>
-  <si>
-    <t>70,93%</t>
-  </si>
-  <si>
-    <t>69,07%</t>
-  </si>
-  <si>
-    <t>72,78%</t>
-  </si>
-  <si>
-    <t>64,42%</t>
-  </si>
-  <si>
-    <t>62,88%</t>
-  </si>
-  <si>
-    <t>Población según si percibe alguna pensión en 2016 (Tasa respuesta: 63,37%)</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>96,32%</t>
-  </si>
-  <si>
-    <t>93,36%</t>
-  </si>
-  <si>
     <t>96,02%</t>
   </si>
   <si>
@@ -983,9 +1088,6 @@
     <t>9,33%</t>
   </si>
   <si>
-    <t>15,91%</t>
-  </si>
-  <si>
     <t>18,95%</t>
   </si>
   <si>
@@ -1007,9 +1109,6 @@
     <t>87,98%</t>
   </si>
   <si>
-    <t>84,09%</t>
-  </si>
-  <si>
     <t>90,67%</t>
   </si>
   <si>
@@ -1076,58 +1175,106 @@
     <t>58,7%</t>
   </si>
   <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>69,13%</t>
-  </si>
-  <si>
-    <t>65,34%</t>
-  </si>
-  <si>
-    <t>72,47%</t>
-  </si>
-  <si>
-    <t>81,96%</t>
-  </si>
-  <si>
-    <t>79,87%</t>
-  </si>
-  <si>
-    <t>84,17%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>30,87%</t>
-  </si>
-  <si>
-    <t>27,53%</t>
-  </si>
-  <si>
-    <t>34,66%</t>
-  </si>
-  <si>
-    <t>18,04%</t>
-  </si>
-  <si>
-    <t>15,83%</t>
-  </si>
-  <si>
-    <t>20,13%</t>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>96,71%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>63,5%</t>
+  </si>
+  <si>
+    <t>58,1%</t>
+  </si>
+  <si>
+    <t>68,46%</t>
+  </si>
+  <si>
+    <t>79,98%</t>
+  </si>
+  <si>
+    <t>76,77%</t>
+  </si>
+  <si>
+    <t>82,82%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>36,5%</t>
+  </si>
+  <si>
+    <t>31,54%</t>
+  </si>
+  <si>
+    <t>41,9%</t>
+  </si>
+  <si>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>23,23%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
+  </si>
+  <si>
+    <t>74,37%</t>
+  </si>
+  <si>
+    <t>69,52%</t>
+  </si>
+  <si>
+    <t>79,22%</t>
+  </si>
+  <si>
+    <t>84,08%</t>
+  </si>
+  <si>
+    <t>80,7%</t>
+  </si>
+  <si>
+    <t>87,09%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>25,63%</t>
+  </si>
+  <si>
+    <t>20,78%</t>
+  </si>
+  <si>
+    <t>30,48%</t>
+  </si>
+  <si>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>12,91%</t>
+  </si>
+  <si>
+    <t>19,3%</t>
   </si>
   <si>
     <t>46,36%</t>
@@ -1187,358 +1334,412 @@
     <t>Población según si percibe alguna pensión en 2023 (Tasa respuesta: 57,09%)</t>
   </si>
   <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>92,81%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>23,42%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>13,61%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>88,31%</t>
-  </si>
-  <si>
-    <t>76,58%</t>
-  </si>
-  <si>
-    <t>92,42%</t>
-  </si>
-  <si>
-    <t>86,39%</t>
-  </si>
-  <si>
-    <t>96,21%</t>
-  </si>
-  <si>
-    <t>91,21%</t>
-  </si>
-  <si>
-    <t>86,27%</t>
-  </si>
-  <si>
-    <t>94,5%</t>
-  </si>
-  <si>
-    <t>28,55%</t>
-  </si>
-  <si>
-    <t>18,68%</t>
-  </si>
-  <si>
-    <t>40,8%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>18,98%</t>
-  </si>
-  <si>
-    <t>18,16%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>22,51%</t>
-  </si>
-  <si>
-    <t>71,45%</t>
-  </si>
-  <si>
-    <t>59,2%</t>
-  </si>
-  <si>
-    <t>81,32%</t>
-  </si>
-  <si>
-    <t>85,65%</t>
-  </si>
-  <si>
-    <t>81,02%</t>
-  </si>
-  <si>
-    <t>89,43%</t>
-  </si>
-  <si>
-    <t>81,84%</t>
-  </si>
-  <si>
-    <t>77,49%</t>
-  </si>
-  <si>
-    <t>85,88%</t>
-  </si>
-  <si>
-    <t>40,54%</t>
-  </si>
-  <si>
-    <t>49,63%</t>
-  </si>
-  <si>
-    <t>15,93%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>24,26%</t>
-  </si>
-  <si>
-    <t>20,58%</t>
-  </si>
-  <si>
-    <t>28,4%</t>
-  </si>
-  <si>
-    <t>59,46%</t>
-  </si>
-  <si>
-    <t>50,37%</t>
-  </si>
-  <si>
-    <t>84,07%</t>
-  </si>
-  <si>
-    <t>87,21%</t>
-  </si>
-  <si>
-    <t>75,74%</t>
-  </si>
-  <si>
-    <t>71,6%</t>
-  </si>
-  <si>
-    <t>79,42%</t>
-  </si>
-  <si>
-    <t>66,06%</t>
-  </si>
-  <si>
-    <t>60,4%</t>
-  </si>
-  <si>
-    <t>71,53%</t>
-  </si>
-  <si>
-    <t>32,13%</t>
-  </si>
-  <si>
-    <t>28,79%</t>
-  </si>
-  <si>
-    <t>36,95%</t>
-  </si>
-  <si>
-    <t>46,85%</t>
-  </si>
-  <si>
-    <t>43,37%</t>
-  </si>
-  <si>
-    <t>50,06%</t>
-  </si>
-  <si>
-    <t>33,94%</t>
-  </si>
-  <si>
-    <t>28,47%</t>
-  </si>
-  <si>
-    <t>39,6%</t>
-  </si>
-  <si>
-    <t>67,87%</t>
-  </si>
-  <si>
-    <t>63,05%</t>
-  </si>
-  <si>
-    <t>71,21%</t>
-  </si>
-  <si>
-    <t>53,15%</t>
-  </si>
-  <si>
-    <t>49,94%</t>
-  </si>
-  <si>
-    <t>56,63%</t>
-  </si>
-  <si>
-    <t>87,17%</t>
-  </si>
-  <si>
-    <t>85,03%</t>
-  </si>
-  <si>
-    <t>89,19%</t>
-  </si>
-  <si>
-    <t>71,61%</t>
-  </si>
-  <si>
-    <t>67,29%</t>
-  </si>
-  <si>
-    <t>80,33%</t>
-  </si>
-  <si>
-    <t>77,89%</t>
-  </si>
-  <si>
-    <t>75,7%</t>
-  </si>
-  <si>
-    <t>82,69%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>14,97%</t>
-  </si>
-  <si>
-    <t>28,39%</t>
-  </si>
-  <si>
-    <t>19,67%</t>
-  </si>
-  <si>
-    <t>32,71%</t>
-  </si>
-  <si>
-    <t>22,11%</t>
-  </si>
-  <si>
-    <t>17,31%</t>
-  </si>
-  <si>
-    <t>24,3%</t>
-  </si>
-  <si>
-    <t>56,39%</t>
-  </si>
-  <si>
-    <t>53,29%</t>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>96,74%</t>
+  </si>
+  <si>
+    <t>92,93%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>96,34%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>23,18%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>88,69%</t>
+  </si>
+  <si>
+    <t>76,82%</t>
+  </si>
+  <si>
+    <t>95,16%</t>
+  </si>
+  <si>
+    <t>92,4%</t>
+  </si>
+  <si>
+    <t>86,31%</t>
+  </si>
+  <si>
+    <t>96,16%</t>
+  </si>
+  <si>
+    <t>91,24%</t>
+  </si>
+  <si>
+    <t>85,96%</t>
+  </si>
+  <si>
+    <t>94,46%</t>
+  </si>
+  <si>
+    <t>27,57%</t>
+  </si>
+  <si>
+    <t>17,98%</t>
+  </si>
+  <si>
+    <t>39,9%</t>
+  </si>
+  <si>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>18,55%</t>
+  </si>
+  <si>
+    <t>17,75%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>22,1%</t>
+  </si>
+  <si>
+    <t>72,43%</t>
+  </si>
+  <si>
+    <t>60,1%</t>
+  </si>
+  <si>
+    <t>82,02%</t>
+  </si>
+  <si>
+    <t>85,98%</t>
+  </si>
+  <si>
+    <t>81,45%</t>
+  </si>
+  <si>
+    <t>89,72%</t>
+  </si>
+  <si>
+    <t>82,25%</t>
+  </si>
+  <si>
+    <t>77,9%</t>
+  </si>
+  <si>
+    <t>86,22%</t>
+  </si>
+  <si>
+    <t>40,22%</t>
+  </si>
+  <si>
+    <t>31,71%</t>
+  </si>
+  <si>
+    <t>49,3%</t>
+  </si>
+  <si>
+    <t>16,08%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>20,34%</t>
+  </si>
+  <si>
+    <t>24,42%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>28,68%</t>
+  </si>
+  <si>
+    <t>59,78%</t>
+  </si>
+  <si>
+    <t>50,7%</t>
+  </si>
+  <si>
+    <t>68,29%</t>
+  </si>
+  <si>
+    <t>83,92%</t>
+  </si>
+  <si>
+    <t>79,66%</t>
+  </si>
+  <si>
+    <t>87,03%</t>
+  </si>
+  <si>
+    <t>75,58%</t>
+  </si>
+  <si>
+    <t>71,32%</t>
+  </si>
+  <si>
+    <t>79,25%</t>
+  </si>
+  <si>
+    <t>65,27%</t>
+  </si>
+  <si>
+    <t>59,5%</t>
+  </si>
+  <si>
+    <t>70,73%</t>
+  </si>
+  <si>
+    <t>31,84%</t>
+  </si>
+  <si>
+    <t>28,52%</t>
+  </si>
+  <si>
+    <t>36,59%</t>
+  </si>
+  <si>
+    <t>46,49%</t>
+  </si>
+  <si>
+    <t>43,11%</t>
+  </si>
+  <si>
+    <t>49,75%</t>
+  </si>
+  <si>
+    <t>34,73%</t>
+  </si>
+  <si>
+    <t>29,27%</t>
+  </si>
+  <si>
+    <t>40,5%</t>
+  </si>
+  <si>
+    <t>68,16%</t>
+  </si>
+  <si>
+    <t>63,41%</t>
+  </si>
+  <si>
+    <t>71,48%</t>
+  </si>
+  <si>
+    <t>53,51%</t>
+  </si>
+  <si>
+    <t>50,25%</t>
+  </si>
+  <si>
+    <t>56,89%</t>
+  </si>
+  <si>
+    <t>85,28%</t>
+  </si>
+  <si>
+    <t>82,17%</t>
+  </si>
+  <si>
+    <t>88,03%</t>
+  </si>
+  <si>
+    <t>73,33%</t>
+  </si>
+  <si>
+    <t>58,21%</t>
+  </si>
+  <si>
+    <t>90,35%</t>
+  </si>
+  <si>
+    <t>77,79%</t>
+  </si>
+  <si>
+    <t>70,7%</t>
+  </si>
+  <si>
+    <t>88,92%</t>
+  </si>
+  <si>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>17,83%</t>
+  </si>
+  <si>
+    <t>26,67%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>41,79%</t>
+  </si>
+  <si>
+    <t>22,21%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>29,3%</t>
+  </si>
+  <si>
+    <t>84,76%</t>
+  </si>
+  <si>
+    <t>90,76%</t>
+  </si>
+  <si>
+    <t>75,4%</t>
+  </si>
+  <si>
+    <t>72,46%</t>
+  </si>
+  <si>
+    <t>78,07%</t>
+  </si>
+  <si>
+    <t>80,39%</t>
+  </si>
+  <si>
+    <t>78,23%</t>
+  </si>
+  <si>
+    <t>82,45%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>24,6%</t>
+  </si>
+  <si>
+    <t>21,93%</t>
+  </si>
+  <si>
+    <t>27,54%</t>
+  </si>
+  <si>
+    <t>19,61%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>21,77%</t>
+  </si>
+  <si>
+    <t>54,13%</t>
+  </si>
+  <si>
+    <t>50,83%</t>
+  </si>
+  <si>
+    <t>57,0%</t>
+  </si>
+  <si>
+    <t>43,29%</t>
+  </si>
+  <si>
+    <t>36,81%</t>
   </si>
   <si>
     <t>59,16%</t>
   </si>
   <si>
-    <t>40,69%</t>
-  </si>
-  <si>
-    <t>37,06%</t>
-  </si>
-  <si>
-    <t>50,73%</t>
-  </si>
-  <si>
-    <t>47,01%</t>
-  </si>
-  <si>
-    <t>44,77%</t>
-  </si>
-  <si>
-    <t>52,66%</t>
-  </si>
-  <si>
-    <t>43,61%</t>
+    <t>47,68%</t>
+  </si>
+  <si>
+    <t>44,09%</t>
+  </si>
+  <si>
+    <t>58,57%</t>
+  </si>
+  <si>
+    <t>45,87%</t>
+  </si>
+  <si>
+    <t>43,0%</t>
+  </si>
+  <si>
+    <t>49,17%</t>
+  </si>
+  <si>
+    <t>56,71%</t>
   </si>
   <si>
     <t>40,84%</t>
   </si>
   <si>
-    <t>46,71%</t>
-  </si>
-  <si>
-    <t>59,31%</t>
-  </si>
-  <si>
-    <t>49,27%</t>
-  </si>
-  <si>
-    <t>62,94%</t>
-  </si>
-  <si>
-    <t>52,99%</t>
-  </si>
-  <si>
-    <t>47,34%</t>
-  </si>
-  <si>
-    <t>55,23%</t>
+    <t>63,19%</t>
+  </si>
+  <si>
+    <t>52,32%</t>
+  </si>
+  <si>
+    <t>41,43%</t>
+  </si>
+  <si>
+    <t>55,91%</t>
   </si>
 </sst>
 </file>
@@ -1950,8 +2151,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FE317D0-03DA-4DD5-BA59-D196816CC4E0}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A9D2259-1118-4D6D-A3AC-A7C95F5E74AD}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2843,10 +3044,10 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>512</v>
+        <v>296</v>
       </c>
       <c r="D19" s="7">
-        <v>492052</v>
+        <v>285674</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>104</v>
@@ -2858,10 +3059,10 @@
         <v>106</v>
       </c>
       <c r="H19" s="7">
-        <v>406</v>
+        <v>191</v>
       </c>
       <c r="I19" s="7">
-        <v>424043</v>
+        <v>176739</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>107</v>
@@ -2873,10 +3074,10 @@
         <v>109</v>
       </c>
       <c r="M19" s="7">
-        <v>918</v>
+        <v>487</v>
       </c>
       <c r="N19" s="7">
-        <v>916095</v>
+        <v>462413</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>110</v>
@@ -2894,10 +3095,10 @@
         <v>18</v>
       </c>
       <c r="C20" s="7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D20" s="7">
-        <v>5376</v>
+        <v>4341</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>113</v>
@@ -2909,10 +3110,10 @@
         <v>115</v>
       </c>
       <c r="H20" s="7">
-        <v>249</v>
+        <v>175</v>
       </c>
       <c r="I20" s="7">
-        <v>247255</v>
+        <v>161724</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>116</v>
@@ -2924,10 +3125,10 @@
         <v>118</v>
       </c>
       <c r="M20" s="7">
-        <v>255</v>
+        <v>180</v>
       </c>
       <c r="N20" s="7">
-        <v>252630</v>
+        <v>166066</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>119</v>
@@ -2945,10 +3146,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>518</v>
+        <v>301</v>
       </c>
       <c r="D21" s="7">
-        <v>497428</v>
+        <v>290015</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>26</v>
@@ -2960,10 +3161,10 @@
         <v>26</v>
       </c>
       <c r="H21" s="7">
-        <v>655</v>
+        <v>366</v>
       </c>
       <c r="I21" s="7">
-        <v>671298</v>
+        <v>338463</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>26</v>
@@ -2975,10 +3176,10 @@
         <v>26</v>
       </c>
       <c r="M21" s="7">
-        <v>1173</v>
+        <v>667</v>
       </c>
       <c r="N21" s="7">
-        <v>1168725</v>
+        <v>628479</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>26</v>
@@ -2992,31 +3193,31 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>122</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>760</v>
+        <v>216</v>
       </c>
       <c r="D22" s="7">
-        <v>741679</v>
+        <v>206377</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>124</v>
+        <v>21</v>
       </c>
       <c r="H22" s="7">
-        <v>558</v>
+        <v>215</v>
       </c>
       <c r="I22" s="7">
-        <v>578130</v>
+        <v>247304</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>125</v>
@@ -3028,10 +3229,10 @@
         <v>127</v>
       </c>
       <c r="M22" s="7">
-        <v>1318</v>
+        <v>431</v>
       </c>
       <c r="N22" s="7">
-        <v>1319809</v>
+        <v>453682</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>128</v>
@@ -3049,49 +3250,49 @@
         <v>18</v>
       </c>
       <c r="C23" s="7">
-        <v>618</v>
+        <v>1</v>
       </c>
       <c r="D23" s="7">
-        <v>617664</v>
+        <v>1035</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>131</v>
       </c>
       <c r="F23" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="G23" s="7" t="s">
+      <c r="H23" s="7">
+        <v>74</v>
+      </c>
+      <c r="I23" s="7">
+        <v>85530</v>
+      </c>
+      <c r="J23" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="H23" s="7">
-        <v>1750</v>
-      </c>
-      <c r="I23" s="7">
-        <v>1768410</v>
-      </c>
-      <c r="J23" s="7" t="s">
+      <c r="K23" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="L23" s="7" t="s">
+      <c r="M23" s="7">
+        <v>75</v>
+      </c>
+      <c r="N23" s="7">
+        <v>86565</v>
+      </c>
+      <c r="O23" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="M23" s="7">
-        <v>2368</v>
-      </c>
-      <c r="N23" s="7">
-        <v>2386075</v>
-      </c>
-      <c r="O23" s="7" t="s">
+      <c r="P23" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3100,63 +3301,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>217</v>
+      </c>
+      <c r="D24" s="7">
+        <v>207412</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H24" s="7">
+        <v>289</v>
+      </c>
+      <c r="I24" s="7">
+        <v>332834</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="M24" s="7">
+        <v>506</v>
+      </c>
+      <c r="N24" s="7">
+        <v>540247</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>760</v>
+      </c>
+      <c r="D25" s="7">
+        <v>741679</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="H25" s="7">
+        <v>558</v>
+      </c>
+      <c r="I25" s="7">
+        <v>578130</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="M25" s="7">
+        <v>1318</v>
+      </c>
+      <c r="N25" s="7">
+        <v>1319809</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="7">
+        <v>618</v>
+      </c>
+      <c r="D26" s="7">
+        <v>617664</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="H26" s="7">
+        <v>1750</v>
+      </c>
+      <c r="I26" s="7">
+        <v>1768411</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="M26" s="7">
+        <v>2368</v>
+      </c>
+      <c r="N26" s="7">
+        <v>2386074</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>1378</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>1359343</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H27" s="7">
         <v>2308</v>
       </c>
-      <c r="I24" s="7">
-        <v>2346540</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I27" s="7">
+        <v>2346541</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="M27" s="7">
         <v>3686</v>
       </c>
-      <c r="N24" s="7">
-        <v>3705884</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>140</v>
+      <c r="N27" s="7">
+        <v>3705883</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>157</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3169,8 +3526,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{897C140A-32FE-4356-AD89-88AC71A615AA}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCD79858-7A51-46C2-B44E-C322EA3C2466}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3186,7 +3543,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>141</v>
+        <v>158</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3293,13 +3650,13 @@
         <v>3931</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>142</v>
+        <v>159</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>143</v>
+        <v>160</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>144</v>
+        <v>161</v>
       </c>
       <c r="H4" s="7">
         <v>9</v>
@@ -3308,13 +3665,13 @@
         <v>9677</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>145</v>
+        <v>162</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>147</v>
+        <v>164</v>
       </c>
       <c r="M4" s="7">
         <v>13</v>
@@ -3323,13 +3680,13 @@
         <v>13608</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>148</v>
+        <v>165</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>149</v>
+        <v>166</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3344,13 +3701,13 @@
         <v>356189</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>151</v>
+        <v>168</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>152</v>
+        <v>169</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>153</v>
+        <v>170</v>
       </c>
       <c r="H5" s="7">
         <v>324</v>
@@ -3359,13 +3716,13 @@
         <v>330852</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>154</v>
+        <v>171</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
       <c r="M5" s="7">
         <v>677</v>
@@ -3374,13 +3731,13 @@
         <v>687041</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>157</v>
+        <v>174</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3448,13 +3805,13 @@
         <v>16750</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>160</v>
+        <v>177</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="H7" s="7">
         <v>23</v>
@@ -3463,13 +3820,13 @@
         <v>25294</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>163</v>
+        <v>180</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>50</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>164</v>
+        <v>181</v>
       </c>
       <c r="M7" s="7">
         <v>39</v>
@@ -3478,13 +3835,13 @@
         <v>42044</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>165</v>
+        <v>182</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>166</v>
+        <v>183</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3499,13 +3856,13 @@
         <v>283590</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="H8" s="7">
         <v>285</v>
@@ -3514,10 +3871,10 @@
         <v>302707</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>172</v>
+        <v>189</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>59</v>
@@ -3529,13 +3886,13 @@
         <v>586297</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>173</v>
+        <v>190</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>174</v>
+        <v>191</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>175</v>
+        <v>192</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3603,13 +3960,13 @@
         <v>46723</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>176</v>
+        <v>193</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>177</v>
+        <v>194</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>178</v>
+        <v>195</v>
       </c>
       <c r="H10" s="7">
         <v>34</v>
@@ -3618,13 +3975,13 @@
         <v>39667</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>179</v>
+        <v>196</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>181</v>
+        <v>137</v>
       </c>
       <c r="M10" s="7">
         <v>76</v>
@@ -3633,13 +3990,13 @@
         <v>86390</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>183</v>
+        <v>199</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>184</v>
+        <v>200</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3654,13 +4011,13 @@
         <v>204746</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>187</v>
+        <v>203</v>
       </c>
       <c r="H11" s="7">
         <v>352</v>
@@ -3669,13 +4026,13 @@
         <v>376659</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>189</v>
+        <v>130</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>190</v>
+        <v>205</v>
       </c>
       <c r="M11" s="7">
         <v>546</v>
@@ -3684,13 +4041,13 @@
         <v>581406</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>191</v>
+        <v>206</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>192</v>
+        <v>207</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>193</v>
+        <v>208</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3758,13 +4115,13 @@
         <v>75827</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>194</v>
+        <v>209</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>196</v>
+        <v>211</v>
       </c>
       <c r="H13" s="7">
         <v>49</v>
@@ -3773,13 +4130,13 @@
         <v>54635</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>197</v>
+        <v>212</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>199</v>
+        <v>214</v>
       </c>
       <c r="M13" s="7">
         <v>116</v>
@@ -3788,13 +4145,13 @@
         <v>130462</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>200</v>
+        <v>215</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>201</v>
+        <v>216</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>202</v>
+        <v>217</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3809,13 +4166,13 @@
         <v>169041</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>204</v>
+        <v>219</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>205</v>
+        <v>220</v>
       </c>
       <c r="H14" s="7">
         <v>289</v>
@@ -3824,13 +4181,13 @@
         <v>327856</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>206</v>
+        <v>221</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>207</v>
+        <v>222</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>208</v>
+        <v>223</v>
       </c>
       <c r="M14" s="7">
         <v>443</v>
@@ -3839,13 +4196,13 @@
         <v>496897</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>210</v>
+        <v>225</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>211</v>
+        <v>226</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3913,13 +4270,13 @@
         <v>174529</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>212</v>
+        <v>227</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>213</v>
+        <v>228</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>214</v>
+        <v>229</v>
       </c>
       <c r="H16" s="7">
         <v>88</v>
@@ -3928,13 +4285,13 @@
         <v>95754</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>215</v>
+        <v>230</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>216</v>
+        <v>231</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>217</v>
+        <v>232</v>
       </c>
       <c r="M16" s="7">
         <v>247</v>
@@ -3943,13 +4300,13 @@
         <v>270283</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>218</v>
+        <v>233</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>219</v>
+        <v>234</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>220</v>
+        <v>235</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3964,13 +4321,13 @@
         <v>93466</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>221</v>
+        <v>236</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>222</v>
+        <v>237</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>223</v>
+        <v>238</v>
       </c>
       <c r="H17" s="7">
         <v>249</v>
@@ -3979,13 +4336,13 @@
         <v>275301</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>224</v>
+        <v>239</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>225</v>
+        <v>240</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>226</v>
+        <v>241</v>
       </c>
       <c r="M17" s="7">
         <v>332</v>
@@ -3994,13 +4351,13 @@
         <v>368767</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>227</v>
+        <v>242</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>228</v>
+        <v>243</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>229</v>
+        <v>244</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4062,49 +4419,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>499</v>
+        <v>278</v>
       </c>
       <c r="D19" s="7">
-        <v>554461</v>
+        <v>305672</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>106</v>
+        <v>245</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>230</v>
+        <v>246</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>21</v>
       </c>
       <c r="H19" s="7">
-        <v>486</v>
+        <v>219</v>
       </c>
       <c r="I19" s="7">
-        <v>523191</v>
+        <v>225580</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>231</v>
+        <v>247</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>232</v>
+        <v>248</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>233</v>
+        <v>249</v>
       </c>
       <c r="M19" s="7">
-        <v>985</v>
+        <v>497</v>
       </c>
       <c r="N19" s="7">
-        <v>1077651</v>
+        <v>531251</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>234</v>
+        <v>250</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>235</v>
+        <v>251</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>236</v>
+        <v>252</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4113,49 +4470,49 @@
         <v>18</v>
       </c>
       <c r="C20" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D20" s="7">
-        <v>2160</v>
+        <v>1098</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>114</v>
+        <v>253</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>237</v>
+        <v>254</v>
       </c>
       <c r="H20" s="7">
-        <v>200</v>
+        <v>119</v>
       </c>
       <c r="I20" s="7">
-        <v>211946</v>
+        <v>122659</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>238</v>
+        <v>255</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>239</v>
+        <v>256</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>240</v>
+        <v>257</v>
       </c>
       <c r="M20" s="7">
-        <v>202</v>
+        <v>120</v>
       </c>
       <c r="N20" s="7">
-        <v>214107</v>
+        <v>123758</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>241</v>
+        <v>258</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>242</v>
+        <v>259</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>243</v>
+        <v>260</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4164,10 +4521,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>501</v>
+        <v>279</v>
       </c>
       <c r="D21" s="7">
-        <v>556621</v>
+        <v>306770</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>26</v>
@@ -4179,10 +4536,10 @@
         <v>26</v>
       </c>
       <c r="H21" s="7">
-        <v>686</v>
+        <v>338</v>
       </c>
       <c r="I21" s="7">
-        <v>735137</v>
+        <v>348239</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>26</v>
@@ -4194,10 +4551,10 @@
         <v>26</v>
       </c>
       <c r="M21" s="7">
-        <v>1187</v>
+        <v>617</v>
       </c>
       <c r="N21" s="7">
-        <v>1291758</v>
+        <v>655009</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>26</v>
@@ -4211,55 +4568,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>122</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>787</v>
+        <v>221</v>
       </c>
       <c r="D22" s="7">
-        <v>872220</v>
+        <v>248789</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>244</v>
+        <v>261</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>245</v>
+        <v>262</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>246</v>
+        <v>21</v>
       </c>
       <c r="H22" s="7">
-        <v>689</v>
+        <v>267</v>
       </c>
       <c r="I22" s="7">
-        <v>748218</v>
+        <v>297611</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>247</v>
+        <v>263</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>248</v>
+        <v>264</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>249</v>
+        <v>265</v>
       </c>
       <c r="M22" s="7">
-        <v>1476</v>
+        <v>488</v>
       </c>
       <c r="N22" s="7">
-        <v>1620438</v>
+        <v>546400</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>250</v>
+        <v>266</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>129</v>
+        <v>267</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>251</v>
+        <v>268</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4268,49 +4625,49 @@
         <v>18</v>
       </c>
       <c r="C23" s="7">
-        <v>1065</v>
+        <v>1</v>
       </c>
       <c r="D23" s="7">
-        <v>1109193</v>
+        <v>1062</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>253</v>
+        <v>12</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>254</v>
+        <v>270</v>
       </c>
       <c r="H23" s="7">
-        <v>1699</v>
+        <v>81</v>
       </c>
       <c r="I23" s="7">
-        <v>1825320</v>
+        <v>89287</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>255</v>
+        <v>271</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>256</v>
+        <v>272</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>257</v>
+        <v>273</v>
       </c>
       <c r="M23" s="7">
-        <v>2764</v>
+        <v>82</v>
       </c>
       <c r="N23" s="7">
-        <v>2934514</v>
+        <v>90349</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>258</v>
+        <v>274</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>259</v>
+        <v>275</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>139</v>
+        <v>276</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4319,63 +4676,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>222</v>
+      </c>
+      <c r="D24" s="7">
+        <v>249851</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H24" s="7">
+        <v>348</v>
+      </c>
+      <c r="I24" s="7">
+        <v>386898</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="M24" s="7">
+        <v>570</v>
+      </c>
+      <c r="N24" s="7">
+        <v>636749</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>787</v>
+      </c>
+      <c r="D25" s="7">
+        <v>872220</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="H25" s="7">
+        <v>689</v>
+      </c>
+      <c r="I25" s="7">
+        <v>748218</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="M25" s="7">
+        <v>1476</v>
+      </c>
+      <c r="N25" s="7">
+        <v>1620438</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="7">
+        <v>1065</v>
+      </c>
+      <c r="D26" s="7">
+        <v>1109193</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="H26" s="7">
+        <v>1699</v>
+      </c>
+      <c r="I26" s="7">
+        <v>1825320</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="M26" s="7">
+        <v>2764</v>
+      </c>
+      <c r="N26" s="7">
+        <v>2934514</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>1852</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>1981413</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H27" s="7">
         <v>2388</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>2573538</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="M27" s="7">
         <v>4240</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>4554952</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>140</v>
+      <c r="O27" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>157</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4388,8 +4901,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16AF9604-077A-498E-B7F8-E206540E0507}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FA67E15-D946-4755-BB6B-3F83E521FF8F}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4405,7 +4918,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>260</v>
+        <v>293</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4512,13 +5025,13 @@
         <v>4483</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>261</v>
+        <v>294</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>262</v>
+        <v>295</v>
       </c>
       <c r="H4" s="7">
         <v>11</v>
@@ -4527,13 +5040,13 @@
         <v>10621</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>263</v>
+        <v>296</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>13</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>264</v>
+        <v>297</v>
       </c>
       <c r="M4" s="7">
         <v>15</v>
@@ -4542,13 +5055,13 @@
         <v>15104</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>115</v>
+        <v>298</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>265</v>
+        <v>299</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>266</v>
+        <v>300</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4563,13 +5076,13 @@
         <v>322518</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>267</v>
+        <v>301</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>268</v>
+        <v>302</v>
       </c>
       <c r="H5" s="7">
         <v>285</v>
@@ -4578,10 +5091,10 @@
         <v>278153</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>269</v>
+        <v>303</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>270</v>
+        <v>304</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>20</v>
@@ -4593,13 +5106,13 @@
         <v>600671</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>105</v>
+        <v>305</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>271</v>
+        <v>306</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>272</v>
+        <v>307</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4667,13 +5180,13 @@
         <v>14440</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>273</v>
+        <v>308</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>274</v>
+        <v>309</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>275</v>
+        <v>310</v>
       </c>
       <c r="H7" s="7">
         <v>13</v>
@@ -4682,13 +5195,13 @@
         <v>12850</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>276</v>
+        <v>311</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>277</v>
+        <v>312</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>278</v>
+        <v>313</v>
       </c>
       <c r="M7" s="7">
         <v>27</v>
@@ -4697,13 +5210,13 @@
         <v>27289</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>279</v>
+        <v>314</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>280</v>
+        <v>315</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>281</v>
+        <v>316</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4718,13 +5231,13 @@
         <v>229008</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>282</v>
+        <v>317</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>283</v>
+        <v>318</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>284</v>
+        <v>319</v>
       </c>
       <c r="H8" s="7">
         <v>278</v>
@@ -4733,28 +5246,28 @@
         <v>271643</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>285</v>
+        <v>320</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>286</v>
+        <v>321</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>287</v>
+        <v>322</v>
       </c>
       <c r="M8" s="7">
         <v>499</v>
       </c>
       <c r="N8" s="7">
-        <v>500651</v>
+        <v>500652</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>288</v>
+        <v>323</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>289</v>
+        <v>324</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>290</v>
+        <v>325</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4796,7 +5309,7 @@
         <v>526</v>
       </c>
       <c r="N9" s="7">
-        <v>527940</v>
+        <v>527941</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>26</v>
@@ -4822,13 +5335,13 @@
         <v>29525</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>291</v>
+        <v>326</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>292</v>
+        <v>327</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>293</v>
+        <v>328</v>
       </c>
       <c r="H10" s="7">
         <v>31</v>
@@ -4837,13 +5350,13 @@
         <v>29632</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>294</v>
+        <v>329</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>295</v>
+        <v>330</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>296</v>
+        <v>331</v>
       </c>
       <c r="M10" s="7">
         <v>59</v>
@@ -4852,13 +5365,13 @@
         <v>59156</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>297</v>
+        <v>332</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>298</v>
+        <v>333</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>299</v>
+        <v>334</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4873,13 +5386,13 @@
         <v>178670</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>300</v>
+        <v>335</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>301</v>
+        <v>336</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>302</v>
+        <v>337</v>
       </c>
       <c r="H11" s="7">
         <v>314</v>
@@ -4888,13 +5401,13 @@
         <v>313401</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>303</v>
+        <v>338</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>304</v>
+        <v>339</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>305</v>
+        <v>340</v>
       </c>
       <c r="M11" s="7">
         <v>486</v>
@@ -4903,13 +5416,13 @@
         <v>492071</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>306</v>
+        <v>341</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>307</v>
+        <v>342</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>308</v>
+        <v>343</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4977,13 +5490,13 @@
         <v>79808</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>309</v>
+        <v>344</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>310</v>
+        <v>345</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>311</v>
+        <v>346</v>
       </c>
       <c r="H13" s="7">
         <v>44</v>
@@ -4992,13 +5505,13 @@
         <v>47340</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>312</v>
+        <v>347</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>313</v>
+        <v>348</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>314</v>
+        <v>259</v>
       </c>
       <c r="M13" s="7">
         <v>116</v>
@@ -5007,13 +5520,13 @@
         <v>127148</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>315</v>
+        <v>349</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>316</v>
+        <v>350</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>317</v>
+        <v>351</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5028,13 +5541,13 @@
         <v>197245</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>318</v>
+        <v>352</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>319</v>
+        <v>353</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>320</v>
+        <v>354</v>
       </c>
       <c r="H14" s="7">
         <v>324</v>
@@ -5043,13 +5556,13 @@
         <v>346537</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>321</v>
+        <v>355</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>322</v>
+        <v>252</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>323</v>
+        <v>356</v>
       </c>
       <c r="M14" s="7">
         <v>502</v>
@@ -5058,13 +5571,13 @@
         <v>543782</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>324</v>
+        <v>357</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>325</v>
+        <v>358</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>326</v>
+        <v>359</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5132,13 +5645,13 @@
         <v>200303</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>327</v>
+        <v>360</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>328</v>
+        <v>361</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>329</v>
+        <v>362</v>
       </c>
       <c r="H16" s="7">
         <v>99</v>
@@ -5147,13 +5660,13 @@
         <v>112851</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>330</v>
+        <v>363</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>331</v>
+        <v>364</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>332</v>
+        <v>365</v>
       </c>
       <c r="M16" s="7">
         <v>276</v>
@@ -5162,13 +5675,13 @@
         <v>313154</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>333</v>
+        <v>366</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>334</v>
+        <v>367</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>335</v>
+        <v>368</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5183,13 +5696,13 @@
         <v>110008</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>336</v>
+        <v>369</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>337</v>
+        <v>370</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>338</v>
+        <v>371</v>
       </c>
       <c r="H17" s="7">
         <v>237</v>
@@ -5198,13 +5711,13 @@
         <v>270449</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>339</v>
+        <v>372</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>340</v>
+        <v>373</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>341</v>
+        <v>374</v>
       </c>
       <c r="M17" s="7">
         <v>337</v>
@@ -5213,13 +5726,13 @@
         <v>380456</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>342</v>
+        <v>375</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>343</v>
+        <v>376</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>344</v>
+        <v>377</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5281,49 +5794,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>608</v>
+        <v>314</v>
       </c>
       <c r="D19" s="7">
-        <v>573666</v>
+        <v>323264</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>345</v>
+        <v>378</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>346</v>
+        <v>379</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>347</v>
+        <v>380</v>
       </c>
       <c r="H19" s="7">
-        <v>441</v>
+        <v>219</v>
       </c>
       <c r="I19" s="7">
-        <v>528727</v>
+        <v>234052</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>348</v>
+        <v>381</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>349</v>
+        <v>382</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>350</v>
+        <v>383</v>
       </c>
       <c r="M19" s="7">
-        <v>1049</v>
+        <v>533</v>
       </c>
       <c r="N19" s="7">
-        <v>1102394</v>
+        <v>557316</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>351</v>
+        <v>384</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>352</v>
+        <v>385</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>353</v>
+        <v>386</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5332,49 +5845,49 @@
         <v>18</v>
       </c>
       <c r="C20" s="7">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D20" s="7">
-        <v>6643</v>
+        <v>4951</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>354</v>
+        <v>387</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>355</v>
+        <v>388</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>356</v>
+        <v>389</v>
       </c>
       <c r="H20" s="7">
-        <v>202</v>
+        <v>126</v>
       </c>
       <c r="I20" s="7">
-        <v>236073</v>
+        <v>134536</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>357</v>
+        <v>390</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>358</v>
+        <v>391</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>359</v>
+        <v>392</v>
       </c>
       <c r="M20" s="7">
-        <v>209</v>
+        <v>131</v>
       </c>
       <c r="N20" s="7">
-        <v>242716</v>
+        <v>139487</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>360</v>
+        <v>393</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>361</v>
+        <v>394</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>362</v>
+        <v>395</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5383,10 +5896,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>615</v>
+        <v>319</v>
       </c>
       <c r="D21" s="7">
-        <v>580309</v>
+        <v>328215</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>26</v>
@@ -5398,10 +5911,10 @@
         <v>26</v>
       </c>
       <c r="H21" s="7">
-        <v>643</v>
+        <v>345</v>
       </c>
       <c r="I21" s="7">
-        <v>764800</v>
+        <v>368588</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>26</v>
@@ -5413,10 +5926,10 @@
         <v>26</v>
       </c>
       <c r="M21" s="7">
-        <v>1258</v>
+        <v>664</v>
       </c>
       <c r="N21" s="7">
-        <v>1345110</v>
+        <v>696803</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>26</v>
@@ -5430,55 +5943,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>122</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>903</v>
+        <v>294</v>
       </c>
       <c r="D22" s="7">
-        <v>902225</v>
+        <v>250401</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>363</v>
+        <v>396</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>364</v>
+        <v>397</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>365</v>
+        <v>21</v>
       </c>
       <c r="H22" s="7">
-        <v>639</v>
+        <v>222</v>
       </c>
       <c r="I22" s="7">
-        <v>742021</v>
+        <v>294675</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>366</v>
+        <v>398</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>367</v>
+        <v>399</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>368</v>
+        <v>400</v>
       </c>
       <c r="M22" s="7">
-        <v>1542</v>
+        <v>516</v>
       </c>
       <c r="N22" s="7">
-        <v>1644246</v>
+        <v>545077</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>369</v>
+        <v>401</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>370</v>
+        <v>402</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>371</v>
+        <v>403</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5487,49 +6000,49 @@
         <v>18</v>
       </c>
       <c r="C23" s="7">
-        <v>981</v>
+        <v>2</v>
       </c>
       <c r="D23" s="7">
-        <v>1044091</v>
+        <v>1693</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>372</v>
+        <v>404</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>373</v>
+        <v>12</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>374</v>
+        <v>405</v>
       </c>
       <c r="H23" s="7">
-        <v>1640</v>
+        <v>76</v>
       </c>
       <c r="I23" s="7">
-        <v>1716255</v>
+        <v>101537</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>375</v>
+        <v>406</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>376</v>
+        <v>407</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>377</v>
+        <v>408</v>
       </c>
       <c r="M23" s="7">
-        <v>2621</v>
+        <v>78</v>
       </c>
       <c r="N23" s="7">
-        <v>2760346</v>
+        <v>103229</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>378</v>
+        <v>409</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>379</v>
+        <v>410</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>380</v>
+        <v>411</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5538,63 +6051,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>296</v>
+      </c>
+      <c r="D24" s="7">
+        <v>252094</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H24" s="7">
+        <v>298</v>
+      </c>
+      <c r="I24" s="7">
+        <v>396212</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="M24" s="7">
+        <v>594</v>
+      </c>
+      <c r="N24" s="7">
+        <v>648306</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>903</v>
+      </c>
+      <c r="D25" s="7">
+        <v>902225</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="H25" s="7">
+        <v>639</v>
+      </c>
+      <c r="I25" s="7">
+        <v>742021</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="M25" s="7">
+        <v>1542</v>
+      </c>
+      <c r="N25" s="7">
+        <v>1644246</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="7">
+        <v>981</v>
+      </c>
+      <c r="D26" s="7">
+        <v>1044091</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="H26" s="7">
+        <v>1640</v>
+      </c>
+      <c r="I26" s="7">
+        <v>1716255</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="M26" s="7">
+        <v>2621</v>
+      </c>
+      <c r="N26" s="7">
+        <v>2760347</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>1884</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>1946316</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H27" s="7">
         <v>2279</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>2458276</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="M27" s="7">
         <v>4163</v>
       </c>
-      <c r="N24" s="7">
-        <v>4404592</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>140</v>
+      <c r="N27" s="7">
+        <v>4404593</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>157</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -5607,8 +6276,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2C8C2E8-9AB2-49A7-90C8-4F43A821E0A6}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7753735E-F1A8-4092-8B10-8829F14B5FFB}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -5624,7 +6293,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>381</v>
+        <v>430</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5728,46 +6397,46 @@
         <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>2053</v>
+        <v>1990</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>382</v>
+        <v>431</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>383</v>
+        <v>432</v>
       </c>
       <c r="H4" s="7">
         <v>3</v>
       </c>
       <c r="I4" s="7">
-        <v>6185</v>
+        <v>5496</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>384</v>
+        <v>405</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>385</v>
+        <v>433</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>386</v>
+        <v>434</v>
       </c>
       <c r="M4" s="7">
         <v>4</v>
       </c>
       <c r="N4" s="7">
-        <v>8238</v>
+        <v>7486</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>387</v>
+        <v>435</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>388</v>
+        <v>253</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>389</v>
+        <v>436</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5779,13 +6448,13 @@
         <v>123</v>
       </c>
       <c r="D5" s="7">
-        <v>284726</v>
+        <v>305725</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>390</v>
+        <v>437</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>391</v>
+        <v>438</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>21</v>
@@ -5794,31 +6463,31 @@
         <v>146</v>
       </c>
       <c r="I5" s="7">
-        <v>251319</v>
+        <v>220921</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>393</v>
+        <v>439</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>394</v>
+        <v>440</v>
       </c>
       <c r="M5" s="7">
         <v>269</v>
       </c>
       <c r="N5" s="7">
-        <v>536045</v>
+        <v>526645</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>395</v>
+        <v>441</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>396</v>
+        <v>442</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>397</v>
+        <v>245</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5830,7 +6499,7 @@
         <v>124</v>
       </c>
       <c r="D6" s="7">
-        <v>286779</v>
+        <v>307715</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>26</v>
@@ -5845,7 +6514,7 @@
         <v>149</v>
       </c>
       <c r="I6" s="7">
-        <v>257504</v>
+        <v>226417</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>26</v>
@@ -5860,7 +6529,7 @@
         <v>273</v>
       </c>
       <c r="N6" s="7">
-        <v>544283</v>
+        <v>534131</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>26</v>
@@ -5883,46 +6552,46 @@
         <v>6</v>
       </c>
       <c r="D7" s="7">
-        <v>8502</v>
+        <v>8123</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>398</v>
+        <v>443</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>147</v>
+        <v>444</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>399</v>
+        <v>445</v>
       </c>
       <c r="H7" s="7">
         <v>12</v>
       </c>
       <c r="I7" s="7">
-        <v>13120</v>
+        <v>12055</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>400</v>
+        <v>446</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>401</v>
+        <v>447</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>402</v>
+        <v>448</v>
       </c>
       <c r="M7" s="7">
         <v>18</v>
       </c>
       <c r="N7" s="7">
-        <v>21621</v>
+        <v>20178</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>403</v>
+        <v>449</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>404</v>
+        <v>450</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>405</v>
+        <v>451</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5934,46 +6603,46 @@
         <v>45</v>
       </c>
       <c r="D8" s="7">
-        <v>64242</v>
+        <v>63726</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>406</v>
+        <v>452</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>407</v>
+        <v>453</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>155</v>
+        <v>454</v>
       </c>
       <c r="H8" s="7">
         <v>148</v>
       </c>
       <c r="I8" s="7">
-        <v>160038</v>
+        <v>146533</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>408</v>
+        <v>455</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>409</v>
+        <v>456</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>410</v>
+        <v>457</v>
       </c>
       <c r="M8" s="7">
         <v>193</v>
       </c>
       <c r="N8" s="7">
-        <v>224281</v>
+        <v>210259</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>411</v>
+        <v>458</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>412</v>
+        <v>459</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>413</v>
+        <v>460</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5985,7 +6654,7 @@
         <v>51</v>
       </c>
       <c r="D9" s="7">
-        <v>72744</v>
+        <v>71849</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>26</v>
@@ -6000,7 +6669,7 @@
         <v>160</v>
       </c>
       <c r="I9" s="7">
-        <v>173158</v>
+        <v>158588</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>26</v>
@@ -6015,7 +6684,7 @@
         <v>211</v>
       </c>
       <c r="N9" s="7">
-        <v>245902</v>
+        <v>230437</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>26</v>
@@ -6038,46 +6707,46 @@
         <v>18</v>
       </c>
       <c r="D10" s="7">
-        <v>21461</v>
+        <v>19871</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>414</v>
+        <v>461</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>415</v>
+        <v>462</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>416</v>
+        <v>463</v>
       </c>
       <c r="H10" s="7">
         <v>38</v>
       </c>
       <c r="I10" s="7">
-        <v>29420</v>
+        <v>26592</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>417</v>
+        <v>464</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>418</v>
+        <v>465</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>419</v>
+        <v>466</v>
       </c>
       <c r="M10" s="7">
         <v>56</v>
       </c>
       <c r="N10" s="7">
-        <v>50881</v>
+        <v>46463</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>420</v>
+        <v>467</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>421</v>
+        <v>468</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>422</v>
+        <v>469</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6089,46 +6758,46 @@
         <v>53</v>
       </c>
       <c r="D11" s="7">
-        <v>53702</v>
+        <v>52203</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>423</v>
+        <v>470</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>424</v>
+        <v>471</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>425</v>
+        <v>472</v>
       </c>
       <c r="H11" s="7">
         <v>259</v>
       </c>
       <c r="I11" s="7">
-        <v>175553</v>
+        <v>163081</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>426</v>
+        <v>473</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>427</v>
+        <v>474</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>428</v>
+        <v>475</v>
       </c>
       <c r="M11" s="7">
         <v>312</v>
       </c>
       <c r="N11" s="7">
-        <v>229255</v>
+        <v>215284</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>429</v>
+        <v>476</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>430</v>
+        <v>477</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>431</v>
+        <v>478</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6140,7 +6809,7 @@
         <v>71</v>
       </c>
       <c r="D12" s="7">
-        <v>75163</v>
+        <v>72074</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>26</v>
@@ -6155,7 +6824,7 @@
         <v>297</v>
       </c>
       <c r="I12" s="7">
-        <v>204973</v>
+        <v>189673</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>26</v>
@@ -6170,7 +6839,7 @@
         <v>368</v>
       </c>
       <c r="N12" s="7">
-        <v>280136</v>
+        <v>261747</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>26</v>
@@ -6193,46 +6862,46 @@
         <v>53</v>
       </c>
       <c r="D13" s="7">
-        <v>57660</v>
+        <v>54596</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>432</v>
+        <v>479</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>240</v>
+        <v>480</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>433</v>
+        <v>481</v>
       </c>
       <c r="H13" s="7">
         <v>71</v>
       </c>
       <c r="I13" s="7">
-        <v>44351</v>
+        <v>41311</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>434</v>
+        <v>482</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>435</v>
+        <v>483</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>362</v>
+        <v>484</v>
       </c>
       <c r="M13" s="7">
         <v>124</v>
       </c>
       <c r="N13" s="7">
-        <v>102011</v>
+        <v>95907</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>436</v>
+        <v>485</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>437</v>
+        <v>486</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>438</v>
+        <v>487</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6244,46 +6913,46 @@
         <v>86</v>
       </c>
       <c r="D14" s="7">
-        <v>84564</v>
+        <v>81145</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>439</v>
+        <v>488</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>440</v>
+        <v>489</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>232</v>
+        <v>490</v>
       </c>
       <c r="H14" s="7">
         <v>355</v>
       </c>
       <c r="I14" s="7">
-        <v>233996</v>
+        <v>215634</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>441</v>
+        <v>491</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>352</v>
+        <v>492</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>442</v>
+        <v>493</v>
       </c>
       <c r="M14" s="7">
         <v>441</v>
       </c>
       <c r="N14" s="7">
-        <v>318560</v>
+        <v>296778</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>443</v>
+        <v>494</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>444</v>
+        <v>495</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>445</v>
+        <v>496</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6295,7 +6964,7 @@
         <v>139</v>
       </c>
       <c r="D15" s="7">
-        <v>142224</v>
+        <v>135741</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>26</v>
@@ -6310,7 +6979,7 @@
         <v>426</v>
       </c>
       <c r="I15" s="7">
-        <v>278347</v>
+        <v>256945</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>26</v>
@@ -6325,7 +6994,7 @@
         <v>565</v>
       </c>
       <c r="N15" s="7">
-        <v>420571</v>
+        <v>392685</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>26</v>
@@ -6348,46 +7017,46 @@
         <v>196</v>
       </c>
       <c r="D16" s="7">
-        <v>184364</v>
+        <v>170209</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>446</v>
+        <v>497</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>447</v>
+        <v>498</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>448</v>
+        <v>499</v>
       </c>
       <c r="H16" s="7">
         <v>189</v>
       </c>
       <c r="I16" s="7">
-        <v>117045</v>
+        <v>106361</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>449</v>
+        <v>500</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>450</v>
+        <v>501</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>451</v>
+        <v>502</v>
       </c>
       <c r="M16" s="7">
         <v>385</v>
       </c>
       <c r="N16" s="7">
-        <v>301408</v>
+        <v>276570</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>452</v>
+        <v>503</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>453</v>
+        <v>504</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>454</v>
+        <v>505</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6399,46 +7068,46 @@
         <v>109</v>
       </c>
       <c r="D17" s="7">
-        <v>94742</v>
+        <v>90557</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>455</v>
+        <v>506</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>456</v>
+        <v>507</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>457</v>
+        <v>508</v>
       </c>
       <c r="H17" s="7">
         <v>417</v>
       </c>
       <c r="I17" s="7">
-        <v>247247</v>
+        <v>227714</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>458</v>
+        <v>509</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>459</v>
+        <v>510</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>460</v>
+        <v>511</v>
       </c>
       <c r="M17" s="7">
         <v>526</v>
       </c>
       <c r="N17" s="7">
-        <v>341990</v>
+        <v>318270</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>461</v>
+        <v>512</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>462</v>
+        <v>513</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>463</v>
+        <v>514</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6450,7 +7119,7 @@
         <v>305</v>
       </c>
       <c r="D18" s="7">
-        <v>279106</v>
+        <v>260766</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>26</v>
@@ -6465,7 +7134,7 @@
         <v>606</v>
       </c>
       <c r="I18" s="7">
-        <v>364292</v>
+        <v>334075</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>26</v>
@@ -6480,7 +7149,7 @@
         <v>911</v>
       </c>
       <c r="N18" s="7">
-        <v>643398</v>
+        <v>594840</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>26</v>
@@ -6500,49 +7169,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>861</v>
+        <v>461</v>
       </c>
       <c r="D19" s="7">
-        <v>591030</v>
+        <v>299517</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>464</v>
+        <v>515</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>465</v>
+        <v>516</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>466</v>
+        <v>517</v>
       </c>
       <c r="H19" s="7">
-        <v>1120</v>
+        <v>463</v>
       </c>
       <c r="I19" s="7">
-        <v>718219</v>
+        <v>431816</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>467</v>
+        <v>518</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>468</v>
+        <v>519</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>469</v>
+        <v>520</v>
       </c>
       <c r="M19" s="7">
-        <v>1981</v>
+        <v>924</v>
       </c>
       <c r="N19" s="7">
-        <v>1309249</v>
+        <v>731333</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>470</v>
+        <v>521</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>471</v>
+        <v>522</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>472</v>
+        <v>523</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6551,49 +7220,49 @@
         <v>18</v>
       </c>
       <c r="C20" s="7">
-        <v>138</v>
+        <v>82</v>
       </c>
       <c r="D20" s="7">
-        <v>86952</v>
+        <v>51705</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>473</v>
+        <v>524</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>474</v>
+        <v>525</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>475</v>
+        <v>526</v>
       </c>
       <c r="H20" s="7">
-        <v>544</v>
+        <v>324</v>
       </c>
       <c r="I20" s="7">
-        <v>284737</v>
+        <v>157075</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>476</v>
+        <v>527</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>477</v>
+        <v>528</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>478</v>
+        <v>529</v>
       </c>
       <c r="M20" s="7">
-        <v>682</v>
+        <v>406</v>
       </c>
       <c r="N20" s="7">
-        <v>371689</v>
+        <v>208780</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>479</v>
+        <v>530</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>480</v>
+        <v>531</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>481</v>
+        <v>532</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6602,10 +7271,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>999</v>
+        <v>543</v>
       </c>
       <c r="D21" s="7">
-        <v>677982</v>
+        <v>351222</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>26</v>
@@ -6617,10 +7286,10 @@
         <v>26</v>
       </c>
       <c r="H21" s="7">
-        <v>1664</v>
+        <v>787</v>
       </c>
       <c r="I21" s="7">
-        <v>1002956</v>
+        <v>588891</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>26</v>
@@ -6632,10 +7301,10 @@
         <v>26</v>
       </c>
       <c r="M21" s="7">
-        <v>2663</v>
+        <v>1330</v>
       </c>
       <c r="N21" s="7">
-        <v>1680938</v>
+        <v>940113</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>26</v>
@@ -6649,55 +7318,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>122</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>1135</v>
+        <v>400</v>
       </c>
       <c r="D22" s="7">
-        <v>865069</v>
+        <v>247165</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>482</v>
+        <v>339</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>483</v>
+        <v>533</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>484</v>
+        <v>534</v>
       </c>
       <c r="H22" s="7">
-        <v>1433</v>
+        <v>657</v>
       </c>
       <c r="I22" s="7">
-        <v>928340</v>
+        <v>319332</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>485</v>
+        <v>535</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>486</v>
+        <v>536</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>487</v>
+        <v>537</v>
       </c>
       <c r="M22" s="7">
-        <v>2568</v>
+        <v>1057</v>
       </c>
       <c r="N22" s="7">
-        <v>1793409</v>
+        <v>566497</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>488</v>
+        <v>538</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>489</v>
+        <v>539</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>490</v>
+        <v>540</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6706,49 +7375,49 @@
         <v>18</v>
       </c>
       <c r="C23" s="7">
-        <v>554</v>
+        <v>56</v>
       </c>
       <c r="D23" s="7">
-        <v>668929</v>
+        <v>33996</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>491</v>
+        <v>331</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>492</v>
+        <v>541</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>493</v>
+        <v>542</v>
       </c>
       <c r="H23" s="7">
-        <v>1869</v>
+        <v>220</v>
       </c>
       <c r="I23" s="7">
-        <v>1352890</v>
+        <v>104183</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>494</v>
+        <v>543</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>495</v>
+        <v>544</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>496</v>
+        <v>545</v>
       </c>
       <c r="M23" s="7">
-        <v>2423</v>
+        <v>276</v>
       </c>
       <c r="N23" s="7">
-        <v>2021819</v>
+        <v>138179</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>497</v>
+        <v>546</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>498</v>
+        <v>547</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>499</v>
+        <v>548</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6757,63 +7426,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>456</v>
+      </c>
+      <c r="D24" s="7">
+        <v>281161</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H24" s="7">
+        <v>877</v>
+      </c>
+      <c r="I24" s="7">
+        <v>423515</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="M24" s="7">
+        <v>1333</v>
+      </c>
+      <c r="N24" s="7">
+        <v>704676</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>1135</v>
+      </c>
+      <c r="D25" s="7">
+        <v>801470</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>549</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>550</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>551</v>
+      </c>
+      <c r="H25" s="7">
+        <v>1433</v>
+      </c>
+      <c r="I25" s="7">
+        <v>942962</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>552</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>553</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>554</v>
+      </c>
+      <c r="M25" s="7">
+        <v>2568</v>
+      </c>
+      <c r="N25" s="7">
+        <v>1744432</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>555</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>556</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="7">
+        <v>554</v>
+      </c>
+      <c r="D26" s="7">
+        <v>679057</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>558</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>559</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>560</v>
+      </c>
+      <c r="H26" s="7">
+        <v>1869</v>
+      </c>
+      <c r="I26" s="7">
+        <v>1235141</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>561</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="M26" s="7">
+        <v>2423</v>
+      </c>
+      <c r="N26" s="7">
+        <v>1914198</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>565</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>1689</v>
       </c>
-      <c r="D24" s="7">
-        <v>1533998</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="D27" s="7">
+        <v>1480527</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H27" s="7">
         <v>3302</v>
       </c>
-      <c r="I24" s="7">
-        <v>2281230</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I27" s="7">
+        <v>2178103</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="M27" s="7">
         <v>4991</v>
       </c>
-      <c r="N24" s="7">
-        <v>3815228</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>140</v>
+      <c r="N27" s="7">
+        <v>3658630</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>157</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
